--- a/DB/временно/TATEK.xlsx
+++ b/DB/временно/TATEK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661B74B6-119D-46A9-A3B0-1114ED121BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A7DDCC-9846-4A00-A54A-2DBA05F65EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3551,10 +3551,10 @@
   <dimension ref="A2:DR53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL5" sqref="AL5:AM5"/>
+      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5:BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,20 +4226,48 @@
       <c r="AM7" s="195">
         <v>11.523000000000593</v>
       </c>
-      <c r="AN7" s="219"/>
-      <c r="AO7" s="195"/>
-      <c r="AP7" s="219"/>
-      <c r="AQ7" s="195"/>
-      <c r="AR7" s="219"/>
-      <c r="AS7" s="195"/>
-      <c r="AT7" s="219"/>
-      <c r="AU7" s="195"/>
-      <c r="AV7" s="219"/>
-      <c r="AW7" s="195"/>
-      <c r="AX7" s="219"/>
-      <c r="AY7" s="195"/>
-      <c r="AZ7" s="219"/>
-      <c r="BA7" s="195"/>
+      <c r="AN7" s="219">
+        <v>14.528</v>
+      </c>
+      <c r="AO7" s="195">
+        <v>11.514999999998963</v>
+      </c>
+      <c r="AP7" s="219">
+        <v>14.973000000000001</v>
+      </c>
+      <c r="AQ7" s="195">
+        <v>11.524000000001251</v>
+      </c>
+      <c r="AR7" s="219">
+        <v>15.778</v>
+      </c>
+      <c r="AS7" s="195">
+        <v>11.472000000001117</v>
+      </c>
+      <c r="AT7" s="219">
+        <v>16.393999999999998</v>
+      </c>
+      <c r="AU7" s="195">
+        <v>11.466999999998734</v>
+      </c>
+      <c r="AV7" s="219">
+        <v>13.993</v>
+      </c>
+      <c r="AW7" s="195">
+        <v>11.52199999999948</v>
+      </c>
+      <c r="AX7" s="219">
+        <v>14.054</v>
+      </c>
+      <c r="AY7" s="195">
+        <v>11.514000000000578</v>
+      </c>
+      <c r="AZ7" s="219">
+        <v>15.044</v>
+      </c>
+      <c r="BA7" s="195">
+        <v>11.4950000000008</v>
+      </c>
       <c r="BB7" s="219"/>
       <c r="BC7" s="195"/>
       <c r="BD7" s="219"/>
@@ -4254,15 +4282,15 @@
       <c r="BM7" s="195"/>
       <c r="BN7" s="29">
         <f>SUM(L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7,AX7,AZ7,BB7,BD7,BF7,BH7,BJ7,BL7,)</f>
-        <v>201.892</v>
+        <v>306.65599999999995</v>
       </c>
       <c r="BO7" s="30">
         <f>SUM(AE7,AC7,AA7,Y7,W7,U7,S7,Q7,O7,M7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7,AW7,AY7,BA7,BC7,BE7,BG7,BI7,BK7,BM7,)</f>
-        <v>147.52299999999832</v>
+        <v>228.03199999999924</v>
       </c>
       <c r="BP7" s="214">
         <f>BO7-BN7</f>
-        <v>-54.369000000001677</v>
+        <v>-78.624000000000706</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,20 +4407,48 @@
       <c r="AM8" s="25">
         <v>21.628950000001851</v>
       </c>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="25"/>
+      <c r="AN8" s="46">
+        <v>8.7289999999999992</v>
+      </c>
+      <c r="AO8" s="25">
+        <v>19.014449999999012</v>
+      </c>
+      <c r="AP8" s="46">
+        <v>9.3520000000000003</v>
+      </c>
+      <c r="AQ8" s="25">
+        <v>21.561399999999466</v>
+      </c>
+      <c r="AR8" s="46">
+        <v>10.576000000000001</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>22.791299999998792</v>
+      </c>
+      <c r="AT8" s="46">
+        <v>9.8280000000000012</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>25.104450000002522</v>
+      </c>
+      <c r="AV8" s="46">
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>22.748949999997983</v>
+      </c>
+      <c r="AX8" s="46">
+        <v>10.06</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>33.967500000002566</v>
+      </c>
+      <c r="AZ8" s="46">
+        <v>9.9459999999999997</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>43.088849999997279</v>
+      </c>
       <c r="BB8" s="46"/>
       <c r="BC8" s="25"/>
       <c r="BD8" s="46"/>
@@ -4407,15 +4463,15 @@
       <c r="BM8" s="25"/>
       <c r="BN8" s="29">
         <f t="shared" ref="BN8:BN31" si="0">SUM(L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8,AH8,AJ8,AL8,AN8,AP8,AR8,AT8,AV8,AX8,AZ8,BB8,BD8,BF8,BH8,BJ8,BL8,)</f>
-        <v>124.81599999999997</v>
+        <v>192.92299999999997</v>
       </c>
       <c r="BO8" s="30">
         <f t="shared" ref="BO8:BO31" si="1">SUM(AE8,AC8,AA8,Y8,W8,U8,S8,Q8,O8,M8,AI8,AK8,AM8,AO8,AQ8,AS8,AU8,AW8,AY8,BA8,BC8,BE8,BG8,BI8,BK8,BM8,)</f>
-        <v>446.74245000000008</v>
+        <v>635.01934999999764</v>
       </c>
       <c r="BP8" s="215">
         <f t="shared" ref="BP8:BP9" si="2">BO8-BN8</f>
-        <v>321.9264500000001</v>
+        <v>442.09634999999764</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4532,20 +4588,48 @@
       <c r="AM9" s="25">
         <v>21.712</v>
       </c>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="25"/>
+      <c r="AN9" s="46">
+        <v>60.758000000000003</v>
+      </c>
+      <c r="AO9" s="25">
+        <v>21.963000000000001</v>
+      </c>
+      <c r="AP9" s="46">
+        <v>60.869</v>
+      </c>
+      <c r="AQ9" s="25">
+        <v>21.326999999999998</v>
+      </c>
+      <c r="AR9" s="46">
+        <v>60.853999999999999</v>
+      </c>
+      <c r="AS9" s="25">
+        <v>21.544</v>
+      </c>
+      <c r="AT9" s="46">
+        <v>61.251999999999995</v>
+      </c>
+      <c r="AU9" s="25">
+        <v>21.384</v>
+      </c>
+      <c r="AV9" s="46">
+        <v>60.95</v>
+      </c>
+      <c r="AW9" s="25">
+        <v>21.893000000000001</v>
+      </c>
+      <c r="AX9" s="46">
+        <v>60.852999999999994</v>
+      </c>
+      <c r="AY9" s="25">
+        <v>21.679000000000002</v>
+      </c>
+      <c r="AZ9" s="46">
+        <v>61.097000000000001</v>
+      </c>
+      <c r="BA9" s="25">
+        <v>21.695</v>
+      </c>
       <c r="BB9" s="46"/>
       <c r="BC9" s="25"/>
       <c r="BD9" s="46"/>
@@ -4560,15 +4644,15 @@
       <c r="BM9" s="25"/>
       <c r="BN9" s="29">
         <f t="shared" si="0"/>
-        <v>795.07700000000011</v>
+        <v>1221.7100000000003</v>
       </c>
       <c r="BO9" s="30">
         <f t="shared" si="1"/>
-        <v>285.90099999999995</v>
+        <v>437.38599999999991</v>
       </c>
       <c r="BP9" s="215">
         <f t="shared" si="2"/>
-        <v>-509.17600000000016</v>
+        <v>-784.3240000000003</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,20 +4769,48 @@
       <c r="AM10" s="25">
         <v>188.5267999999956</v>
       </c>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="25"/>
+      <c r="AN10" s="46">
+        <v>179.70099999999999</v>
+      </c>
+      <c r="AO10" s="25">
+        <v>186.82019999999838</v>
+      </c>
+      <c r="AP10" s="46">
+        <v>180.005</v>
+      </c>
+      <c r="AQ10" s="25">
+        <v>193.48419999999248</v>
+      </c>
+      <c r="AR10" s="46">
+        <v>179.99700000000001</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>194.34379999999635</v>
+      </c>
+      <c r="AT10" s="46">
+        <v>181.155</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>189.15540000001383</v>
+      </c>
+      <c r="AV10" s="46">
+        <v>180.238</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>193.65919999998448</v>
+      </c>
+      <c r="AX10" s="46">
+        <v>179.93799999999999</v>
+      </c>
+      <c r="AY10" s="25">
+        <v>194.00360000000248</v>
+      </c>
+      <c r="AZ10" s="46">
+        <v>180.65600000000001</v>
+      </c>
+      <c r="BA10" s="25">
+        <v>195.47360000001882</v>
+      </c>
       <c r="BB10" s="46"/>
       <c r="BC10" s="25"/>
       <c r="BD10" s="46"/>
@@ -4713,15 +4825,15 @@
       <c r="BM10" s="25"/>
       <c r="BN10" s="29">
         <f t="shared" si="0"/>
-        <v>1672.961</v>
+        <v>2934.6509999999998</v>
       </c>
       <c r="BO10" s="30">
         <f t="shared" si="1"/>
-        <v>1442.8004000000101</v>
+        <v>2789.740400000017</v>
       </c>
       <c r="BP10" s="215">
         <f>BO10-BN10</f>
-        <v>-230.16059999998993</v>
+        <v>-144.91059999998288</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,20 +4950,48 @@
       <c r="AM11" s="25">
         <v>206.33800000004129</v>
       </c>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="25"/>
+      <c r="AN11" s="46">
+        <v>173.648</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>228.006000000006</v>
+      </c>
+      <c r="AP11" s="46">
+        <v>175.386</v>
+      </c>
+      <c r="AQ11" s="25">
+        <v>217.35400000005856</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>123.124</v>
+      </c>
+      <c r="AS11" s="25">
+        <v>129.18399999987409</v>
+      </c>
+      <c r="AT11" s="46">
+        <v>124.845</v>
+      </c>
+      <c r="AU11" s="25">
+        <v>143.85099999997325</v>
+      </c>
+      <c r="AV11" s="46">
+        <v>181.517</v>
+      </c>
+      <c r="AW11" s="25">
+        <v>213.26900000007296</v>
+      </c>
+      <c r="AX11" s="46">
+        <v>179.904</v>
+      </c>
+      <c r="AY11" s="25">
+        <v>227.85299999999663</v>
+      </c>
+      <c r="AZ11" s="46">
+        <v>191.20400000000001</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>171.16600000005505</v>
+      </c>
       <c r="BB11" s="46"/>
       <c r="BC11" s="25"/>
       <c r="BD11" s="46"/>
@@ -4866,15 +5006,15 @@
       <c r="BM11" s="25"/>
       <c r="BN11" s="29">
         <f t="shared" si="0"/>
-        <v>2090.9970000000003</v>
+        <v>3240.625</v>
       </c>
       <c r="BO11" s="30">
         <f t="shared" si="1"/>
-        <v>2321.3060000000428</v>
+        <v>3651.9890000000796</v>
       </c>
       <c r="BP11" s="215">
         <f>BO11-BN11</f>
-        <v>230.30900000004249</v>
+        <v>411.36400000007961</v>
       </c>
     </row>
     <row r="12" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,20 +5131,48 @@
       <c r="AM12" s="44">
         <v>2.6970000000000001</v>
       </c>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="44"/>
+      <c r="AN12" s="46">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="AO12" s="44">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="AP12" s="46">
+        <v>2.75</v>
+      </c>
+      <c r="AQ12" s="44">
+        <v>2.75</v>
+      </c>
+      <c r="AR12" s="46">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="AS12" s="44">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="AT12" s="46">
+        <v>2.766</v>
+      </c>
+      <c r="AU12" s="44">
+        <v>2.766</v>
+      </c>
+      <c r="AV12" s="46">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="AW12" s="44">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="AX12" s="46">
+        <v>2.75</v>
+      </c>
+      <c r="AY12" s="44">
+        <v>2.75</v>
+      </c>
+      <c r="AZ12" s="46">
+        <v>2.76</v>
+      </c>
+      <c r="BA12" s="44">
+        <v>2.76</v>
+      </c>
       <c r="BB12" s="46"/>
       <c r="BC12" s="44"/>
       <c r="BD12" s="46"/>
@@ -5019,11 +5187,11 @@
       <c r="BM12" s="44"/>
       <c r="BN12" s="29">
         <f t="shared" si="0"/>
-        <v>35.841000000000008</v>
+        <v>55.121000000000009</v>
       </c>
       <c r="BO12" s="30">
         <f t="shared" si="1"/>
-        <v>35.841000000000008</v>
+        <v>55.121000000000009</v>
       </c>
       <c r="BP12" s="215">
         <f>BO12-BN12</f>
@@ -5144,20 +5312,48 @@
       <c r="AM13" s="44">
         <v>0.72299999999999998</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="44"/>
+      <c r="AN13" s="46">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AO13" s="44">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AP13" s="46">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AQ13" s="44">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AR13" s="46">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AS13" s="44">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AT13" s="46">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AU13" s="44">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AV13" s="46">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AW13" s="44">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AX13" s="46">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AY13" s="44">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AZ13" s="46">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="BA13" s="44">
+        <v>0.77100000000000002</v>
+      </c>
       <c r="BB13" s="46"/>
       <c r="BC13" s="44"/>
       <c r="BD13" s="46"/>
@@ -5172,11 +5368,11 @@
       <c r="BM13" s="44"/>
       <c r="BN13" s="29">
         <f t="shared" si="0"/>
-        <v>10.273999999999999</v>
+        <v>15.555000000000003</v>
       </c>
       <c r="BO13" s="30">
         <f t="shared" si="1"/>
-        <v>10.273999999999999</v>
+        <v>15.555000000000003</v>
       </c>
       <c r="BP13" s="215">
         <f t="shared" ref="BP13:BP31" si="3">BO13-BN13</f>
@@ -5297,20 +5493,48 @@
       <c r="AM14" s="44">
         <v>199.25200000000041</v>
       </c>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="44"/>
+      <c r="AN14" s="46">
+        <v>165.65600000000001</v>
+      </c>
+      <c r="AO14" s="44">
+        <v>188.83599999997386</v>
+      </c>
+      <c r="AP14" s="46">
+        <v>177.79900000000001</v>
+      </c>
+      <c r="AQ14" s="44">
+        <v>183.59800000003088</v>
+      </c>
+      <c r="AR14" s="46">
+        <v>177.792</v>
+      </c>
+      <c r="AS14" s="44">
+        <v>178.52599999999256</v>
+      </c>
+      <c r="AT14" s="46">
+        <v>131.249</v>
+      </c>
+      <c r="AU14" s="44">
+        <v>176.44400000002497</v>
+      </c>
+      <c r="AV14" s="46">
+        <v>154.298</v>
+      </c>
+      <c r="AW14" s="44">
+        <v>192.66399999999703</v>
+      </c>
+      <c r="AX14" s="46">
+        <v>165.87899999999999</v>
+      </c>
+      <c r="AY14" s="44">
+        <v>197.87999999998101</v>
+      </c>
+      <c r="AZ14" s="46">
+        <v>178.46299999999999</v>
+      </c>
+      <c r="BA14" s="44">
+        <v>198.74000000001433</v>
+      </c>
       <c r="BB14" s="46"/>
       <c r="BC14" s="44"/>
       <c r="BD14" s="46"/>
@@ -5325,15 +5549,15 @@
       <c r="BM14" s="44"/>
       <c r="BN14" s="29">
         <f t="shared" si="0"/>
-        <v>483.267</v>
+        <v>1634.4029999999998</v>
       </c>
       <c r="BO14" s="30">
         <f t="shared" si="1"/>
-        <v>2282.7239999999874</v>
+        <v>3599.4120000000021</v>
       </c>
       <c r="BP14" s="216">
         <f t="shared" si="3"/>
-        <v>1799.4569999999874</v>
+        <v>1965.0090000000023</v>
       </c>
     </row>
     <row r="15" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,20 +5674,48 @@
       <c r="AM15" s="44">
         <v>34.271600000000944</v>
       </c>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="46"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="44"/>
+      <c r="AN15" s="46">
+        <v>31.728000000000002</v>
+      </c>
+      <c r="AO15" s="44">
+        <v>34.147299999996633</v>
+      </c>
+      <c r="AP15" s="46">
+        <v>31.545000000000002</v>
+      </c>
+      <c r="AQ15" s="44">
+        <v>33.420200000003568</v>
+      </c>
+      <c r="AR15" s="46">
+        <v>31.780999999999999</v>
+      </c>
+      <c r="AS15" s="44">
+        <v>34.772099999998865</v>
+      </c>
+      <c r="AT15" s="46">
+        <v>31.744</v>
+      </c>
+      <c r="AU15" s="44">
+        <v>34.616999999995279</v>
+      </c>
+      <c r="AV15" s="46">
+        <v>31.347999999999999</v>
+      </c>
+      <c r="AW15" s="44">
+        <v>34.977800000008756</v>
+      </c>
+      <c r="AX15" s="46">
+        <v>31.533000000000001</v>
+      </c>
+      <c r="AY15" s="44">
+        <v>34.082399999996412</v>
+      </c>
+      <c r="AZ15" s="46">
+        <v>31.658000000000001</v>
+      </c>
+      <c r="BA15" s="44">
+        <v>33.860199999999168</v>
+      </c>
       <c r="BB15" s="46"/>
       <c r="BC15" s="44"/>
       <c r="BD15" s="46"/>
@@ -5478,15 +5730,15 @@
       <c r="BM15" s="44"/>
       <c r="BN15" s="29">
         <f t="shared" si="0"/>
-        <v>463.32399999999996</v>
+        <v>684.66099999999994</v>
       </c>
       <c r="BO15" s="30">
         <f t="shared" si="1"/>
-        <v>426.70691999999872</v>
+        <v>666.58391999999731</v>
       </c>
       <c r="BP15" s="215">
         <f t="shared" si="3"/>
-        <v>-36.617080000001238</v>
+        <v>-18.077080000002638</v>
       </c>
     </row>
     <row r="16" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,20 +5855,48 @@
       <c r="AM16" s="44">
         <v>45.8</v>
       </c>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="44"/>
+      <c r="AN16" s="46">
+        <v>34.165999999999997</v>
+      </c>
+      <c r="AO16" s="44">
+        <v>44.49</v>
+      </c>
+      <c r="AP16" s="46">
+        <v>34.225000000000001</v>
+      </c>
+      <c r="AQ16" s="44">
+        <v>46.63</v>
+      </c>
+      <c r="AR16" s="46">
+        <v>34.222999999999999</v>
+      </c>
+      <c r="AS16" s="44">
+        <v>28.62</v>
+      </c>
+      <c r="AT16" s="46">
+        <v>34.442</v>
+      </c>
+      <c r="AU16" s="44">
+        <v>37.54</v>
+      </c>
+      <c r="AV16" s="46">
+        <v>34.222999999999999</v>
+      </c>
+      <c r="AW16" s="44">
+        <v>47</v>
+      </c>
+      <c r="AX16" s="46">
+        <v>34.212000000000003</v>
+      </c>
+      <c r="AY16" s="44">
+        <v>48.01</v>
+      </c>
+      <c r="AZ16" s="46">
+        <v>34.347000000000001</v>
+      </c>
+      <c r="BA16" s="44">
+        <v>52</v>
+      </c>
       <c r="BB16" s="46"/>
       <c r="BC16" s="44"/>
       <c r="BD16" s="46"/>
@@ -5631,15 +5911,15 @@
       <c r="BM16" s="44"/>
       <c r="BN16" s="29">
         <f t="shared" si="0"/>
-        <v>214.88199999999998</v>
+        <v>454.71999999999997</v>
       </c>
       <c r="BO16" s="30">
         <f t="shared" si="1"/>
-        <v>434.7000000000001</v>
+        <v>738.99000000000012</v>
       </c>
       <c r="BP16" s="215">
         <f t="shared" si="3"/>
-        <v>219.81800000000013</v>
+        <v>284.27000000000015</v>
       </c>
     </row>
     <row r="17" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5756,20 +6036,48 @@
       <c r="AM17" s="44">
         <v>6.5</v>
       </c>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="44"/>
+      <c r="AN17" s="46">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="AO17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AP17" s="46">
+        <v>5.8339999999999996</v>
+      </c>
+      <c r="AQ17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AR17" s="46">
+        <v>5.835</v>
+      </c>
+      <c r="AS17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AT17" s="46">
+        <v>5.8710000000000004</v>
+      </c>
+      <c r="AU17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AV17" s="46">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="AW17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AX17" s="46">
+        <v>5.8319999999999999</v>
+      </c>
+      <c r="AY17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AZ17" s="46">
+        <v>5.8559999999999999</v>
+      </c>
+      <c r="BA17" s="44">
+        <v>6.5</v>
+      </c>
       <c r="BB17" s="46"/>
       <c r="BC17" s="44"/>
       <c r="BD17" s="46"/>
@@ -5784,15 +6092,15 @@
       <c r="BM17" s="44"/>
       <c r="BN17" s="29">
         <f t="shared" si="0"/>
-        <v>82.998000000000005</v>
+        <v>123.89099999999998</v>
       </c>
       <c r="BO17" s="30">
         <f t="shared" si="1"/>
-        <v>84.5</v>
+        <v>130</v>
       </c>
       <c r="BP17" s="215">
         <f t="shared" si="3"/>
-        <v>1.5019999999999953</v>
+        <v>6.1090000000000231</v>
       </c>
     </row>
     <row r="18" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,20 +6217,48 @@
       <c r="AM18" s="44">
         <v>31.545000000059545</v>
       </c>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="44"/>
+      <c r="AN18" s="46">
+        <v>27.381</v>
+      </c>
+      <c r="AO18" s="44">
+        <v>28.047999999998076</v>
+      </c>
+      <c r="AP18" s="46">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="AQ18" s="44">
+        <v>28.344999999939496</v>
+      </c>
+      <c r="AR18" s="46">
+        <v>26.831</v>
+      </c>
+      <c r="AS18" s="44">
+        <v>23.230000000085479</v>
+      </c>
+      <c r="AT18" s="46">
+        <v>26.442</v>
+      </c>
+      <c r="AU18" s="44">
+        <v>28.550999999954861</v>
+      </c>
+      <c r="AV18" s="46">
+        <v>27.370999999999999</v>
+      </c>
+      <c r="AW18" s="44">
+        <v>36.283999999972146</v>
+      </c>
+      <c r="AX18" s="46">
+        <v>27.222000000000001</v>
+      </c>
+      <c r="AY18" s="44">
+        <v>24.558999999968307</v>
+      </c>
+      <c r="AZ18" s="46">
+        <v>27.943999999999999</v>
+      </c>
+      <c r="BA18" s="44">
+        <v>29.914000000068192</v>
+      </c>
       <c r="BB18" s="46"/>
       <c r="BC18" s="44"/>
       <c r="BD18" s="46"/>
@@ -5937,15 +6273,15 @@
       <c r="BM18" s="44"/>
       <c r="BN18" s="29">
         <f t="shared" si="0"/>
-        <v>332.959</v>
+        <v>523.58400000000006</v>
       </c>
       <c r="BO18" s="30">
         <f t="shared" si="1"/>
-        <v>364.68199999995875</v>
+        <v>563.61299999994526</v>
       </c>
       <c r="BP18" s="215">
         <f t="shared" si="3"/>
-        <v>31.722999999958745</v>
+        <v>40.028999999945199</v>
       </c>
     </row>
     <row r="19" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6062,20 +6398,48 @@
       <c r="AM19" s="44">
         <v>30.033000000000001</v>
       </c>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="44"/>
+      <c r="AN19" s="46">
+        <v>18.62</v>
+      </c>
+      <c r="AO19" s="44">
+        <v>36.764000000000003</v>
+      </c>
+      <c r="AP19" s="46">
+        <v>19.786000000000001</v>
+      </c>
+      <c r="AQ19" s="44">
+        <v>33.232999999999997</v>
+      </c>
+      <c r="AR19" s="46">
+        <v>19.928000000000001</v>
+      </c>
+      <c r="AS19" s="44">
+        <v>29.635999999999999</v>
+      </c>
+      <c r="AT19" s="46">
+        <v>18.710999999999999</v>
+      </c>
+      <c r="AU19" s="44">
+        <v>26.030999999999999</v>
+      </c>
+      <c r="AV19" s="46">
+        <v>19.64</v>
+      </c>
+      <c r="AW19" s="44">
+        <v>4.24</v>
+      </c>
+      <c r="AX19" s="46">
+        <v>19.681000000000001</v>
+      </c>
+      <c r="AY19" s="44">
+        <v>13.589</v>
+      </c>
+      <c r="AZ19" s="46">
+        <v>20.844000000000001</v>
+      </c>
+      <c r="BA19" s="44">
+        <v>12.26</v>
+      </c>
       <c r="BB19" s="46"/>
       <c r="BC19" s="44"/>
       <c r="BD19" s="46"/>
@@ -6090,15 +6454,15 @@
       <c r="BM19" s="44"/>
       <c r="BN19" s="29">
         <f t="shared" si="0"/>
-        <v>232.13000000000002</v>
+        <v>369.34000000000003</v>
       </c>
       <c r="BO19" s="30">
         <f t="shared" si="1"/>
-        <v>203.77600000000001</v>
+        <v>359.52900000000005</v>
       </c>
       <c r="BP19" s="215">
         <f t="shared" si="3"/>
-        <v>-28.354000000000013</v>
+        <v>-9.8109999999999786</v>
       </c>
     </row>
     <row r="20" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6215,20 +6579,48 @@
       <c r="AM20" s="44">
         <v>8.5</v>
       </c>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="46"/>
-      <c r="BA20" s="44"/>
+      <c r="AN20" s="46">
+        <v>8.5489999999999995</v>
+      </c>
+      <c r="AO20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AP20" s="46">
+        <v>8.7850000000000001</v>
+      </c>
+      <c r="AQ20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AR20" s="46">
+        <v>7.4820000000000002</v>
+      </c>
+      <c r="AS20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AT20" s="46">
+        <v>7.3769999999999998</v>
+      </c>
+      <c r="AU20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" s="46">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="AW20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AX20" s="46">
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="AY20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20" s="46">
+        <v>8.3829999999999991</v>
+      </c>
+      <c r="BA20" s="44">
+        <v>8.5</v>
+      </c>
       <c r="BB20" s="46"/>
       <c r="BC20" s="44"/>
       <c r="BD20" s="46"/>
@@ -6243,15 +6635,15 @@
       <c r="BM20" s="44"/>
       <c r="BN20" s="29">
         <f t="shared" si="0"/>
-        <v>109.661</v>
+        <v>165.42500000000004</v>
       </c>
       <c r="BO20" s="30">
         <f t="shared" si="1"/>
-        <v>110.5</v>
+        <v>170</v>
       </c>
       <c r="BP20" s="215">
         <f t="shared" si="3"/>
-        <v>0.83899999999999864</v>
+        <v>4.5749999999999602</v>
       </c>
     </row>
     <row r="21" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,20 +6760,48 @@
       <c r="AM21" s="44">
         <v>0.12</v>
       </c>
-      <c r="AN21" s="92"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="92"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="92"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="92"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="92"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="92"/>
-      <c r="BA21" s="44"/>
+      <c r="AN21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AO21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AP21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AQ21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AR21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AS21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AT21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AU21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AV21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AW21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AX21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="AY21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="AZ21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="BA21" s="44">
+        <v>0.12</v>
+      </c>
       <c r="BB21" s="92"/>
       <c r="BC21" s="44"/>
       <c r="BD21" s="92"/>
@@ -6396,11 +6816,11 @@
       <c r="BM21" s="44"/>
       <c r="BN21" s="29">
         <f t="shared" si="0"/>
-        <v>1.5580000000000003</v>
+        <v>2.398000000000001</v>
       </c>
       <c r="BO21" s="30">
         <f t="shared" si="1"/>
-        <v>1.5580000000000003</v>
+        <v>2.398000000000001</v>
       </c>
       <c r="BP21" s="215">
         <f t="shared" si="3"/>
@@ -6521,20 +6941,48 @@
       <c r="AM22" s="44">
         <v>393.96587999993437</v>
       </c>
-      <c r="AN22" s="92"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="92"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="92"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="92"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="92"/>
-      <c r="BA22" s="44"/>
+      <c r="AN22" s="92">
+        <v>343.45800000000003</v>
+      </c>
+      <c r="AO22" s="44">
+        <v>288.67277999999328</v>
+      </c>
+      <c r="AP22" s="92">
+        <v>393.04599999999999</v>
+      </c>
+      <c r="AQ22" s="44">
+        <v>370.03032000003964</v>
+      </c>
+      <c r="AR22" s="92">
+        <v>344.47800000000001</v>
+      </c>
+      <c r="AS22" s="44">
+        <v>348.16452000000174</v>
+      </c>
+      <c r="AT22" s="92">
+        <v>403.68299999999999</v>
+      </c>
+      <c r="AU22" s="44">
+        <v>394.0893000000051</v>
+      </c>
+      <c r="AV22" s="92">
+        <v>397.27699999999999</v>
+      </c>
+      <c r="AW22" s="44">
+        <v>419.30526000002169</v>
+      </c>
+      <c r="AX22" s="92">
+        <v>396.92700000000002</v>
+      </c>
+      <c r="AY22" s="44">
+        <v>366.36731999997289</v>
+      </c>
+      <c r="AZ22" s="92">
+        <v>347.63499999999999</v>
+      </c>
+      <c r="BA22" s="44">
+        <v>349.20270000002</v>
+      </c>
       <c r="BB22" s="92"/>
       <c r="BC22" s="44"/>
       <c r="BD22" s="92"/>
@@ -6549,15 +6997,15 @@
       <c r="BM22" s="44"/>
       <c r="BN22" s="29">
         <f t="shared" si="0"/>
-        <v>4679.0309999999999</v>
+        <v>7305.5349999999999</v>
       </c>
       <c r="BO22" s="30">
         <f t="shared" si="1"/>
-        <v>4299.8782199999268</v>
+        <v>6835.7104199999822</v>
       </c>
       <c r="BP22" s="217">
         <f t="shared" si="3"/>
-        <v>-379.15278000007311</v>
+        <v>-469.8245800000177</v>
       </c>
     </row>
     <row r="23" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6674,20 +7122,48 @@
       <c r="AM23" s="44">
         <v>50</v>
       </c>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="44"/>
+      <c r="AN23" s="46">
+        <v>32.725999999999999</v>
+      </c>
+      <c r="AO23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AP23" s="46">
+        <v>32.826999999999998</v>
+      </c>
+      <c r="AQ23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AR23" s="46">
+        <v>32.817</v>
+      </c>
+      <c r="AS23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AT23" s="46">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AU23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AV23" s="46">
+        <v>32.905999999999999</v>
+      </c>
+      <c r="AW23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AX23" s="46">
+        <v>32.802</v>
+      </c>
+      <c r="AY23" s="44">
+        <v>50</v>
+      </c>
+      <c r="AZ23" s="46">
+        <v>33.04</v>
+      </c>
+      <c r="BA23" s="44">
+        <v>50</v>
+      </c>
       <c r="BB23" s="46"/>
       <c r="BC23" s="44"/>
       <c r="BD23" s="46"/>
@@ -6702,15 +7178,15 @@
       <c r="BM23" s="44"/>
       <c r="BN23" s="29">
         <f t="shared" si="0"/>
-        <v>506.48699999999997</v>
+        <v>736.80499999999995</v>
       </c>
       <c r="BO23" s="30">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="BP23" s="215">
         <f t="shared" si="3"/>
-        <v>143.51300000000003</v>
+        <v>263.19500000000005</v>
       </c>
     </row>
     <row r="24" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6827,20 +7303,48 @@
       <c r="AM24" s="55">
         <v>-9.0680000000911605</v>
       </c>
-      <c r="AN24" s="144"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="144"/>
-      <c r="AW24" s="55"/>
-      <c r="AX24" s="144"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="144"/>
-      <c r="BA24" s="55"/>
+      <c r="AN24" s="144">
+        <v>30.372000000071239</v>
+      </c>
+      <c r="AO24" s="55">
+        <v>30.372000000071239</v>
+      </c>
+      <c r="AP24" s="144">
+        <v>14.340000000322107</v>
+      </c>
+      <c r="AQ24" s="55">
+        <v>14.340000000322107</v>
+      </c>
+      <c r="AR24" s="144">
+        <v>22.699999999839747</v>
+      </c>
+      <c r="AS24" s="55">
+        <v>22.699999999839747</v>
+      </c>
+      <c r="AT24" s="144">
+        <v>3.2600000002048546</v>
+      </c>
+      <c r="AU24" s="55">
+        <v>3.2600000002048546</v>
+      </c>
+      <c r="AV24" s="144">
+        <v>22.959999999632601</v>
+      </c>
+      <c r="AW24" s="55">
+        <v>22.959999999632601</v>
+      </c>
+      <c r="AX24" s="144">
+        <v>21.020000000056825</v>
+      </c>
+      <c r="AY24" s="55">
+        <v>21.020000000056825</v>
+      </c>
+      <c r="AZ24" s="144">
+        <v>21.635999999957676</v>
+      </c>
+      <c r="BA24" s="55">
+        <v>21.635999999957676</v>
+      </c>
       <c r="BB24" s="144"/>
       <c r="BC24" s="55"/>
       <c r="BD24" s="144"/>
@@ -6855,11 +7359,11 @@
       <c r="BM24" s="55"/>
       <c r="BN24" s="29">
         <f>SUM(L24,N24,P24,R24,T24,V24,X24,Z24,AB24,AD24,AH24,AJ24,AL24,AN24,AP24,AR24,AT24,AV24,AX24,AZ24,BB24,BD24,BF24,BH24,BJ24,BL24,)</f>
-        <v>208.88399999943067</v>
+        <v>345.17199999951572</v>
       </c>
       <c r="BO24" s="30">
         <f t="shared" si="1"/>
-        <v>219.08399999957874</v>
+        <v>355.37199999966379</v>
       </c>
       <c r="BP24" s="215">
         <f t="shared" si="3"/>
@@ -6980,20 +7484,48 @@
       <c r="AM25" s="44">
         <v>1.9000800000002183</v>
       </c>
-      <c r="AN25" s="92"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="92"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="92"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="92"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="92"/>
-      <c r="BA25" s="44"/>
+      <c r="AN25" s="92">
+        <v>22.789000000000001</v>
+      </c>
+      <c r="AO25" s="44">
+        <v>-22.220519999960857</v>
+      </c>
+      <c r="AP25" s="92">
+        <v>22.593</v>
+      </c>
+      <c r="AQ25" s="44">
+        <v>1.639259999999501</v>
+      </c>
+      <c r="AR25" s="92">
+        <v>21.372</v>
+      </c>
+      <c r="AS25" s="44">
+        <v>1.6783200000003073</v>
+      </c>
+      <c r="AT25" s="92">
+        <v>23.669</v>
+      </c>
+      <c r="AU25" s="44">
+        <v>1.5888600000004174</v>
+      </c>
+      <c r="AV25" s="92">
+        <v>24.498000000000001</v>
+      </c>
+      <c r="AW25" s="44">
+        <v>1.7261999999991731</v>
+      </c>
+      <c r="AX25" s="92">
+        <v>24.459</v>
+      </c>
+      <c r="AY25" s="44">
+        <v>2.0916000000002755</v>
+      </c>
+      <c r="AZ25" s="92">
+        <v>24.547999999999998</v>
+      </c>
+      <c r="BA25" s="44">
+        <v>2.0033999999997936</v>
+      </c>
       <c r="BB25" s="92"/>
       <c r="BC25" s="44"/>
       <c r="BD25" s="92"/>
@@ -7008,15 +7540,15 @@
       <c r="BM25" s="44"/>
       <c r="BN25" s="29">
         <f t="shared" si="0"/>
-        <v>294.71100000000001</v>
+        <v>458.63900000000001</v>
       </c>
       <c r="BO25" s="30">
         <f t="shared" si="1"/>
-        <v>171.34051999983157</v>
+        <v>159.84763999987018</v>
       </c>
       <c r="BP25" s="215">
         <f t="shared" si="3"/>
-        <v>-123.37048000016844</v>
+        <v>-298.79136000012983</v>
       </c>
     </row>
     <row r="26" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7133,20 +7665,48 @@
       <c r="AM26" s="44">
         <v>9.6470000000000002</v>
       </c>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="143"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="143"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="143"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="143"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="143"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="143"/>
-      <c r="BA26" s="44"/>
+      <c r="AN26" s="143">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="AO26" s="44">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="AP26" s="143">
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="AQ26" s="44">
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="AR26" s="143">
+        <v>9.5210000000000008</v>
+      </c>
+      <c r="AS26" s="44">
+        <v>9.5210000000000008</v>
+      </c>
+      <c r="AT26" s="143">
+        <v>9.6509999999999998</v>
+      </c>
+      <c r="AU26" s="44">
+        <v>9.6509999999999998</v>
+      </c>
+      <c r="AV26" s="143">
+        <v>9.5869999999999997</v>
+      </c>
+      <c r="AW26" s="44">
+        <v>9.5869999999999997</v>
+      </c>
+      <c r="AX26" s="143">
+        <v>9.5649999999999995</v>
+      </c>
+      <c r="AY26" s="44">
+        <v>9.5649999999999995</v>
+      </c>
+      <c r="AZ26" s="143">
+        <v>9.5510000000000002</v>
+      </c>
+      <c r="BA26" s="44">
+        <v>9.5510000000000002</v>
+      </c>
       <c r="BB26" s="143"/>
       <c r="BC26" s="44"/>
       <c r="BD26" s="143"/>
@@ -7161,11 +7721,11 @@
       <c r="BM26" s="44"/>
       <c r="BN26" s="29">
         <f t="shared" si="0"/>
-        <v>120.104</v>
+        <v>187.42399999999998</v>
       </c>
       <c r="BO26" s="30">
         <f t="shared" si="1"/>
-        <v>120.104</v>
+        <v>187.42399999999998</v>
       </c>
       <c r="BP26" s="208">
         <f t="shared" si="3"/>
@@ -7286,20 +7846,48 @@
       <c r="AM27" s="196">
         <v>0.63999999999987267</v>
       </c>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="196"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="196"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="196"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="196"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="196"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="196"/>
-      <c r="AZ27" s="46"/>
-      <c r="BA27" s="196"/>
+      <c r="AN27" s="46">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AO27" s="196">
+        <v>0.63999999999987267</v>
+      </c>
+      <c r="AP27" s="46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AQ27" s="196">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="AR27" s="46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AS27" s="196">
+        <v>0.32000000000016371</v>
+      </c>
+      <c r="AT27" s="46">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="AU27" s="196">
+        <v>0.40000000000009095</v>
+      </c>
+      <c r="AV27" s="46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AW27" s="196">
+        <v>0.55999999999994543</v>
+      </c>
+      <c r="AX27" s="46">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AY27" s="196">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="AZ27" s="46">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="BA27" s="196">
+        <v>0.40000000000009095</v>
+      </c>
       <c r="BB27" s="46"/>
       <c r="BC27" s="196"/>
       <c r="BD27" s="46"/>
@@ -7314,15 +7902,15 @@
       <c r="BM27" s="196"/>
       <c r="BN27" s="29">
         <f t="shared" si="0"/>
-        <v>8.6609999999999996</v>
+        <v>13.313999999999998</v>
       </c>
       <c r="BO27" s="30">
         <f t="shared" si="1"/>
-        <v>6.9600000000000364</v>
+        <v>10.240000000000236</v>
       </c>
       <c r="BP27" s="208">
         <f t="shared" si="3"/>
-        <v>-1.7009999999999632</v>
+        <v>-3.0739999999997618</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7439,20 +8027,48 @@
       <c r="AM28" s="287">
         <v>6.2</v>
       </c>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="287"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="287"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="287"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="287"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="287"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="287"/>
-      <c r="AZ28" s="27"/>
-      <c r="BA28" s="287"/>
+      <c r="AN28" s="27">
+        <v>6.44</v>
+      </c>
+      <c r="AO28" s="287">
+        <v>6</v>
+      </c>
+      <c r="AP28" s="27">
+        <v>6.44</v>
+      </c>
+      <c r="AQ28" s="287">
+        <v>5.9</v>
+      </c>
+      <c r="AR28" s="27">
+        <v>6.14</v>
+      </c>
+      <c r="AS28" s="287">
+        <v>5.9</v>
+      </c>
+      <c r="AT28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="AU28" s="287">
+        <v>5.9</v>
+      </c>
+      <c r="AV28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="AW28" s="287">
+        <v>5.9</v>
+      </c>
+      <c r="AX28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="AY28" s="287">
+        <v>5.9</v>
+      </c>
+      <c r="AZ28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="BA28" s="287">
+        <v>5.9</v>
+      </c>
       <c r="BB28" s="27"/>
       <c r="BC28" s="287"/>
       <c r="BD28" s="27"/>
@@ -7467,15 +8083,15 @@
       <c r="BM28" s="287"/>
       <c r="BN28" s="29">
         <f t="shared" si="0"/>
-        <v>87.61999999999999</v>
+        <v>132.15999999999997</v>
       </c>
       <c r="BO28" s="30">
         <f t="shared" si="1"/>
-        <v>83.600000000000009</v>
+        <v>125.00000000000004</v>
       </c>
       <c r="BP28" s="208">
         <f t="shared" si="3"/>
-        <v>-4.0199999999999818</v>
+        <v>-7.1599999999999255</v>
       </c>
     </row>
     <row r="29" spans="1:68" s="298" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7592,20 +8208,48 @@
       <c r="AM29" s="287">
         <v>82.187999999991007</v>
       </c>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="287"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="287"/>
-      <c r="AR29" s="27"/>
-      <c r="AS29" s="287"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="287"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="287"/>
-      <c r="AX29" s="27"/>
-      <c r="AY29" s="287"/>
-      <c r="AZ29" s="27"/>
-      <c r="BA29" s="287"/>
+      <c r="AN29" s="27">
+        <v>78.152000000000001</v>
+      </c>
+      <c r="AO29" s="287">
+        <v>81.239999999994325</v>
+      </c>
+      <c r="AP29" s="27">
+        <v>79.021000000000001</v>
+      </c>
+      <c r="AQ29" s="287">
+        <v>78.839999999996508</v>
+      </c>
+      <c r="AR29" s="27">
+        <v>2.76</v>
+      </c>
+      <c r="AS29" s="287">
+        <v>2.9400000000205182</v>
+      </c>
+      <c r="AT29" s="27">
+        <v>79.088999999999999</v>
+      </c>
+      <c r="AU29" s="287">
+        <v>84.072000000003754</v>
+      </c>
+      <c r="AV29" s="27">
+        <v>79.022000000000006</v>
+      </c>
+      <c r="AW29" s="287">
+        <v>80.01599999998507</v>
+      </c>
+      <c r="AX29" s="27">
+        <v>79.010999999999996</v>
+      </c>
+      <c r="AY29" s="287">
+        <v>83.004000000015367</v>
+      </c>
+      <c r="AZ29" s="27">
+        <v>80.067999999999998</v>
+      </c>
+      <c r="BA29" s="287">
+        <v>2.7959999999911815</v>
+      </c>
       <c r="BB29" s="27"/>
       <c r="BC29" s="287"/>
       <c r="BD29" s="27"/>
@@ -7620,15 +8264,15 @@
       <c r="BM29" s="287"/>
       <c r="BN29" s="29">
         <f t="shared" si="0"/>
-        <v>908.83699999999999</v>
+        <v>1385.9599999999998</v>
       </c>
       <c r="BO29" s="30">
         <f t="shared" si="1"/>
-        <v>965.73600000000079</v>
+        <v>1378.6440000000075</v>
       </c>
       <c r="BP29" s="286">
         <f t="shared" si="3"/>
-        <v>56.899000000000797</v>
+        <v>-7.3159999999923002</v>
       </c>
     </row>
     <row r="30" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7745,20 +8389,48 @@
       <c r="AM30" s="196">
         <v>306.09600000001956</v>
       </c>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="196"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="196"/>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="196"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="196"/>
-      <c r="AV30" s="46"/>
-      <c r="AW30" s="196"/>
-      <c r="AX30" s="46"/>
-      <c r="AY30" s="196"/>
-      <c r="AZ30" s="46"/>
-      <c r="BA30" s="196"/>
+      <c r="AN30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="196">
+        <v>304.91999999993277</v>
+      </c>
+      <c r="AP30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="196">
+        <v>305.17200000006051</v>
+      </c>
+      <c r="AR30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="196">
+        <v>304.60499999994499</v>
+      </c>
+      <c r="AT30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="196">
+        <v>305.61299999999756</v>
+      </c>
+      <c r="AV30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="196">
+        <v>302.48400000004767</v>
+      </c>
+      <c r="AX30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="196">
+        <v>302.44199999996272</v>
+      </c>
+      <c r="AZ30" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="196">
+        <v>306.11700000002384</v>
+      </c>
       <c r="BB30" s="46"/>
       <c r="BC30" s="196"/>
       <c r="BD30" s="46"/>
@@ -7889,20 +8561,48 @@
       <c r="AM31" s="180">
         <v>2.4929999999999999</v>
       </c>
-      <c r="AN31" s="179"/>
-      <c r="AO31" s="180"/>
-      <c r="AP31" s="179"/>
-      <c r="AQ31" s="180"/>
-      <c r="AR31" s="179"/>
-      <c r="AS31" s="180"/>
-      <c r="AT31" s="179"/>
-      <c r="AU31" s="180"/>
-      <c r="AV31" s="179"/>
-      <c r="AW31" s="180"/>
-      <c r="AX31" s="179"/>
-      <c r="AY31" s="180"/>
-      <c r="AZ31" s="179"/>
-      <c r="BA31" s="180"/>
+      <c r="AN31" s="179">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="AO31" s="180">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="AP31" s="179">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="AQ31" s="180">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="AR31" s="179">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="AS31" s="180">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="AT31" s="179">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="AU31" s="180">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="AV31" s="179">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="AW31" s="180">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="AX31" s="179">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="AY31" s="180">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="AZ31" s="179">
+        <v>2.492</v>
+      </c>
+      <c r="BA31" s="180">
+        <v>2.492</v>
+      </c>
       <c r="BB31" s="179"/>
       <c r="BC31" s="180"/>
       <c r="BD31" s="179"/>
@@ -7917,11 +8617,11 @@
       <c r="BM31" s="180"/>
       <c r="BN31" s="29">
         <f t="shared" si="0"/>
-        <v>34.158999999999999</v>
+        <v>52.043999999999997</v>
       </c>
       <c r="BO31" s="30">
         <f t="shared" si="1"/>
-        <v>34.158999999999999</v>
+        <v>52.043999999999997</v>
       </c>
       <c r="BP31" s="286">
         <f t="shared" si="3"/>
@@ -8080,59 +8780,59 @@
       </c>
       <c r="AN32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1259.7020000000712</v>
       </c>
       <c r="AO32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1570.0422100000017</v>
       </c>
       <c r="AP32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1310.7800000003222</v>
       </c>
       <c r="AQ32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1647.7343800004439</v>
       </c>
       <c r="AR32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1140.9309999998397</v>
       </c>
       <c r="AS32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1441.2260399997547</v>
       </c>
       <c r="AT32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1215.176000000205</v>
       </c>
       <c r="AU32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1569.9850100001754</v>
       </c>
       <c r="AV32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1305.4859999996324</v>
       </c>
       <c r="AW32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1692.0184099997189</v>
       </c>
       <c r="AX32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1314.4000000000567</v>
       </c>
       <c r="AY32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1669.1594199999561</v>
       </c>
       <c r="AZ32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1295.1099999999576</v>
       </c>
       <c r="BA32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1538.4417500001462</v>
       </c>
       <c r="BB32" s="115">
         <f t="shared" si="5"/>
@@ -8184,15 +8884,15 @@
       </c>
       <c r="BN32" s="263">
         <f>SUM(BN7:BN31)</f>
-        <v>13701.130999999428</v>
+        <v>22542.715999999509</v>
       </c>
       <c r="BO32" s="119">
         <f>SUM(BO7:BO31)</f>
-        <v>15150.396509999335</v>
+        <v>24147.650729999561</v>
       </c>
       <c r="BP32" s="120">
         <f>BO32-BN32</f>
-        <v>1449.2655099999065</v>
+        <v>1604.9347300000518</v>
       </c>
     </row>
     <row r="33" spans="1:122" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8273,19 +8973,33 @@
         <v>4580.7439999999997</v>
       </c>
       <c r="AM33" s="311"/>
-      <c r="AN33" s="327"/>
+      <c r="AN33" s="327">
+        <v>4080.4140000000002</v>
+      </c>
       <c r="AO33" s="311"/>
-      <c r="AP33" s="327"/>
+      <c r="AP33" s="327">
+        <v>3673.0241199998741</v>
+      </c>
       <c r="AQ33" s="311"/>
-      <c r="AR33" s="327"/>
+      <c r="AR33" s="327">
+        <v>3886.3180000000002</v>
+      </c>
       <c r="AS33" s="311"/>
-      <c r="AT33" s="327"/>
+      <c r="AT33" s="327">
+        <v>4010.7840000000001</v>
+      </c>
       <c r="AU33" s="311"/>
-      <c r="AV33" s="327"/>
+      <c r="AV33" s="327">
+        <v>4253.1516800003856</v>
+      </c>
       <c r="AW33" s="311"/>
-      <c r="AX33" s="327"/>
+      <c r="AX33" s="327">
+        <v>4151.0929999999998</v>
+      </c>
       <c r="AY33" s="311"/>
-      <c r="AZ33" s="327"/>
+      <c r="AZ33" s="327">
+        <v>3973.0729999999999</v>
+      </c>
       <c r="BA33" s="311"/>
       <c r="BB33" s="327"/>
       <c r="BC33" s="311"/>
@@ -8380,19 +9094,33 @@
         <v>2094.4389999999999</v>
       </c>
       <c r="AM34" s="323"/>
-      <c r="AN34" s="322"/>
+      <c r="AN34" s="322">
+        <v>2145.9609999999998</v>
+      </c>
       <c r="AO34" s="323"/>
-      <c r="AP34" s="322"/>
+      <c r="AP34" s="322">
+        <v>2182.4989999999998</v>
+      </c>
       <c r="AQ34" s="323"/>
-      <c r="AR34" s="322"/>
+      <c r="AR34" s="322">
+        <v>2178.1060000000002</v>
+      </c>
       <c r="AS34" s="323"/>
-      <c r="AT34" s="322"/>
+      <c r="AT34" s="322">
+        <v>2174.1660000000002</v>
+      </c>
       <c r="AU34" s="323"/>
-      <c r="AV34" s="322"/>
+      <c r="AV34" s="322">
+        <v>1987.7819999999999</v>
+      </c>
       <c r="AW34" s="323"/>
-      <c r="AX34" s="322"/>
+      <c r="AX34" s="322">
+        <v>1985.0509999999999</v>
+      </c>
       <c r="AY34" s="323"/>
-      <c r="AZ34" s="322"/>
+      <c r="AZ34" s="322">
+        <v>1970.7</v>
+      </c>
       <c r="BA34" s="323"/>
       <c r="BB34" s="322"/>
       <c r="BC34" s="323"/>
@@ -8487,19 +9215,33 @@
         <v>286.24400000000003</v>
       </c>
       <c r="AM35" s="305"/>
-      <c r="AN35" s="304"/>
+      <c r="AN35" s="304">
+        <v>389.45800000000003</v>
+      </c>
       <c r="AO35" s="305"/>
-      <c r="AP35" s="304"/>
+      <c r="AP35" s="304">
+        <v>376.86</v>
+      </c>
       <c r="AQ35" s="305"/>
-      <c r="AR35" s="304"/>
+      <c r="AR35" s="304">
+        <v>357.77600000000001</v>
+      </c>
       <c r="AS35" s="305"/>
-      <c r="AT35" s="304"/>
+      <c r="AT35" s="304">
+        <v>356.85899999999998</v>
+      </c>
       <c r="AU35" s="305"/>
-      <c r="AV35" s="304"/>
+      <c r="AV35" s="304">
+        <v>347.18899999999996</v>
+      </c>
       <c r="AW35" s="305"/>
-      <c r="AX35" s="304"/>
+      <c r="AX35" s="304">
+        <v>349.15800000000002</v>
+      </c>
       <c r="AY35" s="305"/>
-      <c r="AZ35" s="304"/>
+      <c r="AZ35" s="304">
+        <v>358.88200000000001</v>
+      </c>
       <c r="BA35" s="305"/>
       <c r="BB35" s="304"/>
       <c r="BC35" s="305"/>
@@ -8614,37 +9356,37 @@
       <c r="AM36" s="309"/>
       <c r="AN36" s="308">
         <f t="shared" ref="AN36" si="16">AN32+AN34+AN35</f>
-        <v>0</v>
+        <v>3795.121000000071</v>
       </c>
       <c r="AO36" s="309"/>
       <c r="AP36" s="308">
         <f t="shared" ref="AP36" si="17">AP32+AP34+AP35</f>
-        <v>0</v>
+        <v>3870.1390000003221</v>
       </c>
       <c r="AQ36" s="309"/>
       <c r="AR36" s="308">
         <f t="shared" ref="AR36" si="18">AR32+AR34+AR35</f>
-        <v>0</v>
+        <v>3676.81299999984</v>
       </c>
       <c r="AS36" s="309"/>
       <c r="AT36" s="308">
         <f t="shared" ref="AT36" si="19">AT32+AT34+AT35</f>
-        <v>0</v>
+        <v>3746.2010000002051</v>
       </c>
       <c r="AU36" s="309"/>
       <c r="AV36" s="308">
         <f t="shared" ref="AV36" si="20">AV32+AV34+AV35</f>
-        <v>0</v>
+        <v>3640.4569999996324</v>
       </c>
       <c r="AW36" s="309"/>
       <c r="AX36" s="308">
         <f t="shared" ref="AX36" si="21">AX32+AX34+AX35</f>
-        <v>0</v>
+        <v>3648.6090000000563</v>
       </c>
       <c r="AY36" s="309"/>
       <c r="AZ36" s="308">
         <f t="shared" ref="AZ36" si="22">AZ32+AZ34+AZ35</f>
-        <v>0</v>
+        <v>3624.6919999999577</v>
       </c>
       <c r="BA36" s="309"/>
       <c r="BB36" s="308">
@@ -8778,37 +9520,37 @@
       <c r="AM37" s="307"/>
       <c r="AN37" s="306">
         <f t="shared" ref="AN37" si="46">AN33-AN36</f>
-        <v>0</v>
+        <v>285.29299999992918</v>
       </c>
       <c r="AO37" s="307"/>
       <c r="AP37" s="306">
         <f t="shared" ref="AP37" si="47">AP33-AP36</f>
-        <v>0</v>
+        <v>-197.11488000044801</v>
       </c>
       <c r="AQ37" s="307"/>
       <c r="AR37" s="306">
         <f t="shared" ref="AR37" si="48">AR33-AR36</f>
-        <v>0</v>
+        <v>209.50500000016018</v>
       </c>
       <c r="AS37" s="307"/>
       <c r="AT37" s="306">
         <f t="shared" ref="AT37" si="49">AT33-AT36</f>
-        <v>0</v>
+        <v>264.58299999979499</v>
       </c>
       <c r="AU37" s="307"/>
       <c r="AV37" s="306">
         <f t="shared" ref="AV37" si="50">AV33-AV36</f>
-        <v>0</v>
+        <v>612.69468000075312</v>
       </c>
       <c r="AW37" s="307"/>
       <c r="AX37" s="306">
         <f t="shared" ref="AX37" si="51">AX33-AX36</f>
-        <v>0</v>
+        <v>502.48399999994353</v>
       </c>
       <c r="AY37" s="307"/>
       <c r="AZ37" s="306">
         <f t="shared" ref="AZ37" si="52">AZ33-AZ36</f>
-        <v>0</v>
+        <v>348.38100000004215</v>
       </c>
       <c r="BA37" s="307"/>
       <c r="BB37" s="306">
@@ -8942,37 +9684,37 @@
       <c r="AM38" s="311"/>
       <c r="AN38" s="310">
         <f t="shared" ref="AN38" si="77">AN33-AO32-AN34-AN35</f>
-        <v>0</v>
+        <v>-25.047210000001485</v>
       </c>
       <c r="AO38" s="311"/>
       <c r="AP38" s="310">
         <f t="shared" ref="AP38" si="78">AP33-AQ32-AP34-AP35</f>
-        <v>0</v>
+        <v>-534.06926000056967</v>
       </c>
       <c r="AQ38" s="311"/>
       <c r="AR38" s="310">
         <f t="shared" ref="AR38" si="79">AR33-AS32-AR34-AR35</f>
-        <v>0</v>
+        <v>-90.790039999754924</v>
       </c>
       <c r="AS38" s="311"/>
       <c r="AT38" s="310">
         <f t="shared" ref="AT38" si="80">AT33-AU32-AT34-AT35</f>
-        <v>0</v>
+        <v>-90.226010000175449</v>
       </c>
       <c r="AU38" s="311"/>
       <c r="AV38" s="310">
         <f t="shared" ref="AV38" si="81">AV33-AW32-AV34-AV35</f>
-        <v>0</v>
+        <v>226.16227000066704</v>
       </c>
       <c r="AW38" s="311"/>
       <c r="AX38" s="310">
         <f t="shared" ref="AX38" si="82">AX33-AY32-AX34-AX35</f>
-        <v>0</v>
+        <v>147.7245800000436</v>
       </c>
       <c r="AY38" s="311"/>
       <c r="AZ38" s="310">
         <f t="shared" ref="AZ38" si="83">AZ33-BA32-AZ34-AZ35</f>
-        <v>0</v>
+        <v>105.04924999985388</v>
       </c>
       <c r="BA38" s="311"/>
       <c r="BB38" s="310">
@@ -9008,7 +9750,7 @@
       <c r="BN38" s="1"/>
       <c r="BO38" s="212">
         <f>BN33-BO32-BN35-BN34</f>
-        <v>-15150.396509999335</v>
+        <v>-24147.650729999561</v>
       </c>
     </row>
     <row r="39" spans="1:122" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,19 +9832,33 @@
         <v>45217</v>
       </c>
       <c r="AM40" s="303"/>
-      <c r="AN40" s="302"/>
+      <c r="AN40" s="302">
+        <v>45218</v>
+      </c>
       <c r="AO40" s="303"/>
-      <c r="AP40" s="302"/>
+      <c r="AP40" s="302">
+        <v>45219</v>
+      </c>
       <c r="AQ40" s="303"/>
-      <c r="AR40" s="302"/>
+      <c r="AR40" s="302">
+        <v>45220</v>
+      </c>
       <c r="AS40" s="303"/>
-      <c r="AT40" s="302"/>
+      <c r="AT40" s="302">
+        <v>45221</v>
+      </c>
       <c r="AU40" s="303"/>
-      <c r="AV40" s="302"/>
+      <c r="AV40" s="302">
+        <v>45222</v>
+      </c>
       <c r="AW40" s="303"/>
-      <c r="AX40" s="302"/>
+      <c r="AX40" s="302">
+        <v>45223</v>
+      </c>
       <c r="AY40" s="303"/>
-      <c r="AZ40" s="302"/>
+      <c r="AZ40" s="302">
+        <v>45224</v>
+      </c>
       <c r="BA40" s="303"/>
       <c r="BB40" s="302"/>
       <c r="BC40" s="303"/>
@@ -9193,19 +9949,33 @@
         <v>15784.262000000001</v>
       </c>
       <c r="AM41" s="299"/>
-      <c r="AN41" s="299"/>
+      <c r="AN41" s="299">
+        <v>15784.263000000001</v>
+      </c>
       <c r="AO41" s="299"/>
-      <c r="AP41" s="299"/>
+      <c r="AP41" s="299">
+        <v>15784.263000000001</v>
+      </c>
       <c r="AQ41" s="299"/>
-      <c r="AR41" s="299"/>
+      <c r="AR41" s="299">
+        <v>15784.294</v>
+      </c>
       <c r="AS41" s="299"/>
-      <c r="AT41" s="299"/>
+      <c r="AT41" s="299">
+        <v>15784.307000000001</v>
+      </c>
       <c r="AU41" s="299"/>
-      <c r="AV41" s="299"/>
+      <c r="AV41" s="299">
+        <v>15784.388999999999</v>
+      </c>
       <c r="AW41" s="299"/>
-      <c r="AX41" s="299"/>
+      <c r="AX41" s="299">
+        <v>15784.437</v>
+      </c>
       <c r="AY41" s="299"/>
-      <c r="AZ41" s="299"/>
+      <c r="AZ41" s="299">
+        <v>15784.442999999999</v>
+      </c>
       <c r="BA41" s="299"/>
       <c r="BB41" s="299"/>
       <c r="BC41" s="299"/>
@@ -9296,19 +10066,33 @@
         <v>795.18499999999995</v>
       </c>
       <c r="AM42" s="299"/>
-      <c r="AN42" s="299"/>
+      <c r="AN42" s="299">
+        <v>796.24699999999996</v>
+      </c>
       <c r="AO42" s="299"/>
-      <c r="AP42" s="299"/>
+      <c r="AP42" s="299">
+        <v>797.34</v>
+      </c>
       <c r="AQ42" s="299"/>
-      <c r="AR42" s="299"/>
+      <c r="AR42" s="299">
+        <v>798.17</v>
+      </c>
       <c r="AS42" s="299"/>
-      <c r="AT42" s="299"/>
+      <c r="AT42" s="299">
+        <v>799.05600000000004</v>
+      </c>
       <c r="AU42" s="299"/>
-      <c r="AV42" s="299"/>
+      <c r="AV42" s="299">
+        <v>799.75800000000004</v>
+      </c>
       <c r="AW42" s="299"/>
-      <c r="AX42" s="299"/>
+      <c r="AX42" s="299">
+        <v>800.596</v>
+      </c>
       <c r="AY42" s="299"/>
-      <c r="AZ42" s="299"/>
+      <c r="AZ42" s="299">
+        <v>801.41</v>
+      </c>
       <c r="BA42" s="299"/>
       <c r="BB42" s="299"/>
       <c r="BC42" s="299"/>
@@ -9399,19 +10183,33 @@
         <v>16.960000000000036</v>
       </c>
       <c r="AM43" s="299"/>
-      <c r="AN43" s="299"/>
+      <c r="AN43" s="299">
+        <v>16.960000000000036</v>
+      </c>
       <c r="AO43" s="299"/>
-      <c r="AP43" s="299"/>
+      <c r="AP43" s="299">
+        <v>18.960000000000036</v>
+      </c>
       <c r="AQ43" s="299"/>
-      <c r="AR43" s="299"/>
+      <c r="AR43" s="299">
+        <v>18.8799999999992</v>
+      </c>
       <c r="AS43" s="299"/>
-      <c r="AT43" s="299"/>
+      <c r="AT43" s="299">
+        <v>17.079999999999927</v>
+      </c>
       <c r="AU43" s="299"/>
-      <c r="AV43" s="299"/>
+      <c r="AV43" s="299">
+        <v>17.920000000000073</v>
+      </c>
       <c r="AW43" s="299"/>
-      <c r="AX43" s="299"/>
+      <c r="AX43" s="299">
+        <v>17.320000000000618</v>
+      </c>
       <c r="AY43" s="299"/>
-      <c r="AZ43" s="299"/>
+      <c r="AZ43" s="299">
+        <v>17.559999999999491</v>
+      </c>
       <c r="BA43" s="299"/>
       <c r="BB43" s="299"/>
       <c r="BC43" s="299"/>
@@ -9502,19 +10300,33 @@
         <v>171.64000000002852</v>
       </c>
       <c r="AM44" s="299"/>
-      <c r="AN44" s="299"/>
+      <c r="AN44" s="299">
+        <v>175.4199999999837</v>
+      </c>
       <c r="AO44" s="299"/>
-      <c r="AP44" s="299"/>
+      <c r="AP44" s="299">
+        <v>182.4199999999837</v>
+      </c>
       <c r="AQ44" s="299"/>
-      <c r="AR44" s="299"/>
+      <c r="AR44" s="299">
+        <v>177.23999999999796</v>
+      </c>
       <c r="AS44" s="299"/>
-      <c r="AT44" s="299"/>
+      <c r="AT44" s="299">
+        <v>170.94000000003871</v>
+      </c>
       <c r="AU44" s="299"/>
-      <c r="AV44" s="299"/>
+      <c r="AV44" s="299">
+        <v>182</v>
+      </c>
       <c r="AW44" s="299"/>
-      <c r="AX44" s="299"/>
+      <c r="AX44" s="299">
+        <v>181.43999999998778</v>
+      </c>
       <c r="AY44" s="299"/>
-      <c r="AZ44" s="299"/>
+      <c r="AZ44" s="299">
+        <v>175</v>
+      </c>
       <c r="BA44" s="299"/>
       <c r="BB44" s="299"/>
       <c r="BC44" s="299"/>
@@ -9605,19 +10417,33 @@
         <v>32.619999999998981</v>
       </c>
       <c r="AM45" s="299"/>
-      <c r="AN45" s="299"/>
+      <c r="AN45" s="299">
+        <v>32.375</v>
+      </c>
       <c r="AO45" s="299"/>
-      <c r="AP45" s="299"/>
+      <c r="AP45" s="299">
+        <v>30.974999999994907</v>
+      </c>
       <c r="AQ45" s="299"/>
-      <c r="AR45" s="299"/>
+      <c r="AR45" s="299">
+        <v>30.799999999997453</v>
+      </c>
       <c r="AS45" s="299"/>
-      <c r="AT45" s="299"/>
+      <c r="AT45" s="299">
+        <v>33.215000000005602</v>
+      </c>
       <c r="AU45" s="299"/>
-      <c r="AV45" s="299"/>
+      <c r="AV45" s="299">
+        <v>31.255000000001019</v>
+      </c>
       <c r="AW45" s="299"/>
-      <c r="AX45" s="299"/>
+      <c r="AX45" s="299">
+        <v>31.779999999993379</v>
+      </c>
       <c r="AY45" s="299"/>
-      <c r="AZ45" s="299"/>
+      <c r="AZ45" s="299">
+        <v>28.700000000002547</v>
+      </c>
       <c r="BA45" s="299"/>
       <c r="BB45" s="299"/>
       <c r="BC45" s="299"/>
@@ -9708,19 +10534,33 @@
         <v>17173.606</v>
       </c>
       <c r="AM46" s="299"/>
-      <c r="AN46" s="299"/>
+      <c r="AN46" s="299">
+        <v>17177.934000000001</v>
+      </c>
       <c r="AO46" s="299"/>
-      <c r="AP46" s="299"/>
+      <c r="AP46" s="299">
+        <v>17182.077000000001</v>
+      </c>
       <c r="AQ46" s="299"/>
-      <c r="AR46" s="299"/>
+      <c r="AR46" s="299">
+        <v>17186.375</v>
+      </c>
       <c r="AS46" s="299"/>
-      <c r="AT46" s="299"/>
+      <c r="AT46" s="299">
+        <v>17190.579000000002</v>
+      </c>
       <c r="AU46" s="299"/>
-      <c r="AV46" s="299"/>
+      <c r="AV46" s="299">
+        <v>17195.133999999998</v>
+      </c>
       <c r="AW46" s="299"/>
-      <c r="AX46" s="299"/>
+      <c r="AX46" s="299">
+        <v>17199.589</v>
+      </c>
       <c r="AY46" s="299"/>
-      <c r="AZ46" s="299"/>
+      <c r="AZ46" s="299">
+        <v>17203.955999999998</v>
+      </c>
       <c r="BA46" s="299"/>
       <c r="BB46" s="299"/>
       <c r="BC46" s="299"/>
@@ -9811,19 +10651,33 @@
         <v>11.38</v>
       </c>
       <c r="AM47" s="299"/>
-      <c r="AN47" s="299"/>
+      <c r="AN47" s="299">
+        <v>11.48</v>
+      </c>
       <c r="AO47" s="299"/>
-      <c r="AP47" s="299"/>
+      <c r="AP47" s="299">
+        <v>11.59</v>
+      </c>
       <c r="AQ47" s="299"/>
-      <c r="AR47" s="299"/>
+      <c r="AR47" s="299">
+        <v>11.69</v>
+      </c>
       <c r="AS47" s="299"/>
-      <c r="AT47" s="299"/>
+      <c r="AT47" s="299">
+        <v>11.79</v>
+      </c>
       <c r="AU47" s="299"/>
-      <c r="AV47" s="299"/>
+      <c r="AV47" s="299">
+        <v>11.89</v>
+      </c>
       <c r="AW47" s="299"/>
-      <c r="AX47" s="299"/>
+      <c r="AX47" s="299">
+        <v>11.99</v>
+      </c>
       <c r="AY47" s="299"/>
-      <c r="AZ47" s="299"/>
+      <c r="AZ47" s="299">
+        <v>12.08</v>
+      </c>
       <c r="BA47" s="299"/>
       <c r="BB47" s="299"/>
       <c r="BC47" s="299"/>
@@ -9916,19 +10770,33 @@
         <v>68.98</v>
       </c>
       <c r="AM48" s="299"/>
-      <c r="AN48" s="299"/>
+      <c r="AN48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AO48" s="299"/>
-      <c r="AP48" s="299"/>
+      <c r="AP48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AQ48" s="299"/>
-      <c r="AR48" s="299"/>
+      <c r="AR48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AS48" s="299"/>
-      <c r="AT48" s="299"/>
+      <c r="AT48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AU48" s="299"/>
-      <c r="AV48" s="299"/>
+      <c r="AV48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AW48" s="299"/>
-      <c r="AX48" s="299"/>
+      <c r="AX48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="AY48" s="299"/>
-      <c r="AZ48" s="299"/>
+      <c r="AZ48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="BA48" s="299"/>
       <c r="BB48" s="299"/>
       <c r="BC48" s="299"/>
@@ -10076,19 +10944,33 @@
         <v>576.673</v>
       </c>
       <c r="AM49" s="299"/>
-      <c r="AN49" s="299"/>
+      <c r="AN49" s="299">
+        <v>576.44000000000005</v>
+      </c>
       <c r="AO49" s="299"/>
-      <c r="AP49" s="299"/>
+      <c r="AP49" s="299">
+        <v>576.75800000000004</v>
+      </c>
       <c r="AQ49" s="299"/>
-      <c r="AR49" s="299"/>
+      <c r="AR49" s="299">
+        <v>576.04600000000005</v>
+      </c>
       <c r="AS49" s="299"/>
-      <c r="AT49" s="299"/>
+      <c r="AT49" s="299">
+        <v>575.78099999999995</v>
+      </c>
       <c r="AU49" s="299"/>
-      <c r="AV49" s="299"/>
+      <c r="AV49" s="299">
+        <v>576.58799999999997</v>
+      </c>
       <c r="AW49" s="299"/>
-      <c r="AX49" s="299"/>
+      <c r="AX49" s="299">
+        <v>576.89</v>
+      </c>
       <c r="AY49" s="299"/>
-      <c r="AZ49" s="299"/>
+      <c r="AZ49" s="299">
+        <v>576.31700000000001</v>
+      </c>
       <c r="BA49" s="299"/>
       <c r="BB49" s="299"/>
       <c r="BC49" s="299"/>
@@ -10236,19 +11118,33 @@
         <v>91.236999999999995</v>
       </c>
       <c r="AM50" s="299"/>
-      <c r="AN50" s="299"/>
+      <c r="AN50" s="299">
+        <v>89.644000000000005</v>
+      </c>
       <c r="AO50" s="299"/>
-      <c r="AP50" s="299"/>
+      <c r="AP50" s="299">
+        <v>89.798000000000002</v>
+      </c>
       <c r="AQ50" s="299"/>
-      <c r="AR50" s="299"/>
+      <c r="AR50" s="299">
+        <v>89.06</v>
+      </c>
       <c r="AS50" s="299"/>
-      <c r="AT50" s="299"/>
+      <c r="AT50" s="299">
+        <v>87.760999999999996</v>
+      </c>
       <c r="AU50" s="299"/>
-      <c r="AV50" s="299"/>
+      <c r="AV50" s="299">
+        <v>88.21</v>
+      </c>
       <c r="AW50" s="299"/>
-      <c r="AX50" s="299"/>
+      <c r="AX50" s="299">
+        <v>87.971000000000004</v>
+      </c>
       <c r="AY50" s="299"/>
-      <c r="AZ50" s="299"/>
+      <c r="AZ50" s="299">
+        <v>87.209000000000003</v>
+      </c>
       <c r="BA50" s="299"/>
       <c r="BB50" s="299"/>
       <c r="BC50" s="299"/>
@@ -10396,19 +11292,33 @@
         <v>376.06800000002113</v>
       </c>
       <c r="AM51" s="299"/>
-      <c r="AN51" s="299"/>
+      <c r="AN51" s="299">
+        <v>433.81800000002113</v>
+      </c>
       <c r="AO51" s="299"/>
-      <c r="AP51" s="299"/>
+      <c r="AP51" s="299">
+        <v>407.9459999999126</v>
+      </c>
       <c r="AQ51" s="299"/>
-      <c r="AR51" s="299"/>
+      <c r="AR51" s="299">
+        <v>318.71400000010181</v>
+      </c>
       <c r="AS51" s="299"/>
-      <c r="AT51" s="299"/>
+      <c r="AT51" s="299">
+        <v>466.15800000000672</v>
+      </c>
       <c r="AU51" s="299"/>
-      <c r="AV51" s="299"/>
+      <c r="AV51" s="299">
+        <v>40.523999999972148</v>
+      </c>
       <c r="AW51" s="299"/>
-      <c r="AX51" s="299"/>
+      <c r="AX51" s="299">
+        <v>38.147999999968306</v>
+      </c>
       <c r="AY51" s="299"/>
-      <c r="AZ51" s="299"/>
+      <c r="AZ51" s="299">
+        <v>171.33599999997023</v>
+      </c>
       <c r="BA51" s="299"/>
       <c r="BB51" s="299"/>
       <c r="BC51" s="299"/>
@@ -10556,19 +11466,33 @@
         <v>868.70500000000004</v>
       </c>
       <c r="AM52" s="299"/>
-      <c r="AN52" s="299"/>
+      <c r="AN52" s="299">
+        <v>875.21399999997834</v>
+      </c>
       <c r="AO52" s="299"/>
-      <c r="AP52" s="299"/>
+      <c r="AP52" s="299">
+        <v>875.21399999997834</v>
+      </c>
       <c r="AQ52" s="299"/>
-      <c r="AR52" s="299"/>
+      <c r="AR52" s="299">
+        <v>672.04600000000005</v>
+      </c>
       <c r="AS52" s="299"/>
-      <c r="AT52" s="299"/>
+      <c r="AT52" s="299">
+        <v>790.79800000002501</v>
+      </c>
       <c r="AU52" s="299"/>
-      <c r="AV52" s="299"/>
+      <c r="AV52" s="299">
+        <v>712.67100000000005</v>
+      </c>
       <c r="AW52" s="299"/>
-      <c r="AX52" s="299"/>
+      <c r="AX52" s="299">
+        <v>529.88199999999995</v>
+      </c>
       <c r="AY52" s="299"/>
-      <c r="AZ52" s="299"/>
+      <c r="AZ52" s="299">
+        <v>529.88199999999995</v>
+      </c>
       <c r="BA52" s="299"/>
       <c r="BB52" s="299"/>
       <c r="BC52" s="299"/>
@@ -10716,19 +11640,33 @@
         <v>22.0749999999985</v>
       </c>
       <c r="AM53" s="299"/>
-      <c r="AN53" s="299"/>
+      <c r="AN53" s="299">
+        <v>21.101000000002433</v>
+      </c>
       <c r="AO53" s="299"/>
-      <c r="AP53" s="299"/>
+      <c r="AP53" s="299">
+        <v>21.988000000002557</v>
+      </c>
       <c r="AQ53" s="299"/>
-      <c r="AR53" s="299"/>
+      <c r="AR53" s="299">
+        <v>21.586000000000496</v>
+      </c>
       <c r="AS53" s="299"/>
-      <c r="AT53" s="299"/>
+      <c r="AT53" s="299">
+        <v>21.270000000000028</v>
+      </c>
       <c r="AU53" s="299"/>
-      <c r="AV53" s="299"/>
+      <c r="AV53" s="299">
+        <v>21.124999999996181</v>
+      </c>
       <c r="AW53" s="299"/>
-      <c r="AX53" s="299"/>
+      <c r="AX53" s="299">
+        <v>23.282999999998992</v>
+      </c>
       <c r="AY53" s="299"/>
-      <c r="AZ53" s="299"/>
+      <c r="AZ53" s="299">
+        <v>22.103999999999267</v>
+      </c>
       <c r="BA53" s="299"/>
       <c r="BB53" s="299"/>
       <c r="BC53" s="299"/>

--- a/DB/временно/TATEK.xlsx
+++ b/DB/временно/TATEK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A7DDCC-9846-4A00-A54A-2DBA05F65EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5303D857-4209-4610-BB76-ADDAE209A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3551,10 +3551,10 @@
   <dimension ref="A2:DR53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5:BA5"/>
+      <selection pane="bottomRight" activeCell="BH5" sqref="BH5:BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,29 +4268,45 @@
       <c r="BA7" s="195">
         <v>11.4950000000008</v>
       </c>
-      <c r="BB7" s="219"/>
-      <c r="BC7" s="195"/>
-      <c r="BD7" s="219"/>
-      <c r="BE7" s="195"/>
-      <c r="BF7" s="219"/>
-      <c r="BG7" s="195"/>
-      <c r="BH7" s="219"/>
-      <c r="BI7" s="195"/>
+      <c r="BB7" s="219">
+        <v>14.273</v>
+      </c>
+      <c r="BC7" s="195">
+        <v>11.509999999998399</v>
+      </c>
+      <c r="BD7" s="219">
+        <v>14.523999999999999</v>
+      </c>
+      <c r="BE7" s="195">
+        <v>11.377999999999702</v>
+      </c>
+      <c r="BF7" s="219">
+        <v>14.301</v>
+      </c>
+      <c r="BG7" s="195">
+        <v>11.334000000001197</v>
+      </c>
+      <c r="BH7" s="219">
+        <v>11.88</v>
+      </c>
+      <c r="BI7" s="195">
+        <v>11.33199999999988</v>
+      </c>
       <c r="BJ7" s="219"/>
       <c r="BK7" s="195"/>
       <c r="BL7" s="219"/>
       <c r="BM7" s="195"/>
       <c r="BN7" s="29">
         <f>SUM(L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7,AX7,AZ7,BB7,BD7,BF7,BH7,BJ7,BL7,)</f>
-        <v>306.65599999999995</v>
+        <v>361.63399999999996</v>
       </c>
       <c r="BO7" s="30">
         <f>SUM(AE7,AC7,AA7,Y7,W7,U7,S7,Q7,O7,M7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7,AW7,AY7,BA7,BC7,BE7,BG7,BI7,BK7,BM7,)</f>
-        <v>228.03199999999924</v>
+        <v>273.58599999999842</v>
       </c>
       <c r="BP7" s="214">
         <f>BO7-BN7</f>
-        <v>-78.624000000000706</v>
+        <v>-88.048000000001537</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,29 +4465,45 @@
       <c r="BA8" s="25">
         <v>43.088849999997279</v>
       </c>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="25"/>
+      <c r="BB8" s="46">
+        <v>9.468</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>45.846849999999229</v>
+      </c>
+      <c r="BD8" s="46">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>32.361350000000428</v>
+      </c>
+      <c r="BF8" s="46">
+        <v>9.5679999999999996</v>
+      </c>
+      <c r="BG8" s="25">
+        <v>41.333950000001224</v>
+      </c>
+      <c r="BH8" s="46">
+        <v>10.113</v>
+      </c>
+      <c r="BI8" s="25">
+        <v>29.023399999998109</v>
+      </c>
       <c r="BJ8" s="46"/>
       <c r="BK8" s="25"/>
       <c r="BL8" s="46"/>
       <c r="BM8" s="25"/>
       <c r="BN8" s="29">
         <f t="shared" ref="BN8:BN31" si="0">SUM(L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8,AH8,AJ8,AL8,AN8,AP8,AR8,AT8,AV8,AX8,AZ8,BB8,BD8,BF8,BH8,BJ8,BL8,)</f>
-        <v>192.92299999999997</v>
+        <v>231.77199999999996</v>
       </c>
       <c r="BO8" s="30">
         <f t="shared" ref="BO8:BO31" si="1">SUM(AE8,AC8,AA8,Y8,W8,U8,S8,Q8,O8,M8,AI8,AK8,AM8,AO8,AQ8,AS8,AU8,AW8,AY8,BA8,BC8,BE8,BG8,BI8,BK8,BM8,)</f>
-        <v>635.01934999999764</v>
+        <v>783.58489999999665</v>
       </c>
       <c r="BP8" s="215">
         <f t="shared" ref="BP8:BP9" si="2">BO8-BN8</f>
-        <v>442.09634999999764</v>
+        <v>551.81289999999672</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,29 +4662,45 @@
       <c r="BA9" s="25">
         <v>21.695</v>
       </c>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="25"/>
+      <c r="BB9" s="46">
+        <v>60.869</v>
+      </c>
+      <c r="BC9" s="25">
+        <v>21.783999999999999</v>
+      </c>
+      <c r="BD9" s="46">
+        <v>61.045999999999999</v>
+      </c>
+      <c r="BE9" s="25">
+        <v>22.276</v>
+      </c>
+      <c r="BF9" s="46">
+        <v>61.05</v>
+      </c>
+      <c r="BG9" s="25">
+        <v>21.469000000000001</v>
+      </c>
+      <c r="BH9" s="46">
+        <v>61.128999999999998</v>
+      </c>
+      <c r="BI9" s="25">
+        <v>21.122999999999998</v>
+      </c>
       <c r="BJ9" s="46"/>
       <c r="BK9" s="25"/>
       <c r="BL9" s="46"/>
       <c r="BM9" s="25"/>
       <c r="BN9" s="29">
         <f t="shared" si="0"/>
-        <v>1221.7100000000003</v>
+        <v>1465.8040000000001</v>
       </c>
       <c r="BO9" s="30">
         <f t="shared" si="1"/>
-        <v>437.38599999999991</v>
+        <v>524.0379999999999</v>
       </c>
       <c r="BP9" s="215">
         <f t="shared" si="2"/>
-        <v>-784.3240000000003</v>
+        <v>-941.76600000000019</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4811,29 +4859,45 @@
       <c r="BA10" s="25">
         <v>195.47360000001882</v>
       </c>
-      <c r="BB10" s="46"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="46"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="25"/>
+      <c r="BB10" s="46">
+        <v>179.97399999999999</v>
+      </c>
+      <c r="BC10" s="25">
+        <v>195.17399999999424</v>
+      </c>
+      <c r="BD10" s="46">
+        <v>180.48599999999999</v>
+      </c>
+      <c r="BE10" s="25">
+        <v>194.29760000000175</v>
+      </c>
+      <c r="BF10" s="46">
+        <v>183.47900000000001</v>
+      </c>
+      <c r="BG10" s="25">
+        <v>192.25080000000318</v>
+      </c>
+      <c r="BH10" s="46">
+        <v>185.75</v>
+      </c>
+      <c r="BI10" s="25">
+        <v>179.57239999998131</v>
+      </c>
       <c r="BJ10" s="46"/>
       <c r="BK10" s="25"/>
       <c r="BL10" s="46"/>
       <c r="BM10" s="25"/>
       <c r="BN10" s="29">
         <f t="shared" si="0"/>
-        <v>2934.6509999999998</v>
+        <v>3664.3399999999997</v>
       </c>
       <c r="BO10" s="30">
         <f t="shared" si="1"/>
-        <v>2789.740400000017</v>
+        <v>3551.0351999999971</v>
       </c>
       <c r="BP10" s="215">
         <f>BO10-BN10</f>
-        <v>-144.91059999998288</v>
+        <v>-113.30480000000261</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,29 +5056,45 @@
       <c r="BA11" s="25">
         <v>171.16600000005505</v>
       </c>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="46"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="46"/>
-      <c r="BI11" s="25"/>
+      <c r="BB11" s="46">
+        <v>194.935</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>223.35100000003189</v>
+      </c>
+      <c r="BD11" s="46">
+        <v>186.02099999999999</v>
+      </c>
+      <c r="BE11" s="25">
+        <v>217.1839999998968</v>
+      </c>
+      <c r="BF11" s="46">
+        <v>125.893</v>
+      </c>
+      <c r="BG11" s="25">
+        <v>160.17900000012008</v>
+      </c>
+      <c r="BH11" s="46">
+        <v>127.633</v>
+      </c>
+      <c r="BI11" s="25">
+        <v>182.83199999984805</v>
+      </c>
       <c r="BJ11" s="46"/>
       <c r="BK11" s="25"/>
       <c r="BL11" s="46"/>
       <c r="BM11" s="25"/>
       <c r="BN11" s="29">
         <f t="shared" si="0"/>
-        <v>3240.625</v>
+        <v>3875.107</v>
       </c>
       <c r="BO11" s="30">
         <f t="shared" si="1"/>
-        <v>3651.9890000000796</v>
+        <v>4435.5349999999771</v>
       </c>
       <c r="BP11" s="215">
         <f>BO11-BN11</f>
-        <v>411.36400000007961</v>
+        <v>560.42799999997715</v>
       </c>
     </row>
     <row r="12" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5173,25 +5253,41 @@
       <c r="BA12" s="44">
         <v>2.76</v>
       </c>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="46"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="46"/>
-      <c r="BI12" s="44"/>
+      <c r="BB12" s="46">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="BC12" s="44">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="BD12" s="46">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="BE12" s="44">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="BF12" s="46">
+        <v>2.758</v>
+      </c>
+      <c r="BG12" s="44">
+        <v>2.758</v>
+      </c>
+      <c r="BH12" s="46">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="BI12" s="44">
+        <v>2.7570000000000001</v>
+      </c>
       <c r="BJ12" s="46"/>
       <c r="BK12" s="44"/>
       <c r="BL12" s="46"/>
       <c r="BM12" s="44"/>
       <c r="BN12" s="29">
         <f t="shared" si="0"/>
-        <v>55.121000000000009</v>
+        <v>66.144000000000005</v>
       </c>
       <c r="BO12" s="30">
         <f t="shared" si="1"/>
-        <v>55.121000000000009</v>
+        <v>66.144000000000005</v>
       </c>
       <c r="BP12" s="215">
         <f>BO12-BN12</f>
@@ -5354,25 +5450,41 @@
       <c r="BA13" s="44">
         <v>0.77100000000000002</v>
       </c>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="46"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="46"/>
-      <c r="BI13" s="44"/>
+      <c r="BB13" s="46">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="BC13" s="44">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="BD13" s="46">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="BE13" s="44">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="BF13" s="46">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="BG13" s="44">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="BH13" s="46">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="BI13" s="44">
+        <v>0.71199999999999997</v>
+      </c>
       <c r="BJ13" s="46"/>
       <c r="BK13" s="44"/>
       <c r="BL13" s="46"/>
       <c r="BM13" s="44"/>
       <c r="BN13" s="29">
         <f t="shared" si="0"/>
-        <v>15.555000000000003</v>
+        <v>18.362000000000002</v>
       </c>
       <c r="BO13" s="30">
         <f t="shared" si="1"/>
-        <v>15.555000000000003</v>
+        <v>18.362000000000002</v>
       </c>
       <c r="BP13" s="215">
         <f t="shared" ref="BP13:BP31" si="3">BO13-BN13</f>
@@ -5535,29 +5647,45 @@
       <c r="BA14" s="44">
         <v>198.74000000001433</v>
       </c>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="46"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="44"/>
+      <c r="BB14" s="46">
+        <v>177.76499999999999</v>
+      </c>
+      <c r="BC14" s="44">
+        <v>205.84799999997449</v>
+      </c>
+      <c r="BD14" s="46">
+        <v>178.291</v>
+      </c>
+      <c r="BE14" s="44">
+        <v>219.27200000001903</v>
+      </c>
+      <c r="BF14" s="46">
+        <v>166.42</v>
+      </c>
+      <c r="BG14" s="44">
+        <v>199.07400000001144</v>
+      </c>
+      <c r="BH14" s="46">
+        <v>154.74700000000001</v>
+      </c>
+      <c r="BI14" s="44">
+        <v>165.3519999999553</v>
+      </c>
       <c r="BJ14" s="46"/>
       <c r="BK14" s="44"/>
       <c r="BL14" s="46"/>
       <c r="BM14" s="44"/>
       <c r="BN14" s="29">
         <f t="shared" si="0"/>
-        <v>1634.4029999999998</v>
+        <v>2311.6259999999993</v>
       </c>
       <c r="BO14" s="30">
         <f t="shared" si="1"/>
-        <v>3599.4120000000021</v>
+        <v>4388.9579999999623</v>
       </c>
       <c r="BP14" s="216">
         <f t="shared" si="3"/>
-        <v>1965.0090000000023</v>
+        <v>2077.331999999963</v>
       </c>
     </row>
     <row r="15" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5716,29 +5844,45 @@
       <c r="BA15" s="44">
         <v>33.860199999999168</v>
       </c>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="44"/>
+      <c r="BB15" s="46">
+        <v>31.539000000000001</v>
+      </c>
+      <c r="BC15" s="44">
+        <v>33.498299999999475</v>
+      </c>
+      <c r="BD15" s="46">
+        <v>31.63</v>
+      </c>
+      <c r="BE15" s="44">
+        <v>34.027400000003219</v>
+      </c>
+      <c r="BF15" s="46">
+        <v>31.393000000000001</v>
+      </c>
+      <c r="BG15" s="44">
+        <v>33.633600000003028</v>
+      </c>
+      <c r="BH15" s="46">
+        <v>31.436</v>
+      </c>
+      <c r="BI15" s="44">
+        <v>33.527999999999523</v>
+      </c>
       <c r="BJ15" s="46"/>
       <c r="BK15" s="44"/>
       <c r="BL15" s="46"/>
       <c r="BM15" s="44"/>
       <c r="BN15" s="29">
         <f t="shared" si="0"/>
-        <v>684.66099999999994</v>
+        <v>810.65899999999999</v>
       </c>
       <c r="BO15" s="30">
         <f t="shared" si="1"/>
-        <v>666.58391999999731</v>
+        <v>801.2712200000027</v>
       </c>
       <c r="BP15" s="215">
         <f t="shared" si="3"/>
-        <v>-18.077080000002638</v>
+        <v>-9.3877799999972922</v>
       </c>
     </row>
     <row r="16" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,29 +6041,45 @@
       <c r="BA16" s="44">
         <v>52</v>
       </c>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="44"/>
+      <c r="BB16" s="46">
+        <v>34.219000000000001</v>
+      </c>
+      <c r="BC16" s="44">
+        <v>55.41</v>
+      </c>
+      <c r="BD16" s="46">
+        <v>34.316000000000003</v>
+      </c>
+      <c r="BE16" s="44">
+        <v>42.39</v>
+      </c>
+      <c r="BF16" s="46">
+        <v>41.621000000000002</v>
+      </c>
+      <c r="BG16" s="44">
+        <v>45.95</v>
+      </c>
+      <c r="BH16" s="46">
+        <v>41.677</v>
+      </c>
+      <c r="BI16" s="44">
+        <v>47</v>
+      </c>
       <c r="BJ16" s="46"/>
       <c r="BK16" s="44"/>
       <c r="BL16" s="46"/>
       <c r="BM16" s="44"/>
       <c r="BN16" s="29">
         <f t="shared" si="0"/>
-        <v>454.71999999999997</v>
+        <v>606.553</v>
       </c>
       <c r="BO16" s="30">
         <f t="shared" si="1"/>
-        <v>738.99000000000012</v>
+        <v>929.74000000000012</v>
       </c>
       <c r="BP16" s="215">
         <f t="shared" si="3"/>
-        <v>284.27000000000015</v>
+        <v>323.18700000000013</v>
       </c>
     </row>
     <row r="17" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6078,29 +6238,45 @@
       <c r="BA17" s="44">
         <v>6.5</v>
       </c>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="44"/>
+      <c r="BB17" s="46">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="BC17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="BD17" s="46">
+        <v>5.8490000000000002</v>
+      </c>
+      <c r="BE17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="BF17" s="46">
+        <v>5.851</v>
+      </c>
+      <c r="BG17" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="BH17" s="46">
+        <v>5.8579999999999997</v>
+      </c>
+      <c r="BI17" s="44">
+        <v>6.5</v>
+      </c>
       <c r="BJ17" s="46"/>
       <c r="BK17" s="44"/>
       <c r="BL17" s="46"/>
       <c r="BM17" s="44"/>
       <c r="BN17" s="29">
         <f t="shared" si="0"/>
-        <v>123.89099999999998</v>
+        <v>147.28199999999998</v>
       </c>
       <c r="BO17" s="30">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="BP17" s="215">
         <f t="shared" si="3"/>
-        <v>6.1090000000000231</v>
+        <v>8.7180000000000177</v>
       </c>
     </row>
     <row r="18" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,29 +6435,45 @@
       <c r="BA18" s="44">
         <v>29.914000000068192</v>
       </c>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="44"/>
+      <c r="BB18" s="46">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="BC18" s="44">
+        <v>28.178999999957743</v>
+      </c>
+      <c r="BD18" s="46">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="BE18" s="44">
+        <v>70.612000000065308</v>
+      </c>
+      <c r="BF18" s="46">
+        <v>26.718</v>
+      </c>
+      <c r="BG18" s="44">
+        <v>14.026999999899154</v>
+      </c>
+      <c r="BH18" s="46">
+        <v>27.263000000000002</v>
+      </c>
+      <c r="BI18" s="44">
+        <v>32.013000000073951</v>
+      </c>
       <c r="BJ18" s="46"/>
       <c r="BK18" s="44"/>
       <c r="BL18" s="46"/>
       <c r="BM18" s="44"/>
       <c r="BN18" s="29">
         <f t="shared" si="0"/>
-        <v>523.58400000000006</v>
+        <v>633.00800000000004</v>
       </c>
       <c r="BO18" s="30">
         <f t="shared" si="1"/>
-        <v>563.61299999994526</v>
+        <v>708.44399999994152</v>
       </c>
       <c r="BP18" s="215">
         <f t="shared" si="3"/>
-        <v>40.028999999945199</v>
+        <v>75.435999999941487</v>
       </c>
     </row>
     <row r="19" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,29 +6632,45 @@
       <c r="BA19" s="44">
         <v>12.26</v>
       </c>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="44"/>
+      <c r="BB19" s="46">
+        <v>21.055</v>
+      </c>
+      <c r="BC19" s="44">
+        <v>28.184999999999999</v>
+      </c>
+      <c r="BD19" s="46">
+        <v>21.524999999999999</v>
+      </c>
+      <c r="BE19" s="44">
+        <v>2.78</v>
+      </c>
+      <c r="BF19" s="46">
+        <v>21.128</v>
+      </c>
+      <c r="BG19" s="44">
+        <v>47.353000000000002</v>
+      </c>
+      <c r="BH19" s="46">
+        <v>20.954999999999998</v>
+      </c>
+      <c r="BI19" s="44">
+        <v>30.225000000000001</v>
+      </c>
       <c r="BJ19" s="46"/>
       <c r="BK19" s="44"/>
       <c r="BL19" s="46"/>
       <c r="BM19" s="44"/>
       <c r="BN19" s="29">
         <f t="shared" si="0"/>
-        <v>369.34000000000003</v>
+        <v>454.00299999999999</v>
       </c>
       <c r="BO19" s="30">
         <f t="shared" si="1"/>
-        <v>359.52900000000005</v>
+        <v>468.07200000000006</v>
       </c>
       <c r="BP19" s="215">
         <f t="shared" si="3"/>
-        <v>-9.8109999999999786</v>
+        <v>14.069000000000074</v>
       </c>
     </row>
     <row r="20" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6621,29 +6829,45 @@
       <c r="BA20" s="44">
         <v>8.5</v>
       </c>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="46"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="44"/>
+      <c r="BB20" s="46">
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="BC20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="BD20" s="46">
+        <v>8.4079999999999995</v>
+      </c>
+      <c r="BE20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="BF20" s="46">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="BG20" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="BH20" s="46">
+        <v>8.3049999999999997</v>
+      </c>
+      <c r="BI20" s="44">
+        <v>8.5</v>
+      </c>
       <c r="BJ20" s="46"/>
       <c r="BK20" s="44"/>
       <c r="BL20" s="46"/>
       <c r="BM20" s="44"/>
       <c r="BN20" s="29">
         <f t="shared" si="0"/>
-        <v>165.42500000000004</v>
+        <v>198.94200000000004</v>
       </c>
       <c r="BO20" s="30">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="BP20" s="215">
         <f t="shared" si="3"/>
-        <v>4.5749999999999602</v>
+        <v>5.0579999999999643</v>
       </c>
     </row>
     <row r="21" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,25 +7026,41 @@
       <c r="BA21" s="44">
         <v>0.12</v>
       </c>
-      <c r="BB21" s="92"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="92"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="92"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="92"/>
-      <c r="BI21" s="44"/>
+      <c r="BB21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="BC21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="BD21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="BE21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="BF21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="BG21" s="44">
+        <v>0.12</v>
+      </c>
+      <c r="BH21" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="BI21" s="44">
+        <v>0.12</v>
+      </c>
       <c r="BJ21" s="92"/>
       <c r="BK21" s="44"/>
       <c r="BL21" s="92"/>
       <c r="BM21" s="44"/>
       <c r="BN21" s="29">
         <f t="shared" si="0"/>
-        <v>2.398000000000001</v>
+        <v>2.8780000000000014</v>
       </c>
       <c r="BO21" s="30">
         <f t="shared" si="1"/>
-        <v>2.398000000000001</v>
+        <v>2.8780000000000014</v>
       </c>
       <c r="BP21" s="215">
         <f t="shared" si="3"/>
@@ -6983,29 +7223,45 @@
       <c r="BA22" s="44">
         <v>349.20270000002</v>
       </c>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="92"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="92"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="92"/>
-      <c r="BI22" s="44"/>
+      <c r="BB22" s="92">
+        <v>443.15899999999999</v>
+      </c>
+      <c r="BC22" s="44">
+        <v>306.15353999997728</v>
+      </c>
+      <c r="BD22" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="44">
+        <v>259.89215999999061</v>
+      </c>
+      <c r="BF22" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="44">
+        <v>319.31459999997026</v>
+      </c>
+      <c r="BH22" s="92">
+        <v>344.41899999999998</v>
+      </c>
+      <c r="BI22" s="44">
+        <v>333.22805999998985</v>
+      </c>
       <c r="BJ22" s="92"/>
       <c r="BK22" s="44"/>
       <c r="BL22" s="92"/>
       <c r="BM22" s="44"/>
       <c r="BN22" s="29">
         <f t="shared" si="0"/>
-        <v>7305.5349999999999</v>
+        <v>8093.1129999999994</v>
       </c>
       <c r="BO22" s="30">
         <f t="shared" si="1"/>
-        <v>6835.7104199999822</v>
+        <v>8054.29877999991</v>
       </c>
       <c r="BP22" s="217">
         <f t="shared" si="3"/>
-        <v>-469.8245800000177</v>
+        <v>-38.814220000089335</v>
       </c>
     </row>
     <row r="23" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7164,29 +7420,45 @@
       <c r="BA23" s="44">
         <v>50</v>
       </c>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="46"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="46"/>
-      <c r="BI23" s="44"/>
+      <c r="BB23" s="46">
+        <v>32.819000000000003</v>
+      </c>
+      <c r="BC23" s="44">
+        <v>50</v>
+      </c>
+      <c r="BD23" s="46">
+        <v>32.99</v>
+      </c>
+      <c r="BE23" s="44">
+        <v>50</v>
+      </c>
+      <c r="BF23" s="46">
+        <v>32.997999999999998</v>
+      </c>
+      <c r="BG23" s="44">
+        <v>50</v>
+      </c>
+      <c r="BH23" s="46">
+        <v>33.07</v>
+      </c>
+      <c r="BI23" s="44">
+        <v>50</v>
+      </c>
       <c r="BJ23" s="46"/>
       <c r="BK23" s="44"/>
       <c r="BL23" s="46"/>
       <c r="BM23" s="44"/>
       <c r="BN23" s="29">
         <f t="shared" si="0"/>
-        <v>736.80499999999995</v>
+        <v>868.68200000000002</v>
       </c>
       <c r="BO23" s="30">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="BP23" s="215">
         <f t="shared" si="3"/>
-        <v>263.19500000000005</v>
+        <v>331.31799999999998</v>
       </c>
     </row>
     <row r="24" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7345,29 +7617,45 @@
       <c r="BA24" s="55">
         <v>21.635999999957676</v>
       </c>
-      <c r="BB24" s="144"/>
-      <c r="BC24" s="55"/>
-      <c r="BD24" s="144"/>
-      <c r="BE24" s="55"/>
-      <c r="BF24" s="144"/>
-      <c r="BG24" s="55"/>
-      <c r="BH24" s="144"/>
-      <c r="BI24" s="55"/>
+      <c r="BB24" s="144">
+        <v>28.755999999997584</v>
+      </c>
+      <c r="BC24" s="55">
+        <v>28.755999999997584</v>
+      </c>
+      <c r="BD24" s="144">
+        <v>9.7040000002721172</v>
+      </c>
+      <c r="BE24" s="55">
+        <v>9.7040000002721172</v>
+      </c>
+      <c r="BF24" s="144">
+        <v>8.7400000000952787</v>
+      </c>
+      <c r="BG24" s="55">
+        <v>8.7400000000952787</v>
+      </c>
+      <c r="BH24" s="144">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="55">
+        <v>18.203999999848747</v>
+      </c>
       <c r="BJ24" s="144"/>
       <c r="BK24" s="55"/>
       <c r="BL24" s="144"/>
       <c r="BM24" s="55"/>
       <c r="BN24" s="29">
         <f>SUM(L24,N24,P24,R24,T24,V24,X24,Z24,AB24,AD24,AH24,AJ24,AL24,AN24,AP24,AR24,AT24,AV24,AX24,AZ24,BB24,BD24,BF24,BH24,BJ24,BL24,)</f>
-        <v>345.17199999951572</v>
+        <v>392.3719999998807</v>
       </c>
       <c r="BO24" s="30">
         <f t="shared" si="1"/>
-        <v>355.37199999966379</v>
+        <v>420.77599999987751</v>
       </c>
       <c r="BP24" s="215">
         <f t="shared" si="3"/>
-        <v>10.200000000148066</v>
+        <v>28.403999999996813</v>
       </c>
     </row>
     <row r="25" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,29 +7814,45 @@
       <c r="BA25" s="44">
         <v>2.0033999999997936</v>
       </c>
-      <c r="BB25" s="92"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="92"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="92"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="92"/>
-      <c r="BI25" s="44"/>
+      <c r="BB25" s="92">
+        <v>24.460999999999999</v>
+      </c>
+      <c r="BC25" s="44">
+        <v>1.7854200000003311</v>
+      </c>
+      <c r="BD25" s="92">
+        <v>22.765000000000001</v>
+      </c>
+      <c r="BE25" s="44">
+        <v>2.0941200000001956</v>
+      </c>
+      <c r="BF25" s="92">
+        <v>22.765999999999998</v>
+      </c>
+      <c r="BG25" s="44">
+        <v>2.021039999999652</v>
+      </c>
+      <c r="BH25" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="44">
+        <v>1.3930799999999999</v>
+      </c>
       <c r="BJ25" s="92"/>
       <c r="BK25" s="44"/>
       <c r="BL25" s="92"/>
       <c r="BM25" s="44"/>
       <c r="BN25" s="29">
         <f t="shared" si="0"/>
-        <v>458.63900000000001</v>
+        <v>528.63099999999997</v>
       </c>
       <c r="BO25" s="30">
         <f t="shared" si="1"/>
-        <v>159.84763999987018</v>
+        <v>167.14129999987037</v>
       </c>
       <c r="BP25" s="215">
         <f t="shared" si="3"/>
-        <v>-298.79136000012983</v>
+        <v>-361.48970000012957</v>
       </c>
     </row>
     <row r="26" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7707,25 +8011,41 @@
       <c r="BA26" s="44">
         <v>9.5510000000000002</v>
       </c>
-      <c r="BB26" s="143"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="143"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="143"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="143"/>
-      <c r="BI26" s="44"/>
+      <c r="BB26" s="143">
+        <v>9.44</v>
+      </c>
+      <c r="BC26" s="44">
+        <v>9.44</v>
+      </c>
+      <c r="BD26" s="143">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="BE26" s="44">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="BF26" s="143">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="BG26" s="44">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="BH26" s="143">
+        <v>9.35</v>
+      </c>
+      <c r="BI26" s="44">
+        <v>9.35</v>
+      </c>
       <c r="BJ26" s="143"/>
       <c r="BK26" s="44"/>
       <c r="BL26" s="143"/>
       <c r="BM26" s="44"/>
       <c r="BN26" s="29">
         <f t="shared" si="0"/>
-        <v>187.42399999999998</v>
+        <v>225.10299999999998</v>
       </c>
       <c r="BO26" s="30">
         <f t="shared" si="1"/>
-        <v>187.42399999999998</v>
+        <v>225.10299999999998</v>
       </c>
       <c r="BP26" s="208">
         <f t="shared" si="3"/>
@@ -7888,29 +8208,45 @@
       <c r="BA27" s="196">
         <v>0.40000000000009095</v>
       </c>
-      <c r="BB27" s="46"/>
-      <c r="BC27" s="196"/>
-      <c r="BD27" s="46"/>
-      <c r="BE27" s="196"/>
-      <c r="BF27" s="46"/>
-      <c r="BG27" s="196"/>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="196"/>
+      <c r="BB27" s="46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="BC27" s="196">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="BD27" s="46">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="BE27" s="196">
+        <v>0.55999999999994543</v>
+      </c>
+      <c r="BF27" s="46">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="BG27" s="196">
+        <v>0.31999999999970896</v>
+      </c>
+      <c r="BH27" s="46">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="BI27" s="196">
+        <v>0.40000000000009095</v>
+      </c>
       <c r="BJ27" s="46"/>
       <c r="BK27" s="196"/>
       <c r="BL27" s="46"/>
       <c r="BM27" s="196"/>
       <c r="BN27" s="29">
         <f t="shared" si="0"/>
-        <v>13.313999999999998</v>
+        <v>15.975999999999999</v>
       </c>
       <c r="BO27" s="30">
         <f t="shared" si="1"/>
-        <v>10.240000000000236</v>
+        <v>12</v>
       </c>
       <c r="BP27" s="208">
         <f t="shared" si="3"/>
-        <v>-3.0739999999997618</v>
+        <v>-3.9759999999999991</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8069,29 +8405,45 @@
       <c r="BA28" s="287">
         <v>5.9</v>
       </c>
-      <c r="BB28" s="27"/>
-      <c r="BC28" s="287"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="287"/>
-      <c r="BF28" s="27"/>
-      <c r="BG28" s="287"/>
-      <c r="BH28" s="27"/>
-      <c r="BI28" s="287"/>
+      <c r="BB28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="BC28" s="287">
+        <v>5.8</v>
+      </c>
+      <c r="BD28" s="27">
+        <v>6.38</v>
+      </c>
+      <c r="BE28" s="287">
+        <v>5.8</v>
+      </c>
+      <c r="BF28" s="27">
+        <v>6.28</v>
+      </c>
+      <c r="BG28" s="287">
+        <v>5.8</v>
+      </c>
+      <c r="BH28" s="27">
+        <v>6.28</v>
+      </c>
+      <c r="BI28" s="287">
+        <v>5.8</v>
+      </c>
       <c r="BJ28" s="27"/>
       <c r="BK28" s="287"/>
       <c r="BL28" s="27"/>
       <c r="BM28" s="287"/>
       <c r="BN28" s="29">
         <f t="shared" si="0"/>
-        <v>132.15999999999997</v>
+        <v>157.47999999999996</v>
       </c>
       <c r="BO28" s="30">
         <f t="shared" si="1"/>
-        <v>125.00000000000004</v>
+        <v>148.20000000000007</v>
       </c>
       <c r="BP28" s="208">
         <f t="shared" si="3"/>
-        <v>-7.1599999999999255</v>
+        <v>-9.2799999999998875</v>
       </c>
     </row>
     <row r="29" spans="1:68" s="298" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8250,29 +8602,45 @@
       <c r="BA29" s="287">
         <v>2.7959999999911815</v>
       </c>
-      <c r="BB29" s="27"/>
-      <c r="BC29" s="287"/>
-      <c r="BD29" s="27"/>
-      <c r="BE29" s="287"/>
-      <c r="BF29" s="27"/>
-      <c r="BG29" s="287"/>
-      <c r="BH29" s="27"/>
-      <c r="BI29" s="287"/>
+      <c r="BB29" s="27">
+        <v>78.614999999999995</v>
+      </c>
+      <c r="BC29" s="287">
+        <v>82.295999999991182</v>
+      </c>
+      <c r="BD29" s="27">
+        <v>78.629000000000005</v>
+      </c>
+      <c r="BE29" s="287">
+        <v>77.136000000009517</v>
+      </c>
+      <c r="BF29" s="27">
+        <v>78.789000000000001</v>
+      </c>
+      <c r="BG29" s="287">
+        <v>80.004000000004453</v>
+      </c>
+      <c r="BH29" s="27">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="BI29" s="287">
+        <v>81.803999999989173</v>
+      </c>
       <c r="BJ29" s="27"/>
       <c r="BK29" s="287"/>
       <c r="BL29" s="27"/>
       <c r="BM29" s="287"/>
       <c r="BN29" s="29">
         <f t="shared" si="0"/>
-        <v>1385.9599999999998</v>
+        <v>1702.2259999999997</v>
       </c>
       <c r="BO29" s="30">
         <f t="shared" si="1"/>
-        <v>1378.6440000000075</v>
+        <v>1699.8840000000018</v>
       </c>
       <c r="BP29" s="286">
         <f t="shared" si="3"/>
-        <v>-7.3159999999923002</v>
+        <v>-2.3419999999978245</v>
       </c>
     </row>
     <row r="30" spans="1:68" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,14 +8799,30 @@
       <c r="BA30" s="196">
         <v>306.11700000002384</v>
       </c>
-      <c r="BB30" s="46"/>
-      <c r="BC30" s="196"/>
-      <c r="BD30" s="46"/>
-      <c r="BE30" s="196"/>
-      <c r="BF30" s="46"/>
-      <c r="BG30" s="196"/>
-      <c r="BH30" s="46"/>
-      <c r="BI30" s="196"/>
+      <c r="BB30" s="46">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="196">
+        <v>305.38200000002689</v>
+      </c>
+      <c r="BD30" s="46">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="196">
+        <v>300.55199999995966</v>
+      </c>
+      <c r="BF30" s="46">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="196">
+        <v>304.85699999999633</v>
+      </c>
+      <c r="BH30" s="46">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="196">
+        <v>304.07999999999083</v>
+      </c>
       <c r="BJ30" s="46"/>
       <c r="BK30" s="196"/>
       <c r="BL30" s="46"/>
@@ -8603,25 +8987,41 @@
       <c r="BA31" s="180">
         <v>2.492</v>
       </c>
-      <c r="BB31" s="179"/>
-      <c r="BC31" s="180"/>
-      <c r="BD31" s="179"/>
-      <c r="BE31" s="180"/>
-      <c r="BF31" s="179"/>
-      <c r="BG31" s="180"/>
-      <c r="BH31" s="179"/>
-      <c r="BI31" s="180"/>
+      <c r="BB31" s="179">
+        <v>2.363</v>
+      </c>
+      <c r="BC31" s="180">
+        <v>2.363</v>
+      </c>
+      <c r="BD31" s="179">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="BE31" s="180">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="BF31" s="179">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="BG31" s="180">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="BH31" s="179">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="BI31" s="180">
+        <v>2.4380000000000002</v>
+      </c>
       <c r="BJ31" s="179"/>
       <c r="BK31" s="180"/>
       <c r="BL31" s="179"/>
       <c r="BM31" s="180"/>
       <c r="BN31" s="29">
         <f t="shared" si="0"/>
-        <v>52.043999999999997</v>
+        <v>61.679000000000002</v>
       </c>
       <c r="BO31" s="30">
         <f t="shared" si="1"/>
-        <v>52.043999999999997</v>
+        <v>61.679000000000002</v>
       </c>
       <c r="BP31" s="286">
         <f t="shared" si="3"/>
@@ -8836,35 +9236,35 @@
       </c>
       <c r="BB32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1395.7699999999977</v>
       </c>
       <c r="BC32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1659.8011099999487</v>
       </c>
       <c r="BD32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>926.34200000027204</v>
       </c>
       <c r="BE32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1582.8136300002184</v>
       </c>
       <c r="BF32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>861.75700000009533</v>
       </c>
       <c r="BG32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1568.0489900001048</v>
       </c>
       <c r="BH32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1166.7909999999997</v>
       </c>
       <c r="BI32" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1557.2869399996748</v>
       </c>
       <c r="BJ32" s="115">
         <f t="shared" si="5"/>
@@ -8884,15 +9284,15 @@
       </c>
       <c r="BN32" s="263">
         <f>SUM(BN7:BN31)</f>
-        <v>22542.715999999509</v>
+        <v>26893.375999999877</v>
       </c>
       <c r="BO32" s="119">
         <f>SUM(BO7:BO31)</f>
-        <v>24147.650729999561</v>
+        <v>29300.730399999538</v>
       </c>
       <c r="BP32" s="120">
         <f>BO32-BN32</f>
-        <v>1604.9347300000518</v>
+        <v>2407.3543999996618</v>
       </c>
     </row>
     <row r="33" spans="1:122" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9001,13 +9401,21 @@
         <v>3973.0729999999999</v>
       </c>
       <c r="BA33" s="311"/>
-      <c r="BB33" s="327"/>
+      <c r="BB33" s="327">
+        <v>4187.6796800000948</v>
+      </c>
       <c r="BC33" s="311"/>
-      <c r="BD33" s="327"/>
+      <c r="BD33" s="327">
+        <v>4166.4949999999999</v>
+      </c>
       <c r="BE33" s="311"/>
-      <c r="BF33" s="327"/>
+      <c r="BF33" s="327">
+        <v>4054.2269999999999</v>
+      </c>
       <c r="BG33" s="311"/>
-      <c r="BH33" s="327"/>
+      <c r="BH33" s="327">
+        <v>3836.3853200000131</v>
+      </c>
       <c r="BI33" s="311"/>
       <c r="BJ33" s="327"/>
       <c r="BK33" s="311"/>
@@ -9122,13 +9530,21 @@
         <v>1970.7</v>
       </c>
       <c r="BA34" s="323"/>
-      <c r="BB34" s="322"/>
+      <c r="BB34" s="322">
+        <v>2173.4430000000002</v>
+      </c>
       <c r="BC34" s="323"/>
-      <c r="BD34" s="322"/>
+      <c r="BD34" s="322">
+        <v>2181.538</v>
+      </c>
       <c r="BE34" s="323"/>
-      <c r="BF34" s="322"/>
+      <c r="BF34" s="322">
+        <v>2133.9810000000002</v>
+      </c>
       <c r="BG34" s="323"/>
-      <c r="BH34" s="322"/>
+      <c r="BH34" s="322">
+        <v>2137.076</v>
+      </c>
       <c r="BI34" s="323"/>
       <c r="BJ34" s="322"/>
       <c r="BK34" s="323"/>
@@ -9243,13 +9659,21 @@
         <v>358.88200000000001</v>
       </c>
       <c r="BA35" s="305"/>
-      <c r="BB35" s="304"/>
+      <c r="BB35" s="304">
+        <v>347.28</v>
+      </c>
       <c r="BC35" s="305"/>
-      <c r="BD35" s="304"/>
+      <c r="BD35" s="304">
+        <v>352.43700000000001</v>
+      </c>
       <c r="BE35" s="305"/>
-      <c r="BF35" s="304"/>
+      <c r="BF35" s="304">
+        <v>358.19</v>
+      </c>
       <c r="BG35" s="305"/>
-      <c r="BH35" s="304"/>
+      <c r="BH35" s="304">
+        <v>370.86500000000001</v>
+      </c>
       <c r="BI35" s="305"/>
       <c r="BJ35" s="304"/>
       <c r="BK35" s="305"/>
@@ -9391,22 +9815,22 @@
       <c r="BA36" s="309"/>
       <c r="BB36" s="308">
         <f t="shared" ref="BB36" si="23">BB32+BB34+BB35</f>
-        <v>0</v>
+        <v>3916.4929999999977</v>
       </c>
       <c r="BC36" s="309"/>
       <c r="BD36" s="308">
         <f t="shared" ref="BD36" si="24">BD32+BD34+BD35</f>
-        <v>0</v>
+        <v>3460.3170000002719</v>
       </c>
       <c r="BE36" s="309"/>
       <c r="BF36" s="308">
         <f t="shared" ref="BF36" si="25">BF32+BF34+BF35</f>
-        <v>0</v>
+        <v>3353.9280000000958</v>
       </c>
       <c r="BG36" s="309"/>
       <c r="BH36" s="308">
         <f t="shared" ref="BH36" si="26">BH32+BH34+BH35</f>
-        <v>0</v>
+        <v>3674.732</v>
       </c>
       <c r="BI36" s="309"/>
       <c r="BJ36" s="308">
@@ -9555,22 +9979,22 @@
       <c r="BA37" s="307"/>
       <c r="BB37" s="306">
         <f t="shared" ref="BB37" si="53">BB33-BB36</f>
-        <v>0</v>
+        <v>271.18668000009711</v>
       </c>
       <c r="BC37" s="307"/>
       <c r="BD37" s="306">
         <f t="shared" ref="BD37" si="54">BD33-BD36</f>
-        <v>0</v>
+        <v>706.17799999972794</v>
       </c>
       <c r="BE37" s="307"/>
       <c r="BF37" s="306">
         <f t="shared" ref="BF37" si="55">BF33-BF36</f>
-        <v>0</v>
+        <v>700.29899999990403</v>
       </c>
       <c r="BG37" s="307"/>
       <c r="BH37" s="306">
         <f t="shared" ref="BH37" si="56">BH33-BH36</f>
-        <v>0</v>
+        <v>161.65332000001308</v>
       </c>
       <c r="BI37" s="307"/>
       <c r="BJ37" s="306">
@@ -9719,22 +10143,22 @@
       <c r="BA38" s="311"/>
       <c r="BB38" s="310">
         <f t="shared" ref="BB38" si="84">BB33-BC32-BB34-BB35</f>
-        <v>0</v>
+        <v>7.1555700001460991</v>
       </c>
       <c r="BC38" s="311"/>
       <c r="BD38" s="310">
         <f t="shared" ref="BD38" si="85">BD33-BE32-BD34-BD35</f>
-        <v>0</v>
+        <v>49.706369999781487</v>
       </c>
       <c r="BE38" s="311"/>
       <c r="BF38" s="310">
         <f t="shared" ref="BF38" si="86">BF33-BG32-BF34-BF35</f>
-        <v>0</v>
+        <v>-5.9929900001051806</v>
       </c>
       <c r="BG38" s="311"/>
       <c r="BH38" s="310">
         <f t="shared" ref="BH38" si="87">BH33-BI32-BH34-BH35</f>
-        <v>0</v>
+        <v>-228.84261999966179</v>
       </c>
       <c r="BI38" s="311"/>
       <c r="BJ38" s="310">
@@ -9750,7 +10174,7 @@
       <c r="BN38" s="1"/>
       <c r="BO38" s="212">
         <f>BN33-BO32-BN35-BN34</f>
-        <v>-24147.650729999561</v>
+        <v>-29300.730399999538</v>
       </c>
     </row>
     <row r="39" spans="1:122" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,13 +10284,21 @@
         <v>45224</v>
       </c>
       <c r="BA40" s="303"/>
-      <c r="BB40" s="302"/>
+      <c r="BB40" s="302">
+        <v>45225</v>
+      </c>
       <c r="BC40" s="303"/>
-      <c r="BD40" s="302"/>
+      <c r="BD40" s="302">
+        <v>45226</v>
+      </c>
       <c r="BE40" s="303"/>
-      <c r="BF40" s="302"/>
+      <c r="BF40" s="302">
+        <v>45227</v>
+      </c>
       <c r="BG40" s="303"/>
-      <c r="BH40" s="302"/>
+      <c r="BH40" s="302">
+        <v>45228</v>
+      </c>
       <c r="BI40" s="303"/>
       <c r="BJ40" s="302"/>
       <c r="BK40" s="303"/>
@@ -9977,13 +10409,21 @@
         <v>15784.442999999999</v>
       </c>
       <c r="BA41" s="299"/>
-      <c r="BB41" s="299"/>
+      <c r="BB41" s="299">
+        <v>15784.629000000001</v>
+      </c>
       <c r="BC41" s="299"/>
-      <c r="BD41" s="299"/>
+      <c r="BD41" s="299">
+        <v>15784.982</v>
+      </c>
       <c r="BE41" s="299"/>
-      <c r="BF41" s="299"/>
+      <c r="BF41" s="299">
+        <v>15785.082</v>
+      </c>
       <c r="BG41" s="299"/>
-      <c r="BH41" s="299"/>
+      <c r="BH41" s="299">
+        <v>15785.619000000001</v>
+      </c>
       <c r="BI41" s="299"/>
       <c r="BJ41" s="299"/>
       <c r="BK41" s="299"/>
@@ -10094,13 +10534,21 @@
         <v>801.41</v>
       </c>
       <c r="BA42" s="299"/>
-      <c r="BB42" s="299"/>
+      <c r="BB42" s="299">
+        <v>802.72299999999996</v>
+      </c>
       <c r="BC42" s="299"/>
-      <c r="BD42" s="299"/>
+      <c r="BD42" s="299">
+        <v>802.79399999999998</v>
+      </c>
       <c r="BE42" s="299"/>
-      <c r="BF42" s="299"/>
+      <c r="BF42" s="299">
+        <v>803.17200000000003</v>
+      </c>
       <c r="BG42" s="299"/>
-      <c r="BH42" s="299"/>
+      <c r="BH42" s="299">
+        <v>803.37099999999998</v>
+      </c>
       <c r="BI42" s="299"/>
       <c r="BJ42" s="299"/>
       <c r="BK42" s="299"/>
@@ -10211,13 +10659,21 @@
         <v>17.559999999999491</v>
       </c>
       <c r="BA43" s="299"/>
-      <c r="BB43" s="299"/>
+      <c r="BB43" s="299">
+        <v>17.440000000000509</v>
+      </c>
       <c r="BC43" s="299"/>
-      <c r="BD43" s="299"/>
+      <c r="BD43" s="299">
+        <v>16.920000000000073</v>
+      </c>
       <c r="BE43" s="299"/>
-      <c r="BF43" s="299"/>
+      <c r="BF43" s="299">
+        <v>17.880000000000109</v>
+      </c>
       <c r="BG43" s="299"/>
-      <c r="BH43" s="299"/>
+      <c r="BH43" s="299">
+        <v>17.599999999999454</v>
+      </c>
       <c r="BI43" s="299"/>
       <c r="BJ43" s="299"/>
       <c r="BK43" s="299"/>
@@ -10328,13 +10784,21 @@
         <v>175</v>
       </c>
       <c r="BA44" s="299"/>
-      <c r="BB44" s="299"/>
+      <c r="BB44" s="299">
+        <v>189</v>
+      </c>
       <c r="BC44" s="299"/>
-      <c r="BD44" s="299"/>
+      <c r="BD44" s="299">
+        <v>179.19999999998981</v>
+      </c>
       <c r="BE44" s="299"/>
-      <c r="BF44" s="299"/>
+      <c r="BF44" s="299">
+        <v>174.30000000001019</v>
+      </c>
       <c r="BG44" s="299"/>
-      <c r="BH44" s="299"/>
+      <c r="BH44" s="299">
+        <v>166.60000000002037</v>
+      </c>
       <c r="BI44" s="299"/>
       <c r="BJ44" s="299"/>
       <c r="BK44" s="299"/>
@@ -10445,13 +10909,21 @@
         <v>28.700000000002547</v>
       </c>
       <c r="BA45" s="299"/>
-      <c r="BB45" s="299"/>
+      <c r="BB45" s="299">
+        <v>30.065000000000509</v>
+      </c>
       <c r="BC45" s="299"/>
-      <c r="BD45" s="299"/>
+      <c r="BD45" s="299">
+        <v>33.390000000003056</v>
+      </c>
       <c r="BE45" s="299"/>
-      <c r="BF45" s="299"/>
+      <c r="BF45" s="299">
+        <v>33.669999999996435</v>
+      </c>
       <c r="BG45" s="299"/>
-      <c r="BH45" s="299"/>
+      <c r="BH45" s="299">
+        <v>34.580000000003565</v>
+      </c>
       <c r="BI45" s="299"/>
       <c r="BJ45" s="299"/>
       <c r="BK45" s="299"/>
@@ -10562,13 +11034,21 @@
         <v>17203.955999999998</v>
       </c>
       <c r="BA46" s="299"/>
-      <c r="BB46" s="299"/>
+      <c r="BB46" s="299">
+        <v>17208.481</v>
+      </c>
       <c r="BC46" s="299"/>
-      <c r="BD46" s="299"/>
+      <c r="BD46" s="299">
+        <v>17213.116000000002</v>
+      </c>
       <c r="BE46" s="299"/>
-      <c r="BF46" s="299"/>
+      <c r="BF46" s="299">
+        <v>17217.484</v>
+      </c>
       <c r="BG46" s="299"/>
-      <c r="BH46" s="299"/>
+      <c r="BH46" s="299">
+        <v>17221.864000000001</v>
+      </c>
       <c r="BI46" s="299"/>
       <c r="BJ46" s="299"/>
       <c r="BK46" s="299"/>
@@ -10679,13 +11159,21 @@
         <v>12.08</v>
       </c>
       <c r="BA47" s="299"/>
-      <c r="BB47" s="299"/>
+      <c r="BB47" s="299">
+        <v>12.2</v>
+      </c>
       <c r="BC47" s="299"/>
-      <c r="BD47" s="299"/>
+      <c r="BD47" s="299">
+        <v>12.27</v>
+      </c>
       <c r="BE47" s="299"/>
-      <c r="BF47" s="299"/>
+      <c r="BF47" s="299">
+        <v>12.37</v>
+      </c>
       <c r="BG47" s="299"/>
-      <c r="BH47" s="299"/>
+      <c r="BH47" s="299">
+        <v>12.42</v>
+      </c>
       <c r="BI47" s="299"/>
       <c r="BJ47" s="299"/>
       <c r="BK47" s="299"/>
@@ -10798,13 +11286,21 @@
         <v>68.98</v>
       </c>
       <c r="BA48" s="299"/>
-      <c r="BB48" s="299"/>
+      <c r="BB48" s="299">
+        <v>68.98</v>
+      </c>
       <c r="BC48" s="299"/>
-      <c r="BD48" s="299"/>
+      <c r="BD48" s="299">
+        <v>69.180000000000007</v>
+      </c>
       <c r="BE48" s="299"/>
-      <c r="BF48" s="299"/>
+      <c r="BF48" s="299">
+        <v>69.180000000000007</v>
+      </c>
       <c r="BG48" s="299"/>
-      <c r="BH48" s="299"/>
+      <c r="BH48" s="299">
+        <v>69.180000000000007</v>
+      </c>
       <c r="BI48" s="299"/>
       <c r="BJ48" s="299"/>
       <c r="BK48" s="299"/>
@@ -10972,13 +11468,21 @@
         <v>576.31700000000001</v>
       </c>
       <c r="BA49" s="299"/>
-      <c r="BB49" s="299"/>
+      <c r="BB49" s="299">
+        <v>576.58500000000004</v>
+      </c>
       <c r="BC49" s="299"/>
-      <c r="BD49" s="299"/>
+      <c r="BD49" s="299">
+        <v>576.73599999999999</v>
+      </c>
       <c r="BE49" s="299"/>
-      <c r="BF49" s="299"/>
+      <c r="BF49" s="299">
+        <v>574.04999999999995</v>
+      </c>
       <c r="BG49" s="299"/>
-      <c r="BH49" s="299"/>
+      <c r="BH49" s="299">
+        <v>575.87300000000005</v>
+      </c>
       <c r="BI49" s="299"/>
       <c r="BJ49" s="299"/>
       <c r="BK49" s="299"/>
@@ -11146,13 +11650,21 @@
         <v>87.209000000000003</v>
       </c>
       <c r="BA50" s="299"/>
-      <c r="BB50" s="299"/>
+      <c r="BB50" s="299">
+        <v>88.93</v>
+      </c>
       <c r="BC50" s="299"/>
-      <c r="BD50" s="299"/>
+      <c r="BD50" s="299">
+        <v>88.031000000000006</v>
+      </c>
       <c r="BE50" s="299"/>
-      <c r="BF50" s="299"/>
+      <c r="BF50" s="299">
+        <v>88.959000000000003</v>
+      </c>
       <c r="BG50" s="299"/>
-      <c r="BH50" s="299"/>
+      <c r="BH50" s="299">
+        <v>92.692999999999998</v>
+      </c>
       <c r="BI50" s="299"/>
       <c r="BJ50" s="299"/>
       <c r="BK50" s="299"/>
@@ -11320,13 +11832,21 @@
         <v>171.33599999997023</v>
       </c>
       <c r="BA51" s="299"/>
-      <c r="BB51" s="299"/>
+      <c r="BB51" s="299">
+        <v>456.19200000001729</v>
+      </c>
       <c r="BC51" s="299"/>
-      <c r="BD51" s="299"/>
+      <c r="BD51" s="299">
+        <v>544.10400000003938</v>
+      </c>
       <c r="BE51" s="299"/>
-      <c r="BF51" s="299"/>
+      <c r="BF51" s="299">
+        <v>513.08399999996254</v>
+      </c>
       <c r="BG51" s="299"/>
-      <c r="BH51" s="299"/>
+      <c r="BH51" s="299">
+        <v>517.4400000000096</v>
+      </c>
       <c r="BI51" s="299"/>
       <c r="BJ51" s="299"/>
       <c r="BK51" s="299"/>
@@ -11494,13 +12014,21 @@
         <v>529.88199999999995</v>
       </c>
       <c r="BA52" s="299"/>
-      <c r="BB52" s="299"/>
+      <c r="BB52" s="299">
+        <v>494.29799999998806</v>
+      </c>
       <c r="BC52" s="299"/>
-      <c r="BD52" s="299"/>
+      <c r="BD52" s="299">
+        <v>854.03300000000002</v>
+      </c>
       <c r="BE52" s="299"/>
-      <c r="BF52" s="299"/>
+      <c r="BF52" s="299">
+        <v>1010.8809999999633</v>
+      </c>
       <c r="BG52" s="299"/>
-      <c r="BH52" s="299"/>
+      <c r="BH52" s="299">
+        <v>1010.8809999999633</v>
+      </c>
       <c r="BI52" s="299"/>
       <c r="BJ52" s="299"/>
       <c r="BK52" s="299"/>
@@ -11668,13 +12196,21 @@
         <v>22.103999999999267</v>
       </c>
       <c r="BA53" s="299"/>
-      <c r="BB53" s="299"/>
+      <c r="BB53" s="299">
+        <v>19.847000000001298</v>
+      </c>
       <c r="BC53" s="299"/>
-      <c r="BD53" s="299"/>
+      <c r="BD53" s="299">
+        <v>23.026000000000021</v>
+      </c>
       <c r="BE53" s="299"/>
-      <c r="BF53" s="299"/>
+      <c r="BF53" s="299">
+        <v>25.592999999998483</v>
+      </c>
       <c r="BG53" s="299"/>
-      <c r="BH53" s="299"/>
+      <c r="BH53" s="299">
+        <v>26.55</v>
+      </c>
       <c r="BI53" s="299"/>
       <c r="BJ53" s="299"/>
       <c r="BK53" s="299"/>

--- a/DB/временно/TATEK.xlsx
+++ b/DB/временно/TATEK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5E5CEA-1FDC-47ED-9787-CC2C299E39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE70A2BE-3568-4BF9-BC08-9879361B3034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2866,11 +2866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:I3"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,10 +3381,18 @@
       <c r="I5" s="32">
         <v>49.399999999866509</v>
       </c>
-      <c r="J5" s="191"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="191">
+        <v>-10.346000000003528</v>
+      </c>
+      <c r="K5" s="119">
+        <v>-10.346000000003528</v>
+      </c>
+      <c r="L5" s="115">
+        <v>48.566000000000003</v>
+      </c>
+      <c r="M5" s="40">
+        <v>48.57</v>
+      </c>
       <c r="N5" s="69"/>
       <c r="O5" s="114"/>
       <c r="P5" s="68"/>
@@ -3439,15 +3447,15 @@
       <c r="BM5" s="33"/>
       <c r="BN5" s="23">
         <f t="shared" ref="BN5" si="0">SUM(L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AH5,AJ5,AL5,AN5,AP5,AR5,AT5,AV5,AX5,AZ5,BB5,BD5,BF5,BH5,BJ5,BL5,D5,F5,H5,J5,AF5)</f>
-        <v>62.879999999866513</v>
+        <v>101.09999999986299</v>
       </c>
       <c r="BO5" s="24">
         <f t="shared" ref="BO5" si="1">SUM(AE5,AC5,AA5,Y5,W5,U5,S5,Q5,O5,M5,AI5,AK5,AM5,AO5,AQ5,AS5,AU5,AW5,AY5,BA5,BC5,BE5,BG5,BI5,BK5,BM5,AG5,K5,I5,G5,E5)</f>
-        <v>62.879999999866513</v>
+        <v>101.10399999986298</v>
       </c>
       <c r="BP5" s="128">
         <f t="shared" ref="BP5" si="2">BO5-BN5</f>
-        <v>0</v>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,10 +3482,18 @@
       <c r="I6" s="27">
         <v>56.894949999999163</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="28"/>
+      <c r="J6" s="26">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="K6" s="28">
+        <v>56.270900000001014</v>
+      </c>
+      <c r="L6" s="166">
+        <v>12.708</v>
+      </c>
+      <c r="M6" s="28">
+        <v>46.109700000000124</v>
+      </c>
       <c r="N6" s="30"/>
       <c r="O6" s="21"/>
       <c r="P6" s="30"/>
@@ -3532,15 +3548,15 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="23">
         <f>SUM(L6,N6,P6,R6,T6,V6,X6,Z6,AB6,AD6,AH6,AJ6,AL6,AN6,AP6,AR6,AT6,AV6,AX6,AZ6,BB6,BD6,BF6,BH6,BJ6,BL6,D6,F6,H6,J6,AF6)</f>
-        <v>38.096000000000004</v>
+        <v>63.45</v>
       </c>
       <c r="BO6" s="24">
         <f>SUM(AE6,AC6,AA6,Y6,W6,U6,S6,Q6,O6,M6,AI6,AK6,AM6,AO6,AQ6,AS6,AU6,AW6,AY6,BA6,BC6,BE6,BG6,BI6,BK6,BM6,AG6,K6,I6,G6,E6)</f>
-        <v>139.89044999999894</v>
+        <v>242.27105000000006</v>
       </c>
       <c r="BP6" s="128">
         <f>BO6-BN6</f>
-        <v>101.79444999999893</v>
+        <v>178.82105000000007</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,10 +3583,18 @@
       <c r="I7" s="27">
         <v>65.988</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="28"/>
+      <c r="J7" s="26">
+        <v>37.22</v>
+      </c>
+      <c r="K7" s="28">
+        <v>65.585999999999999</v>
+      </c>
+      <c r="L7" s="30">
+        <v>37.22</v>
+      </c>
+      <c r="M7" s="28">
+        <v>65.727000000000004</v>
+      </c>
       <c r="N7" s="30"/>
       <c r="O7" s="21"/>
       <c r="P7" s="30"/>
@@ -3624,16 +3648,16 @@
       <c r="BL7" s="30"/>
       <c r="BM7" s="21"/>
       <c r="BN7" s="23">
-        <f t="shared" ref="BN7:BN19" si="3">SUM(L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7,AX7,AZ7,BB7,BD7,BF7,BH7,BJ7,BL7,D7,F7,H7,J7,AF7)</f>
-        <v>111.66</v>
+        <f t="shared" ref="BN7:BN20" si="3">SUM(L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7,AX7,AZ7,BB7,BD7,BF7,BH7,BJ7,BL7,D7,F7,H7,J7,AF7)</f>
+        <v>186.1</v>
       </c>
       <c r="BO7" s="24">
         <f t="shared" ref="BO7:BO19" si="4">SUM(AE7,AC7,AA7,Y7,W7,U7,S7,Q7,O7,M7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7,AW7,AY7,BA7,BC7,BE7,BG7,BI7,BK7,BM7,AG7,K7,I7,G7,E7)</f>
-        <v>199.06200000000001</v>
+        <v>330.375</v>
       </c>
       <c r="BP7" s="128">
         <f t="shared" ref="BP7:BP19" si="5">BO7-BN7</f>
-        <v>87.402000000000015</v>
+        <v>144.27500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,10 +3684,18 @@
       <c r="I8" s="27">
         <v>134.68700000002229</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="28"/>
+      <c r="J8" s="26">
+        <v>103.2</v>
+      </c>
+      <c r="K8" s="28">
+        <v>116.16359999996855</v>
+      </c>
+      <c r="L8" s="30">
+        <v>100.8</v>
+      </c>
+      <c r="M8" s="28">
+        <v>130.23640000003829</v>
+      </c>
       <c r="N8" s="30"/>
       <c r="O8" s="28"/>
       <c r="P8" s="30"/>
@@ -3718,15 +3750,15 @@
       <c r="BM8" s="21"/>
       <c r="BN8" s="23">
         <f t="shared" si="3"/>
-        <v>307.2</v>
+        <v>511.2</v>
       </c>
       <c r="BO8" s="24">
         <f t="shared" si="4"/>
-        <v>399.74340000000592</v>
+        <v>646.14340000001289</v>
       </c>
       <c r="BP8" s="128">
         <f t="shared" si="5"/>
-        <v>92.543400000005931</v>
+        <v>134.9434000000129</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,10 +3785,18 @@
       <c r="I9" s="27">
         <v>95.696000000019922</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="28"/>
+      <c r="J9" s="26">
+        <v>96</v>
+      </c>
+      <c r="K9" s="28">
+        <v>72.375999999983833</v>
+      </c>
+      <c r="L9" s="30">
+        <v>84</v>
+      </c>
+      <c r="M9" s="28">
+        <v>71.656000000017229</v>
+      </c>
       <c r="N9" s="30"/>
       <c r="O9" s="28"/>
       <c r="P9" s="30"/>
@@ -3811,15 +3851,15 @@
       <c r="BM9" s="28"/>
       <c r="BN9" s="23">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>468</v>
       </c>
       <c r="BO9" s="24">
         <f t="shared" si="4"/>
-        <v>251.41400000000249</v>
+        <v>395.44600000000355</v>
       </c>
       <c r="BP9" s="128">
         <f t="shared" si="5"/>
-        <v>-36.585999999997512</v>
+        <v>-72.553999999996449</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,10 +3886,18 @@
       <c r="I10" s="27">
         <v>39.261199999999008</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="28"/>
+      <c r="J10" s="26">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="K10" s="28">
+        <v>38.913600000002226</v>
+      </c>
+      <c r="L10" s="30">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="M10" s="28">
+        <v>36.266999999999278</v>
+      </c>
       <c r="N10" s="30"/>
       <c r="O10" s="28"/>
       <c r="P10" s="30"/>
@@ -3904,15 +3952,15 @@
       <c r="BM10" s="28"/>
       <c r="BN10" s="23">
         <f t="shared" si="3"/>
-        <v>100.32</v>
+        <v>167.04</v>
       </c>
       <c r="BO10" s="24">
         <f t="shared" si="4"/>
-        <v>108.05080000000308</v>
+        <v>183.23140000000458</v>
       </c>
       <c r="BP10" s="128">
         <f t="shared" si="5"/>
-        <v>7.7308000000030859</v>
+        <v>16.191400000004592</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,10 +3987,18 @@
       <c r="I11" s="27">
         <v>355.80600000000504</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="38"/>
+      <c r="J11" s="72">
+        <v>453</v>
+      </c>
+      <c r="K11" s="35">
+        <v>440.68200000000138</v>
+      </c>
+      <c r="L11" s="31">
+        <v>428</v>
+      </c>
+      <c r="M11" s="38">
+        <v>435.599999999994</v>
+      </c>
       <c r="N11" s="30"/>
       <c r="O11" s="28"/>
       <c r="P11" s="76"/>
@@ -3997,15 +4053,15 @@
       <c r="BM11" s="28"/>
       <c r="BN11" s="23">
         <f t="shared" si="3"/>
-        <v>1321</v>
+        <v>2202</v>
       </c>
       <c r="BO11" s="24">
         <f t="shared" si="4"/>
-        <v>1086.0300000000027</v>
+        <v>1962.3119999999981</v>
       </c>
       <c r="BP11" s="128">
         <f t="shared" si="5"/>
-        <v>-234.9699999999973</v>
+        <v>-239.68800000000192</v>
       </c>
     </row>
     <row r="12" spans="1:68" s="205" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4032,10 +4088,18 @@
       <c r="I12" s="142">
         <v>91.440000000009604</v>
       </c>
-      <c r="J12" s="195"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="194"/>
+      <c r="J12" s="195">
+        <v>82.57</v>
+      </c>
+      <c r="K12" s="194">
+        <v>90.083999999995285</v>
+      </c>
+      <c r="L12" s="166">
+        <v>82.57</v>
+      </c>
+      <c r="M12" s="194">
+        <v>95.987999999997555</v>
+      </c>
       <c r="N12" s="196"/>
       <c r="O12" s="194"/>
       <c r="P12" s="165"/>
@@ -4090,15 +4154,15 @@
       <c r="BM12" s="194"/>
       <c r="BN12" s="23">
         <f t="shared" si="3"/>
-        <v>251.21999999999997</v>
+        <v>416.35999999999996</v>
       </c>
       <c r="BO12" s="24">
         <f t="shared" si="4"/>
-        <v>257.78399999999965</v>
+        <v>443.85599999999249</v>
       </c>
       <c r="BP12" s="128">
         <f t="shared" si="5"/>
-        <v>6.5639999999996803</v>
+        <v>27.495999999992534</v>
       </c>
     </row>
     <row r="13" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4125,10 +4189,18 @@
       <c r="I13" s="146">
         <v>0</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="111"/>
+      <c r="J13" s="48">
+        <v>0</v>
+      </c>
+      <c r="K13" s="111">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="111">
+        <v>0</v>
+      </c>
       <c r="N13" s="49"/>
       <c r="O13" s="111"/>
       <c r="P13" s="49"/>
@@ -4218,10 +4290,18 @@
       <c r="I14" s="146">
         <v>19.399999999999999</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="111"/>
+      <c r="J14" s="48">
+        <v>20.34</v>
+      </c>
+      <c r="K14" s="111">
+        <v>20.34</v>
+      </c>
+      <c r="L14" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="M14" s="111">
+        <v>6.2</v>
+      </c>
       <c r="N14" s="49"/>
       <c r="O14" s="111"/>
       <c r="P14" s="49"/>
@@ -4302,10 +4382,18 @@
       <c r="I15" s="142">
         <v>0</v>
       </c>
-      <c r="J15" s="195"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="194"/>
+      <c r="J15" s="195">
+        <v>48</v>
+      </c>
+      <c r="K15" s="194">
+        <v>48</v>
+      </c>
+      <c r="L15" s="166">
+        <v>48</v>
+      </c>
+      <c r="M15" s="194">
+        <v>48</v>
+      </c>
       <c r="N15" s="196"/>
       <c r="O15" s="194"/>
       <c r="P15" s="74"/>
@@ -4386,10 +4474,18 @@
       <c r="I16" s="142">
         <v>19.399999999999999</v>
       </c>
-      <c r="J16" s="195"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="194"/>
+      <c r="J16" s="195">
+        <v>20.34</v>
+      </c>
+      <c r="K16" s="194">
+        <v>20.34</v>
+      </c>
+      <c r="L16" s="166">
+        <v>16</v>
+      </c>
+      <c r="M16" s="194">
+        <v>16</v>
+      </c>
       <c r="N16" s="196"/>
       <c r="O16" s="194"/>
       <c r="P16" s="196"/>
@@ -4444,15 +4540,15 @@
       <c r="BM16" s="194"/>
       <c r="BN16" s="23">
         <f t="shared" ref="BN16" si="6">SUM(L16,N16,P16,R16,T16,V16,X16,Z16,AB16,AD16,AH16,AJ16,AL16,AN16,AP16,AR16,AT16,AV16,AX16,AZ16,BB16,BD16,BF16,BH16,BJ16,BL16,D16,F16,H16,J16,AF16)</f>
-        <v>58.199999999999996</v>
+        <v>94.539999999999992</v>
       </c>
       <c r="BO16" s="24">
         <f t="shared" ref="BO16" si="7">SUM(AE16,AC16,AA16,Y16,W16,U16,S16,Q16,O16,M16,AI16,AK16,AM16,AO16,AQ16,AS16,AU16,AW16,AY16,BA16,BC16,BE16,BG16,BI16,BK16,BM16,AG16,K16,I16,G16,E16)</f>
-        <v>92.86</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="BP16" s="128">
         <f t="shared" ref="BP16" si="8">BO16-BN16</f>
-        <v>34.660000000000004</v>
+        <v>34.659999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,13 +4572,21 @@
       <c r="H17" s="29">
         <v>14.77</v>
       </c>
-      <c r="I17" s="27">
-        <v>46.662000000142143</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28"/>
+      <c r="I17" s="235">
+        <v>14.087</v>
+      </c>
+      <c r="J17" s="26">
+        <v>16.5</v>
+      </c>
+      <c r="K17" s="28">
+        <v>47.453999999943335</v>
+      </c>
+      <c r="L17" s="31">
+        <v>16.39</v>
+      </c>
+      <c r="M17" s="28">
+        <v>44.681999999978871</v>
+      </c>
       <c r="N17" s="30"/>
       <c r="O17" s="28"/>
       <c r="P17" s="49"/>
@@ -4537,15 +4641,15 @@
       <c r="BM17" s="28"/>
       <c r="BN17" s="23">
         <f t="shared" ref="BN17" si="9">SUM(L17,N17,P17,R17,T17,V17,X17,Z17,AB17,AD17,AH17,AJ17,AL17,AN17,AP17,AR17,AT17,AV17,AX17,AZ17,BB17,BD17,BF17,BH17,BJ17,BL17,D17,F17,H17,J17,AF17)</f>
-        <v>41.86</v>
+        <v>74.75</v>
       </c>
       <c r="BO17" s="24">
         <f t="shared" ref="BO17" si="10">SUM(AE17,AC17,AA17,Y17,W17,U17,S17,Q17,O17,M17,AI17,AK17,AM17,AO17,AQ17,AS17,AU17,AW17,AY17,BA17,BC17,BE17,BG17,BI17,BK17,BM17,AG17,K17,I17,G17,E17)</f>
-        <v>141.96600000010949</v>
+        <v>201.52699999988954</v>
       </c>
       <c r="BP17" s="128">
         <f t="shared" ref="BP17" si="11">BO17-BN17</f>
-        <v>100.10600000010949</v>
+        <v>126.77699999988954</v>
       </c>
     </row>
     <row r="18" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4572,10 +4676,18 @@
       <c r="I18" s="142">
         <v>20.84</v>
       </c>
-      <c r="J18" s="195"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="194"/>
+      <c r="J18" s="195">
+        <v>0.84</v>
+      </c>
+      <c r="K18" s="194">
+        <v>20.84</v>
+      </c>
+      <c r="L18" s="166">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="M18" s="194">
+        <v>20.768000000000001</v>
+      </c>
       <c r="N18" s="196"/>
       <c r="O18" s="194"/>
       <c r="P18" s="19"/>
@@ -4630,15 +4742,15 @@
       <c r="BM18" s="194"/>
       <c r="BN18" s="23">
         <f t="shared" si="3"/>
-        <v>2.448</v>
+        <v>4.056</v>
       </c>
       <c r="BO18" s="24">
         <f t="shared" si="4"/>
-        <v>62.448</v>
+        <v>104.05600000000001</v>
       </c>
       <c r="BP18" s="128">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4665,10 +4777,18 @@
       <c r="I19" s="142">
         <v>18.78</v>
       </c>
-      <c r="J19" s="195"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="194"/>
+      <c r="J19" s="195">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="K19" s="194">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="L19" s="166">
+        <v>23.1</v>
+      </c>
+      <c r="M19" s="194">
+        <v>23.1</v>
+      </c>
       <c r="N19" s="196"/>
       <c r="O19" s="194"/>
       <c r="P19" s="19"/>
@@ -4723,11 +4843,11 @@
       <c r="BM19" s="194"/>
       <c r="BN19" s="23">
         <f t="shared" si="3"/>
-        <v>55.8</v>
+        <v>98.34</v>
       </c>
       <c r="BO19" s="24">
         <f t="shared" si="4"/>
-        <v>55.8</v>
+        <v>98.34</v>
       </c>
       <c r="BP19" s="128">
         <f t="shared" si="5"/>
@@ -4758,10 +4878,18 @@
       <c r="I20" s="142">
         <v>0.42099999999999999</v>
       </c>
-      <c r="J20" s="195"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="194"/>
+      <c r="J20" s="195">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K20" s="194">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L20" s="166">
+        <v>0.37</v>
+      </c>
+      <c r="M20" s="194">
+        <v>0.37</v>
+      </c>
       <c r="N20" s="196"/>
       <c r="O20" s="194"/>
       <c r="P20" s="74"/>
@@ -4814,7 +4942,10 @@
       <c r="BK20" s="194"/>
       <c r="BL20" s="166"/>
       <c r="BM20" s="194"/>
-      <c r="BN20" s="23"/>
+      <c r="BN20" s="23">
+        <f t="shared" si="3"/>
+        <v>55.692999999999998</v>
+      </c>
       <c r="BO20" s="24"/>
       <c r="BP20" s="128"/>
     </row>
@@ -4846,23 +4977,23 @@
       </c>
       <c r="I21" s="61">
         <f t="shared" si="12"/>
-        <v>1014.6761500000637</v>
+        <v>982.10114999992152</v>
       </c>
       <c r="J21" s="61">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>934.01099999999667</v>
       </c>
       <c r="K21" s="200">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1046.5650999998923</v>
       </c>
       <c r="L21" s="61">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>937.572</v>
       </c>
       <c r="M21" s="61">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1089.2741000000251</v>
       </c>
       <c r="N21" s="61">
         <f t="shared" si="12"/>
@@ -5074,15 +5205,15 @@
       </c>
       <c r="BN21" s="213">
         <f t="shared" si="13"/>
-        <v>2638.683999999866</v>
+        <v>4442.6289999998626</v>
       </c>
       <c r="BO21" s="63">
         <f t="shared" si="13"/>
-        <v>2857.9286499999889</v>
+        <v>4837.8618499997638</v>
       </c>
       <c r="BP21" s="64">
         <f>BO21-BN21</f>
-        <v>219.24465000012287</v>
+        <v>395.23284999990119</v>
       </c>
     </row>
     <row r="22" spans="1:68" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5103,9 +5234,13 @@
         <v>3516.7127999999598</v>
       </c>
       <c r="I22" s="256"/>
-      <c r="J22" s="276"/>
+      <c r="J22" s="276">
+        <v>3602.4915000000747</v>
+      </c>
       <c r="K22" s="277"/>
-      <c r="L22" s="278"/>
+      <c r="L22" s="278">
+        <v>3413.058</v>
+      </c>
       <c r="M22" s="279"/>
       <c r="N22" s="276"/>
       <c r="O22" s="277"/>
@@ -5180,9 +5315,13 @@
         <v>2280</v>
       </c>
       <c r="I23" s="273"/>
-      <c r="J23" s="272"/>
+      <c r="J23" s="272">
+        <v>2280</v>
+      </c>
       <c r="K23" s="273"/>
-      <c r="L23" s="272"/>
+      <c r="L23" s="272">
+        <v>2232</v>
+      </c>
       <c r="M23" s="273"/>
       <c r="N23" s="272"/>
       <c r="O23" s="273"/>
@@ -5257,9 +5396,13 @@
         <v>369.92</v>
       </c>
       <c r="I24" s="271"/>
-      <c r="J24" s="270"/>
+      <c r="J24" s="270">
+        <v>349.69</v>
+      </c>
       <c r="K24" s="271"/>
-      <c r="L24" s="270"/>
+      <c r="L24" s="270">
+        <v>279.95999999999998</v>
+      </c>
       <c r="M24" s="271"/>
       <c r="N24" s="270"/>
       <c r="O24" s="271"/>
@@ -5339,12 +5482,12 @@
       <c r="I25" s="263"/>
       <c r="J25" s="262">
         <f t="shared" ref="J25" si="16">J21+J23+J24</f>
-        <v>0</v>
+        <v>3563.7009999999968</v>
       </c>
       <c r="K25" s="263"/>
       <c r="L25" s="262">
         <f t="shared" ref="L25" si="17">L21+L23+L24</f>
-        <v>0</v>
+        <v>3449.5320000000002</v>
       </c>
       <c r="M25" s="263"/>
       <c r="N25" s="262">
@@ -5503,12 +5646,12 @@
       <c r="I26" s="263"/>
       <c r="J26" s="262">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>38.790500000077827</v>
       </c>
       <c r="K26" s="263"/>
       <c r="L26" s="262">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-36.47400000000016</v>
       </c>
       <c r="M26" s="263"/>
       <c r="N26" s="262">
@@ -5736,7 +5879,7 @@
       <c r="BN27" s="1"/>
       <c r="BO27" s="126">
         <f>BN22-BO21-BN24-BN23</f>
-        <v>-2857.9286499999889</v>
+        <v>-4837.8618499997638</v>
       </c>
     </row>
     <row r="28" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5887,9 +6030,13 @@
         <v>15860.424000000001</v>
       </c>
       <c r="I30" s="246"/>
-      <c r="J30" s="251"/>
+      <c r="J30" s="251">
+        <v>15865.102999999999</v>
+      </c>
       <c r="K30" s="251"/>
-      <c r="L30" s="246"/>
+      <c r="L30" s="246">
+        <v>15869.555</v>
+      </c>
       <c r="M30" s="246"/>
       <c r="N30" s="246"/>
       <c r="O30" s="246"/>
@@ -5960,9 +6107,13 @@
         <v>1057.472</v>
       </c>
       <c r="I31" s="246"/>
-      <c r="J31" s="251"/>
+      <c r="J31" s="251">
+        <v>1057.472</v>
+      </c>
       <c r="K31" s="251"/>
-      <c r="L31" s="246"/>
+      <c r="L31" s="246">
+        <v>1057.472</v>
+      </c>
       <c r="M31" s="246"/>
       <c r="N31" s="246"/>
       <c r="O31" s="246"/>
@@ -6033,9 +6184,13 @@
         <v>19.680000000000291</v>
       </c>
       <c r="I32" s="246"/>
-      <c r="J32" s="251"/>
+      <c r="J32" s="251">
+        <v>19.199999999998909</v>
+      </c>
       <c r="K32" s="251"/>
-      <c r="L32" s="246"/>
+      <c r="L32" s="246">
+        <v>19.680000000000291</v>
+      </c>
       <c r="M32" s="246"/>
       <c r="N32" s="246"/>
       <c r="O32" s="246"/>
@@ -6106,9 +6261,13 @@
         <v>227.36000000002241</v>
       </c>
       <c r="I33" s="246"/>
-      <c r="J33" s="251"/>
+      <c r="J33" s="251">
+        <v>220.36000000002241</v>
+      </c>
       <c r="K33" s="251"/>
-      <c r="L33" s="246"/>
+      <c r="L33" s="246">
+        <v>156.51999999995314</v>
+      </c>
       <c r="M33" s="246"/>
       <c r="N33" s="246"/>
       <c r="O33" s="246"/>
@@ -6179,9 +6338,13 @@
         <v>38.604999999995925</v>
       </c>
       <c r="I34" s="246"/>
-      <c r="J34" s="251"/>
+      <c r="J34" s="251">
+        <v>38.325000000002547</v>
+      </c>
       <c r="K34" s="251"/>
-      <c r="L34" s="246"/>
+      <c r="L34" s="246">
+        <v>38.954999999990832</v>
+      </c>
       <c r="M34" s="246"/>
       <c r="N34" s="246"/>
       <c r="O34" s="246"/>
@@ -6252,9 +6415,13 @@
         <v>18097.217000000001</v>
       </c>
       <c r="I35" s="246"/>
-      <c r="J35" s="251"/>
+      <c r="J35" s="251">
+        <v>18099.266</v>
+      </c>
       <c r="K35" s="251"/>
-      <c r="L35" s="246"/>
+      <c r="L35" s="246">
+        <v>18102.972000000002</v>
+      </c>
       <c r="M35" s="246"/>
       <c r="N35" s="246"/>
       <c r="O35" s="246"/>
@@ -6325,9 +6492,13 @@
         <v>16.489999999999998</v>
       </c>
       <c r="I36" s="246"/>
-      <c r="J36" s="251"/>
+      <c r="J36" s="251">
+        <v>16.489999999999998</v>
+      </c>
       <c r="K36" s="251"/>
-      <c r="L36" s="246"/>
+      <c r="L36" s="246">
+        <v>16.489999999999998</v>
+      </c>
       <c r="M36" s="246"/>
       <c r="N36" s="246"/>
       <c r="O36" s="246"/>
@@ -6400,9 +6571,13 @@
         <v>83.45</v>
       </c>
       <c r="I37" s="246"/>
-      <c r="J37" s="251"/>
+      <c r="J37" s="251">
+        <v>83.45</v>
+      </c>
       <c r="K37" s="251"/>
-      <c r="L37" s="246"/>
+      <c r="L37" s="246">
+        <v>83.45</v>
+      </c>
       <c r="M37" s="246"/>
       <c r="N37" s="246"/>
       <c r="O37" s="246"/>
@@ -6529,9 +6704,13 @@
         <v>559.84100000000001</v>
       </c>
       <c r="I38" s="246"/>
-      <c r="J38" s="251"/>
+      <c r="J38" s="251">
+        <v>535.93399999999997</v>
+      </c>
       <c r="K38" s="251"/>
-      <c r="L38" s="246"/>
+      <c r="L38" s="246">
+        <v>531.25400000000002</v>
+      </c>
       <c r="M38" s="246"/>
       <c r="N38" s="246"/>
       <c r="O38" s="246"/>
@@ -6658,9 +6837,13 @@
         <v>52.912999999999997</v>
       </c>
       <c r="I39" s="246"/>
-      <c r="J39" s="251"/>
+      <c r="J39" s="251">
+        <v>52.465000000000003</v>
+      </c>
       <c r="K39" s="251"/>
-      <c r="L39" s="246"/>
+      <c r="L39" s="246">
+        <v>53.210999999999999</v>
+      </c>
       <c r="M39" s="246"/>
       <c r="N39" s="246"/>
       <c r="O39" s="246"/>
@@ -6787,9 +6970,13 @@
         <v>312.18000000009124</v>
       </c>
       <c r="I40" s="246"/>
-      <c r="J40" s="251"/>
+      <c r="J40" s="251">
+        <v>316.00799999991068</v>
+      </c>
       <c r="K40" s="251"/>
-      <c r="L40" s="246"/>
+      <c r="L40" s="246">
+        <v>295.15199999998367</v>
+      </c>
       <c r="M40" s="246"/>
       <c r="N40" s="246"/>
       <c r="O40" s="246"/>
@@ -6916,9 +7103,13 @@
         <v>6056.39</v>
       </c>
       <c r="I41" s="246"/>
-      <c r="J41" s="251"/>
+      <c r="J41" s="251">
+        <v>2164.3969999999999</v>
+      </c>
       <c r="K41" s="251"/>
-      <c r="L41" s="246"/>
+      <c r="L41" s="246">
+        <v>2315.3209999999999</v>
+      </c>
       <c r="M41" s="246"/>
       <c r="N41" s="246"/>
       <c r="O41" s="246"/>
@@ -7045,9 +7236,13 @@
         <v>36.260000000002037</v>
       </c>
       <c r="I42" s="246"/>
-      <c r="J42" s="251"/>
+      <c r="J42" s="251">
+        <v>35.909999999994398</v>
+      </c>
       <c r="K42" s="251"/>
-      <c r="L42" s="246"/>
+      <c r="L42" s="246">
+        <v>36.260000000002037</v>
+      </c>
       <c r="M42" s="246"/>
       <c r="N42" s="246"/>
       <c r="O42" s="246"/>
@@ -7172,9 +7367,14 @@
         <v>6056.39</v>
       </c>
       <c r="I43" s="246"/>
-      <c r="J43" s="251"/>
+      <c r="J43" s="251">
+        <f>J41</f>
+        <v>2164.3969999999999</v>
+      </c>
       <c r="K43" s="251"/>
-      <c r="L43" s="246"/>
+      <c r="L43" s="246">
+        <v>2315.3209999999999</v>
+      </c>
       <c r="M43" s="246"/>
       <c r="N43" s="246"/>
       <c r="O43" s="246"/>
@@ -7245,9 +7445,13 @@
         <v>665.39880000000005</v>
       </c>
       <c r="I44" s="246"/>
-      <c r="J44" s="249"/>
+      <c r="J44" s="249">
+        <v>790.83799999999997</v>
+      </c>
       <c r="K44" s="249"/>
-      <c r="L44" s="246"/>
+      <c r="L44" s="246">
+        <v>834.39800000000002</v>
+      </c>
       <c r="M44" s="246"/>
       <c r="N44" s="246"/>
       <c r="O44" s="246"/>

--- a/DB/временно/TATEK.xlsx
+++ b/DB/временно/TATEK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4E475B-F8CB-4C0A-8BE6-89E6FBD7F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D345887-248D-4A57-BD09-06F08C326116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,11 +3073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DQ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:I3"/>
+      <selection pane="bottomRight" activeCell="AX3" sqref="AX3:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,8 +3706,12 @@
       <c r="AW5" s="33">
         <v>19.827999999906524</v>
       </c>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="33"/>
+      <c r="AX5" s="69">
+        <v>-8.0039999998892881</v>
+      </c>
+      <c r="AY5" s="33">
+        <v>-8</v>
+      </c>
       <c r="AZ5" s="69"/>
       <c r="BA5" s="33"/>
       <c r="BB5" s="210"/>
@@ -3724,15 +3728,15 @@
       <c r="BM5" s="33"/>
       <c r="BN5" s="23">
         <f>SUM(L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AH5,AJ5,AL5,AN5,AP5,AR5,AT5,AV5,AX5,AZ5,BB5,BD5,BF5,BH5,BJ5,BL5,D5,F5,H5,J5,AF5)</f>
-        <v>319.68000000091286</v>
+        <v>311.67600000102351</v>
       </c>
       <c r="BO5" s="24">
         <f>SUM(AE5,AC5,AA5,Y5,W5,U5,S5,Q5,O5,M5,AI5,AK5,AM5,AO5,AQ5,AS5,AU5,AW5,AY5,BA5,BC5,BE5,BG5,BI5,BK5,BM5,AG5,K5,I5,G5,E5)</f>
-        <v>319.68000000056827</v>
+        <v>311.68000000056827</v>
       </c>
       <c r="BP5" s="128">
         <f>BO5-BN5</f>
-        <v>-3.4458480513421819E-10</v>
+        <v>3.9999995447601577E-3</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,8 +3883,12 @@
       <c r="AW6" s="21">
         <v>36.028649999999836</v>
       </c>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="21"/>
+      <c r="AX6" s="30">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AY6" s="21">
+        <v>5.4886500000006597</v>
+      </c>
       <c r="AZ6" s="30"/>
       <c r="BA6" s="21"/>
       <c r="BB6" s="30"/>
@@ -3897,15 +3905,15 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="23">
         <f>SUM(L6,N6,P6,R6,T6,V6,X6,Z6,AB6,AD6,AH6,AJ6,AL6,AN6,AP6,AR6,AT6,AV6,AX6,AZ6,BB6,BD6,BF6,BH6,BJ6,BL6,D6,F6,H6,J6,AF6)</f>
-        <v>115.136</v>
+        <v>119.90599999999999</v>
       </c>
       <c r="BO6" s="24">
         <f>SUM(AE6,AC6,AA6,Y6,W6,U6,S6,Q6,O6,M6,AI6,AK6,AM6,AO6,AQ6,AS6,AU6,AW6,AY6,BA6,BC6,BE6,BG6,BI6,BK6,BM6,AG6,K6,I6,G6,E6)</f>
-        <v>386.40165000000042</v>
+        <v>391.89030000000099</v>
       </c>
       <c r="BP6" s="128">
         <f>BO6-BN6</f>
-        <v>271.26565000000039</v>
+        <v>271.98430000000099</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4054,8 +4062,12 @@
       <c r="AW7" s="21">
         <v>45.155999999999999</v>
       </c>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="21"/>
+      <c r="AX7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="21">
+        <v>45.256999999999998</v>
+      </c>
       <c r="AZ7" s="30"/>
       <c r="BA7" s="21"/>
       <c r="BB7" s="30"/>
@@ -4076,11 +4088,11 @@
       </c>
       <c r="BO7" s="24">
         <f t="shared" ref="BO7:BO21" si="1">SUM(AE7,AC7,AA7,Y7,W7,U7,S7,Q7,O7,M7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7,AW7,AY7,BA7,BC7,BE7,BG7,BI7,BK7,BM7,AG7,K7,I7,G7,E7)</f>
-        <v>1037.7789999999998</v>
+        <v>1083.0359999999998</v>
       </c>
       <c r="BP7" s="128">
         <f t="shared" ref="BP7:BP21" si="2">BO7-BN7</f>
-        <v>179.87900000000013</v>
+        <v>225.13600000000019</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,8 +4239,12 @@
       <c r="AW8" s="21">
         <v>103.40512000002472</v>
       </c>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="21"/>
+      <c r="AX8" s="30">
+        <v>97.2</v>
+      </c>
+      <c r="AY8" s="21">
+        <v>105.72239999998304</v>
+      </c>
       <c r="AZ8" s="30"/>
       <c r="BA8" s="21"/>
       <c r="BB8" s="30"/>
@@ -4245,15 +4261,15 @@
       <c r="BM8" s="21"/>
       <c r="BN8" s="23">
         <f t="shared" si="0"/>
-        <v>2246.4000000000005</v>
+        <v>2343.6000000000004</v>
       </c>
       <c r="BO8" s="24">
         <f t="shared" si="1"/>
-        <v>2384.5012800000254</v>
+        <v>2490.2236800000082</v>
       </c>
       <c r="BP8" s="128">
         <f t="shared" si="2"/>
-        <v>138.10128000002487</v>
+        <v>146.62368000000788</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4400,8 +4416,12 @@
       <c r="AW9" s="28">
         <v>105.90999999998712</v>
       </c>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="28"/>
+      <c r="AX9" s="30">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="AY9" s="28">
+        <v>149.05000000000291</v>
+      </c>
       <c r="AZ9" s="30"/>
       <c r="BA9" s="28"/>
       <c r="BB9" s="30"/>
@@ -4418,15 +4438,15 @@
       <c r="BM9" s="28"/>
       <c r="BN9" s="23">
         <f t="shared" si="0"/>
-        <v>3691.2</v>
+        <v>3854.3999999999996</v>
       </c>
       <c r="BO9" s="24">
         <f t="shared" si="1"/>
-        <v>3867.5240000000049</v>
+        <v>4016.5740000000078</v>
       </c>
       <c r="BP9" s="128">
         <f t="shared" si="2"/>
-        <v>176.32400000000507</v>
+        <v>162.17400000000816</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,8 +4593,12 @@
       <c r="AW10" s="28">
         <v>39.062100000001195</v>
       </c>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="28"/>
+      <c r="AX10" s="30">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="AY10" s="28">
+        <v>41.607300000000215</v>
+      </c>
       <c r="AZ10" s="30"/>
       <c r="BA10" s="28"/>
       <c r="BB10" s="30"/>
@@ -4591,15 +4615,15 @@
       <c r="BM10" s="28"/>
       <c r="BN10" s="23">
         <f t="shared" si="0"/>
-        <v>806.63999999999976</v>
+        <v>846.47999999999979</v>
       </c>
       <c r="BO10" s="24">
         <f t="shared" si="1"/>
-        <v>900.75867000001392</v>
+        <v>942.36597000001416</v>
       </c>
       <c r="BP10" s="128">
         <f t="shared" si="2"/>
-        <v>94.118670000014163</v>
+        <v>95.885970000014368</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4746,8 +4770,12 @@
       <c r="AW11" s="28">
         <v>356.92800000000852</v>
       </c>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="28"/>
+      <c r="AX11" s="49">
+        <v>438</v>
+      </c>
+      <c r="AY11" s="28">
+        <v>390.52199999999448</v>
+      </c>
       <c r="AZ11" s="49"/>
       <c r="BA11" s="28"/>
       <c r="BB11" s="49"/>
@@ -4764,15 +4792,15 @@
       <c r="BM11" s="28"/>
       <c r="BN11" s="23">
         <f t="shared" si="0"/>
-        <v>9576</v>
+        <v>10014</v>
       </c>
       <c r="BO11" s="24">
         <f t="shared" si="1"/>
-        <v>9167.202000000012</v>
+        <v>9557.7240000000093</v>
       </c>
       <c r="BP11" s="128">
         <f t="shared" si="2"/>
-        <v>-408.79799999998795</v>
+        <v>-456.27599999999074</v>
       </c>
     </row>
     <row r="12" spans="1:68" s="205" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4919,8 +4947,12 @@
       <c r="AW12" s="194">
         <v>92.196000000010827</v>
       </c>
-      <c r="AX12" s="166"/>
-      <c r="AY12" s="194"/>
+      <c r="AX12" s="166">
+        <v>82.85</v>
+      </c>
+      <c r="AY12" s="194">
+        <v>87.168000000012398</v>
+      </c>
       <c r="AZ12" s="166"/>
       <c r="BA12" s="194"/>
       <c r="BB12" s="166"/>
@@ -4937,15 +4969,15 @@
       <c r="BM12" s="194"/>
       <c r="BN12" s="23">
         <f t="shared" si="0"/>
-        <v>1759.1200000000003</v>
+        <v>1841.9700000000003</v>
       </c>
       <c r="BO12" s="24">
         <f t="shared" si="1"/>
-        <v>1842.695999999989</v>
+        <v>1929.8640000000014</v>
       </c>
       <c r="BP12" s="128">
         <f t="shared" si="2"/>
-        <v>83.575999999988653</v>
+        <v>87.894000000001142</v>
       </c>
     </row>
     <row r="13" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5092,8 +5124,12 @@
       <c r="AW13" s="111">
         <v>0</v>
       </c>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="111"/>
+      <c r="AX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="111">
+        <v>0</v>
+      </c>
       <c r="AZ13" s="30"/>
       <c r="BA13" s="111"/>
       <c r="BB13" s="30"/>
@@ -5265,8 +5301,12 @@
       <c r="AW14" s="111">
         <v>7.8</v>
       </c>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="111"/>
+      <c r="AX14" s="30">
+        <v>34.5</v>
+      </c>
+      <c r="AY14" s="111">
+        <v>34.5</v>
+      </c>
       <c r="AZ14" s="30"/>
       <c r="BA14" s="111"/>
       <c r="BB14" s="30"/>
@@ -5283,11 +5323,11 @@
       <c r="BM14" s="111"/>
       <c r="BN14" s="23">
         <f t="shared" si="0"/>
-        <v>552.65000000000009</v>
+        <v>587.15000000000009</v>
       </c>
       <c r="BO14" s="24">
         <f t="shared" si="1"/>
-        <v>552.65000000000009</v>
+        <v>587.15000000000009</v>
       </c>
       <c r="BP14" s="128">
         <f t="shared" si="2"/>
@@ -5438,8 +5478,12 @@
       <c r="AW15" s="194">
         <v>48</v>
       </c>
-      <c r="AX15" s="166"/>
-      <c r="AY15" s="194"/>
+      <c r="AX15" s="166">
+        <v>48</v>
+      </c>
+      <c r="AY15" s="194">
+        <v>48</v>
+      </c>
       <c r="AZ15" s="94"/>
       <c r="BA15" s="228"/>
       <c r="BB15" s="166"/>
@@ -5456,11 +5500,11 @@
       <c r="BM15" s="194"/>
       <c r="BN15" s="23">
         <f t="shared" si="0"/>
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="BO15" s="24">
         <f t="shared" si="1"/>
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="BP15" s="128">
         <f t="shared" si="2"/>
@@ -5611,8 +5655,12 @@
       <c r="AW16" s="194">
         <v>16.72</v>
       </c>
-      <c r="AX16" s="166"/>
-      <c r="AY16" s="194"/>
+      <c r="AX16" s="166">
+        <v>19.73</v>
+      </c>
+      <c r="AY16" s="194">
+        <v>19.73</v>
+      </c>
       <c r="AZ16" s="94"/>
       <c r="BA16" s="228"/>
       <c r="BB16" s="166"/>
@@ -5629,11 +5677,11 @@
       <c r="BM16" s="194"/>
       <c r="BN16" s="23">
         <f t="shared" si="0"/>
-        <v>445.07000000000005</v>
+        <v>464.80000000000007</v>
       </c>
       <c r="BO16" s="24">
         <f t="shared" si="1"/>
-        <v>445.07000000000005</v>
+        <v>464.80000000000007</v>
       </c>
       <c r="BP16" s="128">
         <f t="shared" si="2"/>
@@ -5744,8 +5792,12 @@
       <c r="AW17" s="194">
         <v>14.4</v>
       </c>
-      <c r="AX17" s="166"/>
-      <c r="AY17" s="142"/>
+      <c r="AX17" s="166">
+        <v>14.4</v>
+      </c>
+      <c r="AY17" s="142">
+        <v>14.4</v>
+      </c>
       <c r="AZ17" s="47"/>
       <c r="BA17" s="251"/>
       <c r="BB17" s="166"/>
@@ -5762,11 +5814,11 @@
       <c r="BM17" s="194"/>
       <c r="BN17" s="23">
         <f t="shared" si="0"/>
-        <v>150.00000000000003</v>
+        <v>164.40000000000003</v>
       </c>
       <c r="BO17" s="24">
         <f t="shared" si="1"/>
-        <v>150.00000000000003</v>
+        <v>164.40000000000003</v>
       </c>
       <c r="BP17" s="128">
         <f t="shared" si="2"/>
@@ -5917,8 +5969,12 @@
       <c r="AW18" s="28">
         <v>11.824</v>
       </c>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="235"/>
+      <c r="AX18" s="30">
+        <v>20</v>
+      </c>
+      <c r="AY18" s="235">
+        <v>19.206000000071072</v>
+      </c>
       <c r="AZ18" s="30"/>
       <c r="BA18" s="235"/>
       <c r="BB18" s="30"/>
@@ -5935,15 +5991,15 @@
       <c r="BM18" s="28"/>
       <c r="BN18" s="23">
         <f t="shared" si="0"/>
-        <v>429.85999999999996</v>
+        <v>449.85999999999996</v>
       </c>
       <c r="BO18" s="24">
         <f t="shared" si="1"/>
-        <v>1028.9970000000421</v>
+        <v>1048.2030000001132</v>
       </c>
       <c r="BP18" s="128">
         <f t="shared" si="2"/>
-        <v>599.13700000004224</v>
+        <v>598.34300000011331</v>
       </c>
     </row>
     <row r="19" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6092,8 +6148,12 @@
       <c r="AW19" s="194">
         <v>20.936</v>
       </c>
-      <c r="AX19" s="166"/>
-      <c r="AY19" s="236"/>
+      <c r="AX19" s="166">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AY19" s="236">
+        <v>20.936</v>
+      </c>
       <c r="AZ19" s="165"/>
       <c r="BA19" s="236"/>
       <c r="BB19" s="166"/>
@@ -6110,15 +6170,15 @@
       <c r="BM19" s="194"/>
       <c r="BN19" s="23">
         <f t="shared" si="0"/>
-        <v>18.192</v>
+        <v>19.127999999999997</v>
       </c>
       <c r="BO19" s="24">
         <f t="shared" si="1"/>
-        <v>518.14399999999989</v>
+        <v>539.07999999999993</v>
       </c>
       <c r="BP19" s="128">
         <f t="shared" si="2"/>
-        <v>499.95199999999988</v>
+        <v>519.95199999999988</v>
       </c>
     </row>
     <row r="20" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6267,8 +6327,12 @@
       <c r="AW20" s="194">
         <v>48</v>
       </c>
-      <c r="AX20" s="166"/>
-      <c r="AY20" s="237"/>
+      <c r="AX20" s="166">
+        <v>46.38</v>
+      </c>
+      <c r="AY20" s="237">
+        <v>48</v>
+      </c>
       <c r="AZ20" s="59"/>
       <c r="BA20" s="237"/>
       <c r="BB20" s="166"/>
@@ -6285,15 +6349,15 @@
       <c r="BM20" s="194"/>
       <c r="BN20" s="23">
         <f t="shared" si="0"/>
-        <v>1133.76</v>
+        <v>1180.1399999999999</v>
       </c>
       <c r="BO20" s="24">
         <f t="shared" si="1"/>
-        <v>996</v>
+        <v>1044</v>
       </c>
       <c r="BP20" s="128">
         <f t="shared" si="2"/>
-        <v>-137.76</v>
+        <v>-136.13999999999987</v>
       </c>
     </row>
     <row r="21" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6444,8 +6508,12 @@
       <c r="AW21" s="194">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AX21" s="166"/>
-      <c r="AY21" s="194"/>
+      <c r="AX21" s="166">
+        <v>0.2</v>
+      </c>
+      <c r="AY21" s="194">
+        <v>0.2</v>
+      </c>
       <c r="AZ21" s="94"/>
       <c r="BA21" s="228"/>
       <c r="BB21" s="166"/>
@@ -6665,11 +6733,11 @@
       </c>
       <c r="AX22" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1002.0020000001108</v>
       </c>
       <c r="AY22" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1021.7873500000649</v>
       </c>
       <c r="AZ22" s="61">
         <f t="shared" si="4"/>
@@ -6838,7 +6906,9 @@
         <v>3549.4777000000677</v>
       </c>
       <c r="AW23" s="301"/>
-      <c r="AX23" s="300"/>
+      <c r="AX23" s="300">
+        <v>4102.2940000000317</v>
+      </c>
       <c r="AY23" s="301"/>
       <c r="AZ23" s="300"/>
       <c r="BA23" s="301"/>
@@ -6955,8 +7025,12 @@
         <v>2232</v>
       </c>
       <c r="AW24" s="321"/>
-      <c r="AX24" s="318"/>
-      <c r="AY24" s="319"/>
+      <c r="AX24" s="320">
+        <v>2232</v>
+      </c>
+      <c r="AY24" s="321">
+        <v>2232</v>
+      </c>
       <c r="AZ24" s="318"/>
       <c r="BA24" s="319"/>
       <c r="BB24" s="318"/>
@@ -7072,7 +7146,9 @@
         <v>239.988</v>
       </c>
       <c r="AW25" s="326"/>
-      <c r="AX25" s="325"/>
+      <c r="AX25" s="325">
+        <v>239.98499999999999</v>
+      </c>
       <c r="AY25" s="326"/>
       <c r="AZ25" s="325"/>
       <c r="BA25" s="326"/>
@@ -7214,7 +7290,7 @@
       <c r="AW26" s="328"/>
       <c r="AX26" s="327">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3473.987000000111</v>
       </c>
       <c r="AY26" s="328"/>
       <c r="AZ26" s="327"/>
@@ -7357,7 +7433,7 @@
       <c r="AW27" s="330"/>
       <c r="AX27" s="329">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>628.30699999992066</v>
       </c>
       <c r="AY27" s="330"/>
       <c r="AZ27" s="329">
@@ -7719,7 +7795,9 @@
         <v>16071.526</v>
       </c>
       <c r="AW31" s="342"/>
-      <c r="AX31" s="342"/>
+      <c r="AX31" s="342">
+        <v>16076.543</v>
+      </c>
       <c r="AY31" s="342"/>
       <c r="AZ31" s="342"/>
       <c r="BA31" s="342"/>
@@ -7832,7 +7910,9 @@
         <v>1057.508</v>
       </c>
       <c r="AW32" s="342"/>
-      <c r="AX32" s="342"/>
+      <c r="AX32" s="342">
+        <v>1057.508</v>
+      </c>
       <c r="AY32" s="342"/>
       <c r="AZ32" s="342"/>
       <c r="BA32" s="342"/>
@@ -7945,7 +8025,9 @@
         <v>18.760000000000218</v>
       </c>
       <c r="AW33" s="342"/>
-      <c r="AX33" s="342"/>
+      <c r="AX33" s="342">
+        <v>18.239999999999782</v>
+      </c>
       <c r="AY33" s="342"/>
       <c r="AZ33" s="342"/>
       <c r="BA33" s="342"/>
@@ -8058,7 +8140,9 @@
         <v>150.36000000002241</v>
       </c>
       <c r="AW34" s="342"/>
-      <c r="AX34" s="342"/>
+      <c r="AX34" s="342">
+        <v>166.32000000000193</v>
+      </c>
       <c r="AY34" s="342"/>
       <c r="AZ34" s="342"/>
       <c r="BA34" s="342"/>
@@ -8171,7 +8255,9 @@
         <v>40.145000000004075</v>
       </c>
       <c r="AW35" s="342"/>
-      <c r="AX35" s="342"/>
+      <c r="AX35" s="342">
+        <v>40.179999999998472</v>
+      </c>
       <c r="AY35" s="342"/>
       <c r="AZ35" s="342"/>
       <c r="BA35" s="342"/>
@@ -8284,7 +8370,9 @@
         <v>18326.592000000001</v>
       </c>
       <c r="AW36" s="342"/>
-      <c r="AX36" s="342"/>
+      <c r="AX36" s="342">
+        <v>18330.213</v>
+      </c>
       <c r="AY36" s="342"/>
       <c r="AZ36" s="342"/>
       <c r="BA36" s="342"/>
@@ -8397,7 +8485,9 @@
         <v>16.5</v>
       </c>
       <c r="AW37" s="342"/>
-      <c r="AX37" s="342"/>
+      <c r="AX37" s="342">
+        <v>16.5</v>
+      </c>
       <c r="AY37" s="342"/>
       <c r="AZ37" s="342"/>
       <c r="BA37" s="342"/>
@@ -8512,7 +8602,9 @@
         <v>115.41</v>
       </c>
       <c r="AW38" s="342"/>
-      <c r="AX38" s="342"/>
+      <c r="AX38" s="342">
+        <v>115.41</v>
+      </c>
       <c r="AY38" s="342"/>
       <c r="AZ38" s="342"/>
       <c r="BA38" s="342"/>
@@ -8681,7 +8773,9 @@
         <v>564.08799999999997</v>
       </c>
       <c r="AW39" s="342"/>
-      <c r="AX39" s="342"/>
+      <c r="AX39" s="342">
+        <v>564.76</v>
+      </c>
       <c r="AY39" s="342"/>
       <c r="AZ39" s="342"/>
       <c r="BA39" s="342"/>
@@ -8850,7 +8944,9 @@
         <v>59.183</v>
       </c>
       <c r="AW40" s="342"/>
-      <c r="AX40" s="342"/>
+      <c r="AX40" s="342">
+        <v>59.633000000000003</v>
+      </c>
       <c r="AY40" s="342"/>
       <c r="AZ40" s="342"/>
       <c r="BA40" s="342"/>
@@ -9019,7 +9115,9 @@
         <v>111.40800000000672</v>
       </c>
       <c r="AW41" s="342"/>
-      <c r="AX41" s="342"/>
+      <c r="AX41" s="342">
+        <v>127.57800000005955</v>
+      </c>
       <c r="AY41" s="342"/>
       <c r="AZ41" s="342"/>
       <c r="BA41" s="342"/>
@@ -9188,7 +9286,9 @@
         <v>2291.9459999999995</v>
       </c>
       <c r="AW42" s="342"/>
-      <c r="AX42" s="342"/>
+      <c r="AX42" s="342">
+        <v>2326.6410000000001</v>
+      </c>
       <c r="AY42" s="342"/>
       <c r="AZ42" s="342"/>
       <c r="BA42" s="342"/>
@@ -9357,7 +9457,9 @@
         <v>35.104999999995925</v>
       </c>
       <c r="AW43" s="342"/>
-      <c r="AX43" s="342"/>
+      <c r="AX43" s="342">
+        <v>34.580000000003565</v>
+      </c>
       <c r="AY43" s="342"/>
       <c r="AZ43" s="342"/>
       <c r="BA43" s="342"/>
@@ -9531,7 +9633,9 @@
         <v>2291.9459999999995</v>
       </c>
       <c r="AW44" s="342"/>
-      <c r="AX44" s="342"/>
+      <c r="AX44" s="342">
+        <v>2326.6410000000001</v>
+      </c>
       <c r="AY44" s="342"/>
       <c r="AZ44" s="342"/>
       <c r="BA44" s="342"/>
@@ -9644,7 +9748,9 @@
         <v>430.71600000000001</v>
       </c>
       <c r="AW45" s="342"/>
-      <c r="AX45" s="342"/>
+      <c r="AX45" s="342">
+        <v>477.66800000000001</v>
+      </c>
       <c r="AY45" s="342"/>
       <c r="AZ45" s="342"/>
       <c r="BA45" s="342"/>

--- a/DB/временно/TATEK.xlsx
+++ b/DB/временно/TATEK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D345887-248D-4A57-BD09-06F08C326116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7138B982-384B-4314-A202-B2C35435A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3074,10 +3074,10 @@
   <dimension ref="A1:DQ45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX3" sqref="AX3:AY3"/>
+      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3:BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,8 +3712,12 @@
       <c r="AY5" s="33">
         <v>-8</v>
       </c>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="33"/>
+      <c r="AZ5" s="69">
+        <v>1231.1879999999592</v>
+      </c>
+      <c r="BA5" s="33">
+        <v>1231.1879999999592</v>
+      </c>
       <c r="BB5" s="210"/>
       <c r="BC5" s="33"/>
       <c r="BD5" s="69"/>
@@ -3728,15 +3732,15 @@
       <c r="BM5" s="33"/>
       <c r="BN5" s="23">
         <f>SUM(L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AH5,AJ5,AL5,AN5,AP5,AR5,AT5,AV5,AX5,AZ5,BB5,BD5,BF5,BH5,BJ5,BL5,D5,F5,H5,J5,AF5)</f>
-        <v>311.67600000102351</v>
+        <v>1542.8640000009827</v>
       </c>
       <c r="BO5" s="24">
         <f>SUM(AE5,AC5,AA5,Y5,W5,U5,S5,Q5,O5,M5,AI5,AK5,AM5,AO5,AQ5,AS5,AU5,AW5,AY5,BA5,BC5,BE5,BG5,BI5,BK5,BM5,AG5,K5,I5,G5,E5)</f>
-        <v>311.68000000056827</v>
+        <v>1542.8680000005272</v>
       </c>
       <c r="BP5" s="128">
         <f>BO5-BN5</f>
-        <v>3.9999995447601577E-3</v>
+        <v>3.9999995444759406E-3</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3889,8 +3893,12 @@
       <c r="AY6" s="21">
         <v>5.4886500000006597</v>
       </c>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="21"/>
+      <c r="AZ6" s="30">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="BA6" s="21">
+        <v>10.088999999998693</v>
+      </c>
       <c r="BB6" s="30"/>
       <c r="BC6" s="21"/>
       <c r="BD6" s="30"/>
@@ -3905,15 +3913,15 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="23">
         <f>SUM(L6,N6,P6,R6,T6,V6,X6,Z6,AB6,AD6,AH6,AJ6,AL6,AN6,AP6,AR6,AT6,AV6,AX6,AZ6,BB6,BD6,BF6,BH6,BJ6,BL6,D6,F6,H6,J6,AF6)</f>
-        <v>119.90599999999999</v>
+        <v>124.79599999999999</v>
       </c>
       <c r="BO6" s="24">
         <f>SUM(AE6,AC6,AA6,Y6,W6,U6,S6,Q6,O6,M6,AI6,AK6,AM6,AO6,AQ6,AS6,AU6,AW6,AY6,BA6,BC6,BE6,BG6,BI6,BK6,BM6,AG6,K6,I6,G6,E6)</f>
-        <v>391.89030000000099</v>
+        <v>401.97929999999968</v>
       </c>
       <c r="BP6" s="128">
         <f>BO6-BN6</f>
-        <v>271.98430000000099</v>
+        <v>277.18329999999969</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4068,8 +4076,12 @@
       <c r="AY7" s="21">
         <v>45.256999999999998</v>
       </c>
-      <c r="AZ7" s="30"/>
-      <c r="BA7" s="21"/>
+      <c r="AZ7" s="30">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="BA7" s="21">
+        <v>44.936</v>
+      </c>
       <c r="BB7" s="30"/>
       <c r="BC7" s="21"/>
       <c r="BD7" s="30"/>
@@ -4084,15 +4096,15 @@
       <c r="BM7" s="21"/>
       <c r="BN7" s="23">
         <f t="shared" ref="BN7:BN21" si="0">SUM(L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7,AX7,AZ7,BB7,BD7,BF7,BH7,BJ7,BL7,D7,F7,H7,J7,AF7)</f>
-        <v>857.89999999999964</v>
+        <v>895.19999999999959</v>
       </c>
       <c r="BO7" s="24">
         <f t="shared" ref="BO7:BO21" si="1">SUM(AE7,AC7,AA7,Y7,W7,U7,S7,Q7,O7,M7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7,AW7,AY7,BA7,BC7,BE7,BG7,BI7,BK7,BM7,AG7,K7,I7,G7,E7)</f>
-        <v>1083.0359999999998</v>
+        <v>1127.9719999999998</v>
       </c>
       <c r="BP7" s="128">
         <f t="shared" ref="BP7:BP21" si="2">BO7-BN7</f>
-        <v>225.13600000000019</v>
+        <v>232.77200000000016</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,8 +4257,12 @@
       <c r="AY8" s="21">
         <v>105.72239999998304</v>
       </c>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="21"/>
+      <c r="AZ8" s="30">
+        <v>96</v>
+      </c>
+      <c r="BA8" s="21">
+        <v>105.6977600000082</v>
+      </c>
       <c r="BB8" s="30"/>
       <c r="BC8" s="21"/>
       <c r="BD8" s="30"/>
@@ -4261,15 +4277,15 @@
       <c r="BM8" s="21"/>
       <c r="BN8" s="23">
         <f t="shared" si="0"/>
-        <v>2343.6000000000004</v>
+        <v>2439.6000000000004</v>
       </c>
       <c r="BO8" s="24">
         <f t="shared" si="1"/>
-        <v>2490.2236800000082</v>
+        <v>2595.9214400000164</v>
       </c>
       <c r="BP8" s="128">
         <f t="shared" si="2"/>
-        <v>146.62368000000788</v>
+        <v>156.32144000001608</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4422,8 +4438,12 @@
       <c r="AY9" s="28">
         <v>149.05000000000291</v>
       </c>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="28"/>
+      <c r="AZ9" s="30">
+        <v>172.8</v>
+      </c>
+      <c r="BA9" s="28">
+        <v>181.24599999999373</v>
+      </c>
       <c r="BB9" s="30"/>
       <c r="BC9" s="28"/>
       <c r="BD9" s="30"/>
@@ -4438,15 +4458,15 @@
       <c r="BM9" s="28"/>
       <c r="BN9" s="23">
         <f t="shared" si="0"/>
-        <v>3854.3999999999996</v>
+        <v>4027.2</v>
       </c>
       <c r="BO9" s="24">
         <f t="shared" si="1"/>
-        <v>4016.5740000000078</v>
+        <v>4197.8200000000015</v>
       </c>
       <c r="BP9" s="128">
         <f t="shared" si="2"/>
-        <v>162.17400000000816</v>
+        <v>170.62000000000171</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,8 +4619,12 @@
       <c r="AY10" s="28">
         <v>41.607300000000215</v>
       </c>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="28"/>
+      <c r="AZ10" s="30">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="BA10" s="28">
+        <v>40.345199999995202</v>
+      </c>
       <c r="BB10" s="30"/>
       <c r="BC10" s="28"/>
       <c r="BD10" s="30"/>
@@ -4615,15 +4639,15 @@
       <c r="BM10" s="28"/>
       <c r="BN10" s="23">
         <f t="shared" si="0"/>
-        <v>846.47999999999979</v>
+        <v>886.31999999999982</v>
       </c>
       <c r="BO10" s="24">
         <f t="shared" si="1"/>
-        <v>942.36597000001416</v>
+        <v>982.71117000000936</v>
       </c>
       <c r="BP10" s="128">
         <f t="shared" si="2"/>
-        <v>95.885970000014368</v>
+        <v>96.391170000009538</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4776,8 +4800,12 @@
       <c r="AY11" s="28">
         <v>390.52199999999448</v>
       </c>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="28"/>
+      <c r="AZ11" s="49">
+        <v>438</v>
+      </c>
+      <c r="BA11" s="28">
+        <v>372.17399999999316</v>
+      </c>
       <c r="BB11" s="49"/>
       <c r="BC11" s="28"/>
       <c r="BD11" s="49"/>
@@ -4792,15 +4820,15 @@
       <c r="BM11" s="28"/>
       <c r="BN11" s="23">
         <f t="shared" si="0"/>
-        <v>10014</v>
+        <v>10452</v>
       </c>
       <c r="BO11" s="24">
         <f t="shared" si="1"/>
-        <v>9557.7240000000093</v>
+        <v>9929.898000000001</v>
       </c>
       <c r="BP11" s="128">
         <f t="shared" si="2"/>
-        <v>-456.27599999999074</v>
+        <v>-522.10199999999895</v>
       </c>
     </row>
     <row r="12" spans="1:68" s="205" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4953,8 +4981,12 @@
       <c r="AY12" s="194">
         <v>87.168000000012398</v>
       </c>
-      <c r="AZ12" s="166"/>
-      <c r="BA12" s="194"/>
+      <c r="AZ12" s="166">
+        <v>82.85</v>
+      </c>
+      <c r="BA12" s="194">
+        <v>75.875999999982014</v>
+      </c>
       <c r="BB12" s="166"/>
       <c r="BC12" s="194"/>
       <c r="BD12" s="165"/>
@@ -4969,15 +5001,15 @@
       <c r="BM12" s="194"/>
       <c r="BN12" s="23">
         <f t="shared" si="0"/>
-        <v>1841.9700000000003</v>
+        <v>1924.8200000000002</v>
       </c>
       <c r="BO12" s="24">
         <f t="shared" si="1"/>
-        <v>1929.8640000000014</v>
+        <v>2005.7399999999834</v>
       </c>
       <c r="BP12" s="128">
         <f t="shared" si="2"/>
-        <v>87.894000000001142</v>
+        <v>80.919999999983247</v>
       </c>
     </row>
     <row r="13" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,8 +5162,12 @@
       <c r="AY13" s="111">
         <v>0</v>
       </c>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="111"/>
+      <c r="AZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="111">
+        <v>0</v>
+      </c>
       <c r="BB13" s="30"/>
       <c r="BC13" s="111"/>
       <c r="BD13" s="19"/>
@@ -5307,8 +5343,12 @@
       <c r="AY14" s="111">
         <v>34.5</v>
       </c>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="111"/>
+      <c r="AZ14" s="30">
+        <v>34.5</v>
+      </c>
+      <c r="BA14" s="111">
+        <v>34.5</v>
+      </c>
       <c r="BB14" s="30"/>
       <c r="BC14" s="111"/>
       <c r="BD14" s="29"/>
@@ -5323,11 +5363,11 @@
       <c r="BM14" s="111"/>
       <c r="BN14" s="23">
         <f t="shared" si="0"/>
-        <v>587.15000000000009</v>
+        <v>621.65000000000009</v>
       </c>
       <c r="BO14" s="24">
         <f t="shared" si="1"/>
-        <v>587.15000000000009</v>
+        <v>621.65000000000009</v>
       </c>
       <c r="BP14" s="128">
         <f t="shared" si="2"/>
@@ -5484,8 +5524,12 @@
       <c r="AY15" s="194">
         <v>48</v>
       </c>
-      <c r="AZ15" s="94"/>
-      <c r="BA15" s="228"/>
+      <c r="AZ15" s="94">
+        <v>48</v>
+      </c>
+      <c r="BA15" s="228">
+        <v>48</v>
+      </c>
       <c r="BB15" s="166"/>
       <c r="BC15" s="194"/>
       <c r="BD15" s="30"/>
@@ -5500,11 +5544,11 @@
       <c r="BM15" s="194"/>
       <c r="BN15" s="23">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>1152</v>
       </c>
       <c r="BO15" s="24">
         <f t="shared" si="1"/>
-        <v>1104</v>
+        <v>1152</v>
       </c>
       <c r="BP15" s="128">
         <f t="shared" si="2"/>
@@ -5661,8 +5705,12 @@
       <c r="AY16" s="194">
         <v>19.73</v>
       </c>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="228"/>
+      <c r="AZ16" s="94">
+        <v>20.64</v>
+      </c>
+      <c r="BA16" s="228">
+        <v>20.64</v>
+      </c>
       <c r="BB16" s="166"/>
       <c r="BC16" s="194"/>
       <c r="BD16" s="30"/>
@@ -5677,11 +5725,11 @@
       <c r="BM16" s="194"/>
       <c r="BN16" s="23">
         <f t="shared" si="0"/>
-        <v>464.80000000000007</v>
+        <v>485.44000000000005</v>
       </c>
       <c r="BO16" s="24">
         <f t="shared" si="1"/>
-        <v>464.80000000000007</v>
+        <v>485.44000000000005</v>
       </c>
       <c r="BP16" s="128">
         <f t="shared" si="2"/>
@@ -5798,8 +5846,12 @@
       <c r="AY17" s="142">
         <v>14.4</v>
       </c>
-      <c r="AZ17" s="47"/>
-      <c r="BA17" s="251"/>
+      <c r="AZ17" s="47">
+        <v>14.4</v>
+      </c>
+      <c r="BA17" s="251">
+        <v>14.4</v>
+      </c>
       <c r="BB17" s="166"/>
       <c r="BC17" s="194"/>
       <c r="BD17" s="30"/>
@@ -5814,11 +5866,11 @@
       <c r="BM17" s="194"/>
       <c r="BN17" s="23">
         <f t="shared" si="0"/>
-        <v>164.40000000000003</v>
+        <v>178.80000000000004</v>
       </c>
       <c r="BO17" s="24">
         <f t="shared" si="1"/>
-        <v>164.40000000000003</v>
+        <v>178.80000000000004</v>
       </c>
       <c r="BP17" s="128">
         <f t="shared" si="2"/>
@@ -5975,8 +6027,12 @@
       <c r="AY18" s="235">
         <v>19.206000000071072</v>
       </c>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="235"/>
+      <c r="AZ18" s="221">
+        <v>21.6</v>
+      </c>
+      <c r="BA18" s="261">
+        <v>10.241</v>
+      </c>
       <c r="BB18" s="30"/>
       <c r="BC18" s="28"/>
       <c r="BD18" s="30"/>
@@ -5991,15 +6047,15 @@
       <c r="BM18" s="28"/>
       <c r="BN18" s="23">
         <f t="shared" si="0"/>
-        <v>449.85999999999996</v>
+        <v>471.46</v>
       </c>
       <c r="BO18" s="24">
         <f t="shared" si="1"/>
-        <v>1048.2030000001132</v>
+        <v>1058.4440000001132</v>
       </c>
       <c r="BP18" s="128">
         <f t="shared" si="2"/>
-        <v>598.34300000011331</v>
+        <v>586.98400000011316</v>
       </c>
     </row>
     <row r="19" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,8 +6210,12 @@
       <c r="AY19" s="236">
         <v>20.936</v>
       </c>
-      <c r="AZ19" s="165"/>
-      <c r="BA19" s="236"/>
+      <c r="AZ19" s="207">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="BA19" s="229">
+        <v>20.936</v>
+      </c>
       <c r="BB19" s="166"/>
       <c r="BC19" s="194"/>
       <c r="BD19" s="30"/>
@@ -6170,15 +6230,15 @@
       <c r="BM19" s="194"/>
       <c r="BN19" s="23">
         <f t="shared" si="0"/>
-        <v>19.127999999999997</v>
+        <v>20.063999999999997</v>
       </c>
       <c r="BO19" s="24">
         <f t="shared" si="1"/>
-        <v>539.07999999999993</v>
+        <v>560.01599999999985</v>
       </c>
       <c r="BP19" s="128">
         <f t="shared" si="2"/>
-        <v>519.95199999999988</v>
+        <v>539.95199999999988</v>
       </c>
     </row>
     <row r="20" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6333,8 +6393,12 @@
       <c r="AY20" s="237">
         <v>48</v>
       </c>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="237"/>
+      <c r="AZ20" s="204">
+        <v>46.38</v>
+      </c>
+      <c r="BA20" s="230">
+        <v>48</v>
+      </c>
       <c r="BB20" s="166"/>
       <c r="BC20" s="194"/>
       <c r="BD20" s="30"/>
@@ -6349,15 +6413,15 @@
       <c r="BM20" s="194"/>
       <c r="BN20" s="23">
         <f t="shared" si="0"/>
-        <v>1180.1399999999999</v>
+        <v>1226.5199999999998</v>
       </c>
       <c r="BO20" s="24">
         <f t="shared" si="1"/>
-        <v>1044</v>
+        <v>1092</v>
       </c>
       <c r="BP20" s="128">
         <f t="shared" si="2"/>
-        <v>-136.13999999999987</v>
+        <v>-134.51999999999975</v>
       </c>
     </row>
     <row r="21" spans="1:68" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6514,8 +6578,13 @@
       <c r="AY21" s="194">
         <v>0.2</v>
       </c>
-      <c r="AZ21" s="94"/>
-      <c r="BA21" s="228"/>
+      <c r="AZ21" s="246">
+        <f ca="1">AZ22</f>
+        <v>0.2</v>
+      </c>
+      <c r="BA21" s="262">
+        <v>0.2</v>
+      </c>
       <c r="BB21" s="166"/>
       <c r="BC21" s="194"/>
       <c r="BD21" s="30"/>
@@ -6740,12 +6809,12 @@
         <v>1021.7873500000649</v>
       </c>
       <c r="AZ22" s="61">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2289.523999999959</v>
       </c>
       <c r="BA22" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2258.4689599999301</v>
       </c>
       <c r="BB22" s="61">
         <f t="shared" si="4"/>
@@ -6910,7 +6979,9 @@
         <v>4102.2940000000317</v>
       </c>
       <c r="AY23" s="301"/>
-      <c r="AZ23" s="300"/>
+      <c r="AZ23" s="300">
+        <v>3710.8308999999122</v>
+      </c>
       <c r="BA23" s="301"/>
       <c r="BB23" s="300"/>
       <c r="BC23" s="301"/>
@@ -7031,7 +7102,9 @@
       <c r="AY24" s="321">
         <v>2232</v>
       </c>
-      <c r="AZ24" s="318"/>
+      <c r="AZ24" s="318">
+        <v>2232</v>
+      </c>
       <c r="BA24" s="319"/>
       <c r="BB24" s="318"/>
       <c r="BC24" s="319"/>
@@ -7150,7 +7223,9 @@
         <v>239.98499999999999</v>
       </c>
       <c r="AY25" s="326"/>
-      <c r="AZ25" s="325"/>
+      <c r="AZ25" s="325">
+        <v>239.98499999999999</v>
+      </c>
       <c r="BA25" s="326"/>
       <c r="BB25" s="325"/>
       <c r="BC25" s="326"/>
@@ -7229,7 +7304,7 @@
       </c>
       <c r="Y26" s="328"/>
       <c r="Z26" s="327">
-        <f t="shared" ref="Z26:AX26" si="14">Z22+Z24+Z25</f>
+        <f t="shared" ref="Z26:AZ26" si="14">Z22+Z24+Z25</f>
         <v>3477.5309999999999</v>
       </c>
       <c r="AA26" s="328"/>
@@ -7293,7 +7368,10 @@
         <v>3473.987000000111</v>
       </c>
       <c r="AY26" s="328"/>
-      <c r="AZ26" s="327"/>
+      <c r="AZ26" s="327">
+        <f t="shared" ca="1" si="14"/>
+        <v>4761.5089999999591</v>
+      </c>
       <c r="BA26" s="328"/>
       <c r="BB26" s="327"/>
       <c r="BC26" s="328"/>
@@ -7437,8 +7515,8 @@
       </c>
       <c r="AY27" s="330"/>
       <c r="AZ27" s="329">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-1050.6781000000469</v>
       </c>
       <c r="BA27" s="330"/>
       <c r="BB27" s="329">
@@ -7799,7 +7877,9 @@
         <v>16076.543</v>
       </c>
       <c r="AY31" s="342"/>
-      <c r="AZ31" s="342"/>
+      <c r="AZ31" s="342">
+        <v>16081.541999999999</v>
+      </c>
       <c r="BA31" s="342"/>
       <c r="BB31" s="342"/>
       <c r="BC31" s="342"/>
@@ -7914,7 +7994,9 @@
         <v>1057.508</v>
       </c>
       <c r="AY32" s="342"/>
-      <c r="AZ32" s="342"/>
+      <c r="AZ32" s="342">
+        <v>1057.508</v>
+      </c>
       <c r="BA32" s="342"/>
       <c r="BB32" s="342"/>
       <c r="BC32" s="342"/>
@@ -8029,7 +8111,9 @@
         <v>18.239999999999782</v>
       </c>
       <c r="AY33" s="342"/>
-      <c r="AZ33" s="342"/>
+      <c r="AZ33" s="342">
+        <v>18.559999999999491</v>
+      </c>
       <c r="BA33" s="342"/>
       <c r="BB33" s="342"/>
       <c r="BC33" s="342"/>
@@ -8144,7 +8228,9 @@
         <v>166.32000000000193</v>
       </c>
       <c r="AY34" s="342"/>
-      <c r="AZ34" s="342"/>
+      <c r="AZ34" s="342">
+        <v>163.93999999996748</v>
+      </c>
       <c r="BA34" s="342"/>
       <c r="BB34" s="342"/>
       <c r="BC34" s="342"/>
@@ -8259,7 +8345,9 @@
         <v>40.179999999998472</v>
       </c>
       <c r="AY35" s="342"/>
-      <c r="AZ35" s="342"/>
+      <c r="AZ35" s="342">
+        <v>40.25</v>
+      </c>
       <c r="BA35" s="342"/>
       <c r="BB35" s="342"/>
       <c r="BC35" s="342"/>
@@ -8374,7 +8462,9 @@
         <v>18330.213</v>
       </c>
       <c r="AY36" s="342"/>
-      <c r="AZ36" s="342"/>
+      <c r="AZ36" s="342">
+        <v>18333.913</v>
+      </c>
       <c r="BA36" s="342"/>
       <c r="BB36" s="342"/>
       <c r="BC36" s="342"/>
@@ -8489,7 +8579,9 @@
         <v>16.5</v>
       </c>
       <c r="AY37" s="342"/>
-      <c r="AZ37" s="342"/>
+      <c r="AZ37" s="342">
+        <v>16.5</v>
+      </c>
       <c r="BA37" s="342"/>
       <c r="BB37" s="342"/>
       <c r="BC37" s="342"/>
@@ -8606,7 +8698,9 @@
         <v>115.41</v>
       </c>
       <c r="AY38" s="342"/>
-      <c r="AZ38" s="342"/>
+      <c r="AZ38" s="342">
+        <v>115.41</v>
+      </c>
       <c r="BA38" s="342"/>
       <c r="BB38" s="342"/>
       <c r="BC38" s="342"/>
@@ -8777,7 +8871,9 @@
         <v>564.76</v>
       </c>
       <c r="AY39" s="342"/>
-      <c r="AZ39" s="342"/>
+      <c r="AZ39" s="342">
+        <v>564.19000000000005</v>
+      </c>
       <c r="BA39" s="342"/>
       <c r="BB39" s="342"/>
       <c r="BC39" s="342"/>
@@ -8948,7 +9044,9 @@
         <v>59.633000000000003</v>
       </c>
       <c r="AY40" s="342"/>
-      <c r="AZ40" s="342"/>
+      <c r="AZ40" s="342">
+        <v>55.448</v>
+      </c>
       <c r="BA40" s="342"/>
       <c r="BB40" s="342"/>
       <c r="BC40" s="342"/>
@@ -9119,7 +9217,9 @@
         <v>127.57800000005955</v>
       </c>
       <c r="AY41" s="342"/>
-      <c r="AZ41" s="342"/>
+      <c r="AZ41" s="342">
+        <v>144.67199999994045</v>
+      </c>
       <c r="BA41" s="342"/>
       <c r="BB41" s="342"/>
       <c r="BC41" s="342"/>
@@ -9290,7 +9390,9 @@
         <v>2326.6410000000001</v>
       </c>
       <c r="AY42" s="342"/>
-      <c r="AZ42" s="342"/>
+      <c r="AZ42" s="342">
+        <v>2416.1396000000032</v>
+      </c>
       <c r="BA42" s="342"/>
       <c r="BB42" s="342"/>
       <c r="BC42" s="342"/>
@@ -9461,7 +9563,9 @@
         <v>34.580000000003565</v>
       </c>
       <c r="AY43" s="342"/>
-      <c r="AZ43" s="342"/>
+      <c r="AZ43" s="342">
+        <v>35.244999999998981</v>
+      </c>
       <c r="BA43" s="342"/>
       <c r="BB43" s="342"/>
       <c r="BC43" s="342"/>
@@ -9637,7 +9741,9 @@
         <v>2326.6410000000001</v>
       </c>
       <c r="AY44" s="342"/>
-      <c r="AZ44" s="342"/>
+      <c r="AZ44" s="342">
+        <v>2416.1396000000032</v>
+      </c>
       <c r="BA44" s="342"/>
       <c r="BB44" s="342"/>
       <c r="BC44" s="342"/>
@@ -9752,7 +9858,9 @@
         <v>477.66800000000001</v>
       </c>
       <c r="AY45" s="342"/>
-      <c r="AZ45" s="342"/>
+      <c r="AZ45" s="342">
+        <v>578.46360000000004</v>
+      </c>
       <c r="BA45" s="342"/>
       <c r="BB45" s="342"/>
       <c r="BC45" s="342"/>
